--- a/data/nzd0401/nzd0401.xlsx
+++ b/data/nzd0401/nzd0401.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L377"/>
+  <dimension ref="A1:L378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15527,6 +15527,48 @@
         <v>328.3048648648648</v>
       </c>
       <c r="L377" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>333.74</v>
+      </c>
+      <c r="C378" t="n">
+        <v>337.64</v>
+      </c>
+      <c r="D378" t="n">
+        <v>344.2266666666667</v>
+      </c>
+      <c r="E378" t="n">
+        <v>332.6517391304348</v>
+      </c>
+      <c r="F378" t="n">
+        <v>330.2617391304348</v>
+      </c>
+      <c r="G378" t="n">
+        <v>319.1455555555555</v>
+      </c>
+      <c r="H378" t="n">
+        <v>327.5655555555555</v>
+      </c>
+      <c r="I378" t="n">
+        <v>328.6104761904762</v>
+      </c>
+      <c r="J378" t="n">
+        <v>324.8066666666667</v>
+      </c>
+      <c r="K378" t="n">
+        <v>326.5378378378378</v>
+      </c>
+      <c r="L378" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15543,7 +15585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19351,6 +19393,16 @@
       </c>
       <c r="B380" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
@@ -19519,28 +19571,28 @@
         <v>0.0983</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7960395076018599</v>
+        <v>0.7950134824553455</v>
       </c>
       <c r="J2" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K2" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2909882652789157</v>
+        <v>0.2917429834976578</v>
       </c>
       <c r="M2" t="n">
-        <v>7.000539544762571</v>
+        <v>6.984604019609899</v>
       </c>
       <c r="N2" t="n">
-        <v>78.81523994870849</v>
+        <v>78.58703137848676</v>
       </c>
       <c r="O2" t="n">
-        <v>8.877794768336813</v>
+        <v>8.864932677606005</v>
       </c>
       <c r="P2" t="n">
-        <v>315.2025099301255</v>
+        <v>315.2128718056398</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19596,28 +19648,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.780299791943772</v>
+        <v>0.7807555236803888</v>
       </c>
       <c r="J3" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K3" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L3" t="n">
-        <v>0.284516889755916</v>
+        <v>0.2860469851889447</v>
       </c>
       <c r="M3" t="n">
-        <v>7.21148404664106</v>
+        <v>7.19247681769105</v>
       </c>
       <c r="N3" t="n">
-        <v>79.47276971170091</v>
+        <v>79.24344019927862</v>
       </c>
       <c r="O3" t="n">
-        <v>8.914750120541848</v>
+        <v>8.901878464643215</v>
       </c>
       <c r="P3" t="n">
-        <v>317.0473581080152</v>
+        <v>317.0428591898954</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19673,28 +19725,28 @@
         <v>0.1383</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4964904723688231</v>
+        <v>0.4979671415590144</v>
       </c>
       <c r="J4" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K4" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1929899012066261</v>
+        <v>0.1948350151584222</v>
       </c>
       <c r="M4" t="n">
-        <v>5.926654932499286</v>
+        <v>5.916096643115337</v>
       </c>
       <c r="N4" t="n">
-        <v>54.56870964860122</v>
+        <v>54.42914255514155</v>
       </c>
       <c r="O4" t="n">
-        <v>7.387063668914815</v>
+        <v>7.377610897515642</v>
       </c>
       <c r="P4" t="n">
-        <v>329.0672520256354</v>
+        <v>329.0528112486078</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19750,28 +19802,28 @@
         <v>0.1411</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09975009727442803</v>
+        <v>0.1006663330768483</v>
       </c>
       <c r="J5" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K5" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01352544893692642</v>
+        <v>0.0138541535835085</v>
       </c>
       <c r="M5" t="n">
-        <v>4.773503095942046</v>
+        <v>4.763935470519875</v>
       </c>
       <c r="N5" t="n">
-        <v>37.84226993541954</v>
+        <v>37.7411613600749</v>
       </c>
       <c r="O5" t="n">
-        <v>6.151607101840911</v>
+        <v>6.143383543298831</v>
       </c>
       <c r="P5" t="n">
-        <v>328.543603672163</v>
+        <v>328.5345896349891</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19827,28 +19879,28 @@
         <v>0.138</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1742522496225872</v>
+        <v>-0.1710002952664944</v>
       </c>
       <c r="J6" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K6" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02571948738341867</v>
+        <v>0.02490533043425436</v>
       </c>
       <c r="M6" t="n">
-        <v>5.7642912312712</v>
+        <v>5.764073260558079</v>
       </c>
       <c r="N6" t="n">
-        <v>60.03364928024639</v>
+        <v>59.95013426709748</v>
       </c>
       <c r="O6" t="n">
-        <v>7.748138439667066</v>
+        <v>7.742747204132231</v>
       </c>
       <c r="P6" t="n">
-        <v>329.0911176007112</v>
+        <v>329.0589536133725</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19904,28 +19956,28 @@
         <v>0.1085</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1473378737920599</v>
+        <v>0.1483997963895322</v>
       </c>
       <c r="J7" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K7" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01773199409718351</v>
+        <v>0.01810263924168187</v>
       </c>
       <c r="M7" t="n">
-        <v>6.274594683652797</v>
+        <v>6.260362107664488</v>
       </c>
       <c r="N7" t="n">
-        <v>62.45171343758864</v>
+        <v>62.2681203429896</v>
       </c>
       <c r="O7" t="n">
-        <v>7.902639649989657</v>
+        <v>7.891015165553137</v>
       </c>
       <c r="P7" t="n">
-        <v>313.72528795674</v>
+        <v>313.714860388288</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -19981,28 +20033,28 @@
         <v>0.1046</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.003067878726601762</v>
+        <v>-0.001133870916531169</v>
       </c>
       <c r="J8" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K8" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L8" t="n">
-        <v>8.35375472496569e-06</v>
+        <v>1.147355215280754e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>5.907686472143808</v>
+        <v>5.899706805709877</v>
       </c>
       <c r="N8" t="n">
-        <v>58.33444543720505</v>
+        <v>58.20056224703924</v>
       </c>
       <c r="O8" t="n">
-        <v>7.637698962200923</v>
+        <v>7.628929298862275</v>
       </c>
       <c r="P8" t="n">
-        <v>324.2608646726424</v>
+        <v>324.2415228691835</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -20058,28 +20110,28 @@
         <v>0.1228</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03587074652270526</v>
+        <v>-0.03429092014112707</v>
       </c>
       <c r="J9" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K9" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001256020174599137</v>
+        <v>0.001154264946152339</v>
       </c>
       <c r="M9" t="n">
-        <v>5.629907291876716</v>
+        <v>5.621450243634258</v>
       </c>
       <c r="N9" t="n">
-        <v>53.61573011795949</v>
+        <v>53.48510899896505</v>
       </c>
       <c r="O9" t="n">
-        <v>7.32227629347319</v>
+        <v>7.313351420447745</v>
       </c>
       <c r="P9" t="n">
-        <v>326.7225516976799</v>
+        <v>326.7068375580914</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -20135,28 +20187,28 @@
         <v>0.1375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1201740465668772</v>
+        <v>0.1186207117870592</v>
       </c>
       <c r="J10" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K10" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02571720774044195</v>
+        <v>0.02522353927963283</v>
       </c>
       <c r="M10" t="n">
-        <v>4.14837361160176</v>
+        <v>4.143108738777165</v>
       </c>
       <c r="N10" t="n">
-        <v>28.94099207348112</v>
+        <v>28.86554098219691</v>
       </c>
       <c r="O10" t="n">
-        <v>5.379683268881275</v>
+        <v>5.372666096287476</v>
       </c>
       <c r="P10" t="n">
-        <v>324.1691218227763</v>
+        <v>324.1844418286632</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -20212,28 +20264,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.03458207859042427</v>
+        <v>-0.03582553000481847</v>
       </c>
       <c r="J11" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K11" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001854877290024981</v>
+        <v>0.002001918636846289</v>
       </c>
       <c r="M11" t="n">
-        <v>4.420066919819289</v>
+        <v>4.412843958551733</v>
       </c>
       <c r="N11" t="n">
-        <v>33.39810423294762</v>
+        <v>33.31229009078933</v>
       </c>
       <c r="O11" t="n">
-        <v>5.779109294082231</v>
+        <v>5.771680005924559</v>
       </c>
       <c r="P11" t="n">
-        <v>329.522001775855</v>
+        <v>329.5344425099217</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -20270,7 +20322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L377"/>
+  <dimension ref="A1:L378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42136,6 +42188,68 @@
         </is>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>-42.74885123615747,173.39379890441964</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>-42.749463599021674,173.39346176435743</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>-42.75008878863394,173.39315222423707</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>-42.75071975961838,173.39285187542166</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>-42.75134553759181,173.39263880178763</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>-42.751886990623305,173.39219500998365</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>-42.75249750195577,173.3918537356166</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>-42.75312937810728,173.39154187911717</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>-42.75373064706704,173.39118357254563</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>-42.754339375831655,173.39085258049127</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0401/nzd0401.xlsx
+++ b/data/nzd0401/nzd0401.xlsx
@@ -19416,7 +19416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19507,35 +19507,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19594,27 +19599,28 @@
       <c r="P2" t="n">
         <v>315.2128718056398</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.39009854318627 -42.74758827771996, 173.40000985376284 -42.75097068991892)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.3900985431863</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.74758827771996</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.4000098537628</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.75097068991892</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.3950541984746</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.74927948381944</v>
       </c>
     </row>
@@ -19671,27 +19677,28 @@
       <c r="P3" t="n">
         <v>317.0428591898954</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.38971812990053 -42.7481858745355, 173.39962949089767 -42.75156829762973)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.3897181299005</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.7481858745355</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.3996294908977</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.75156829762973</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.3946738103991</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.74987708608262</v>
       </c>
     </row>
@@ -19748,27 +19755,28 @@
       <c r="P4" t="n">
         <v>329.0528112486078</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.38914017191976 -42.74915805635214, 173.39955986799205 -42.751574909901514)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.3891401719198</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.74915805635214</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.3995598679921</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.75157490990151</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.3943500199559</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.75036648312683</v>
       </c>
     </row>
@@ -19825,27 +19833,28 @@
       <c r="P5" t="n">
         <v>328.5345896349891</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.38886252255745 -42.75014550982726, 173.39958433834641 -42.75168852837421)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.3888625225574</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.75014550982726</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.3995843383464</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.75168852837421</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.3942234304519</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.75091701910074</v>
       </c>
     </row>
@@ -19902,27 +19911,28 @@
       <c r="P6" t="n">
         <v>329.0589536133725</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.3887769667138 -42.75048229761835, 173.39923062851256 -42.75281865838471)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.3887769667138</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.75048229761835</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.3992306285126</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.75281865838471</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.3940037976132</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.75165047800153</v>
       </c>
     </row>
@@ -19979,27 +19989,28 @@
       <c r="P7" t="n">
         <v>313.714860388288</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.38866800079856 -42.75066079931383, 173.39854678992992 -42.75409483738758)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.3886680007986</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-42.75066079931383</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.3985467899299</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-42.75409483738758</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.3936073953643</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-42.75237781835071</v>
       </c>
     </row>
@@ -20056,27 +20067,28 @@
       <c r="P8" t="n">
         <v>324.2415228691835</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.38821344431435 -42.75127100359288, 173.3981475014089 -42.75461762877505)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.3882134443143</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-42.75127100359288</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.3981475014089</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-42.75461762877505</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.3931804728616</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-42.75294431618397</v>
       </c>
     </row>
@@ -20133,27 +20145,28 @@
       <c r="P9" t="n">
         <v>326.7068375580914</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.3877797467865 -42.75209485900707, 173.39801418296085 -42.75490877508472)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.3877797467865</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-42.75209485900707</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.3980141829608</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-42.75490877508472</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.3928969648737</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-42.7535018170459</v>
       </c>
     </row>
@@ -20210,27 +20223,28 @@
       <c r="P10" t="n">
         <v>324.1844418286632</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.38749563468076 -42.752649439596965, 173.39764553577933 -42.75562474845367)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.3874956346808</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-42.75264943959696</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.3976455357793</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-42.75562474845367</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.39257058523</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-42.75413709402532</v>
       </c>
     </row>
@@ -20287,27 +20301,28 @@
       <c r="P11" t="n">
         <v>329.5344425099217</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.38717751256584 -42.753193926458664, 173.39723817191322 -42.75632926216145)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.3871775125658</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-42.75319392645866</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.3972381719132</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-42.75632926216145</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.3922078422395</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-42.75476159431005</v>
       </c>
     </row>

--- a/data/nzd0401/nzd0401.xlsx
+++ b/data/nzd0401/nzd0401.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L378"/>
+  <dimension ref="A1:L380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15571,6 +15571,90 @@
       <c r="L378" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>333.165</v>
+      </c>
+      <c r="C379" t="n">
+        <v>333.515</v>
+      </c>
+      <c r="D379" t="n">
+        <v>339.19</v>
+      </c>
+      <c r="E379" t="n">
+        <v>334.095652173913</v>
+      </c>
+      <c r="F379" t="n">
+        <v>326.725652173913</v>
+      </c>
+      <c r="G379" t="n">
+        <v>317.8133333333333</v>
+      </c>
+      <c r="H379" t="n">
+        <v>330.2833333333333</v>
+      </c>
+      <c r="I379" t="n">
+        <v>323.2914285714286</v>
+      </c>
+      <c r="J379" t="n">
+        <v>322.72</v>
+      </c>
+      <c r="K379" t="n">
+        <v>326.6891891891892</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>334.105</v>
+      </c>
+      <c r="C380" t="n">
+        <v>328.075</v>
+      </c>
+      <c r="D380" t="n">
+        <v>339.06</v>
+      </c>
+      <c r="E380" t="n">
+        <v>329.3134782608695</v>
+      </c>
+      <c r="F380" t="n">
+        <v>326.8934782608696</v>
+      </c>
+      <c r="G380" t="n">
+        <v>318.7066666666667</v>
+      </c>
+      <c r="H380" t="n">
+        <v>326.0766666666667</v>
+      </c>
+      <c r="I380" t="n">
+        <v>324.0414285714286</v>
+      </c>
+      <c r="J380" t="n">
+        <v>324.36</v>
+      </c>
+      <c r="K380" t="n">
+        <v>325.1389189189189</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -15585,7 +15669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B381"/>
+  <dimension ref="A1:B383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19403,6 +19487,26 @@
       </c>
       <c r="B381" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -19576,28 +19680,28 @@
         <v>0.0983</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7950134824553455</v>
+        <v>0.7927430611216005</v>
       </c>
       <c r="J2" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K2" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2917429834976578</v>
+        <v>0.2931441508656695</v>
       </c>
       <c r="M2" t="n">
-        <v>6.984604019609899</v>
+        <v>6.953974055344626</v>
       </c>
       <c r="N2" t="n">
-        <v>78.58703137848676</v>
+        <v>78.13963871965193</v>
       </c>
       <c r="O2" t="n">
-        <v>8.864932677606005</v>
+        <v>8.839662817079164</v>
       </c>
       <c r="P2" t="n">
-        <v>315.2128718056398</v>
+        <v>315.2359255529895</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19654,28 +19758,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7807555236803888</v>
+        <v>0.7734325578047505</v>
       </c>
       <c r="J3" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K3" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2860469851889447</v>
+        <v>0.2841381098786312</v>
       </c>
       <c r="M3" t="n">
-        <v>7.19247681769105</v>
+        <v>7.190361295025962</v>
       </c>
       <c r="N3" t="n">
-        <v>79.24344019927862</v>
+        <v>79.04697609877262</v>
       </c>
       <c r="O3" t="n">
-        <v>8.901878464643215</v>
+        <v>8.89083663660359</v>
       </c>
       <c r="P3" t="n">
-        <v>317.0428591898954</v>
+        <v>317.1156860175336</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19732,28 +19836,28 @@
         <v>0.1383</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4979671415590144</v>
+        <v>0.4949150789577307</v>
       </c>
       <c r="J4" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K4" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1948350151584222</v>
+        <v>0.1947513259726622</v>
       </c>
       <c r="M4" t="n">
-        <v>5.916096643115337</v>
+        <v>5.898526151908408</v>
       </c>
       <c r="N4" t="n">
-        <v>54.42914255514155</v>
+        <v>54.15508435807516</v>
       </c>
       <c r="O4" t="n">
-        <v>7.377610897515642</v>
+        <v>7.359013816950961</v>
       </c>
       <c r="P4" t="n">
-        <v>329.0528112486078</v>
+        <v>329.0828478521436</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19810,28 +19914,28 @@
         <v>0.1411</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1006663330768483</v>
+        <v>0.1013427324267081</v>
       </c>
       <c r="J5" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K5" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0138541535835085</v>
+        <v>0.01420046889722326</v>
       </c>
       <c r="M5" t="n">
-        <v>4.763935470519875</v>
+        <v>4.750177166911459</v>
       </c>
       <c r="N5" t="n">
-        <v>37.7411613600749</v>
+        <v>37.56139113407183</v>
       </c>
       <c r="O5" t="n">
-        <v>6.143383543298831</v>
+        <v>6.128734872228675</v>
       </c>
       <c r="P5" t="n">
-        <v>328.5345896349891</v>
+        <v>328.5279781343166</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19888,28 +19992,28 @@
         <v>0.138</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1710002952664944</v>
+        <v>-0.1685533513804131</v>
       </c>
       <c r="J6" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K6" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02490533043425436</v>
+        <v>0.02449992137184931</v>
       </c>
       <c r="M6" t="n">
-        <v>5.764073260558079</v>
+        <v>5.743269035634484</v>
       </c>
       <c r="N6" t="n">
-        <v>59.95013426709748</v>
+        <v>59.63187024802644</v>
       </c>
       <c r="O6" t="n">
-        <v>7.742747204132231</v>
+        <v>7.722167457911441</v>
       </c>
       <c r="P6" t="n">
-        <v>329.0589536133725</v>
+        <v>329.0345990818589</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19966,28 +20070,28 @@
         <v>0.1085</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1483997963895322</v>
+        <v>0.1493523357078756</v>
       </c>
       <c r="J7" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K7" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01810263924168187</v>
+        <v>0.01857914187681808</v>
       </c>
       <c r="M7" t="n">
-        <v>6.260362107664488</v>
+        <v>6.226528206145605</v>
       </c>
       <c r="N7" t="n">
-        <v>62.2681203429896</v>
+        <v>61.89186242373361</v>
       </c>
       <c r="O7" t="n">
-        <v>7.891015165553137</v>
+        <v>7.867138134273073</v>
       </c>
       <c r="P7" t="n">
-        <v>313.714860388288</v>
+        <v>313.7054346457826</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20044,28 +20148,28 @@
         <v>0.1046</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.001133870916531169</v>
+        <v>0.0033642009387308</v>
       </c>
       <c r="J8" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K8" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L8" t="n">
-        <v>1.147355215280754e-06</v>
+        <v>1.020309239196937e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>5.899706805709877</v>
+        <v>5.886878851762338</v>
       </c>
       <c r="N8" t="n">
-        <v>58.20056224703924</v>
+        <v>57.98349608300056</v>
       </c>
       <c r="O8" t="n">
-        <v>7.628929298862275</v>
+        <v>7.614689493538168</v>
       </c>
       <c r="P8" t="n">
-        <v>324.2415228691835</v>
+        <v>324.1963336835327</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20122,28 +20226,28 @@
         <v>0.1228</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03429092014112707</v>
+        <v>-0.03671927213569893</v>
       </c>
       <c r="J9" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K9" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001154264946152339</v>
+        <v>0.001338471448613987</v>
       </c>
       <c r="M9" t="n">
-        <v>5.621450243634258</v>
+        <v>5.602283615216579</v>
       </c>
       <c r="N9" t="n">
-        <v>53.48510899896505</v>
+        <v>53.20896953707921</v>
       </c>
       <c r="O9" t="n">
-        <v>7.313351420447745</v>
+        <v>7.294447856903167</v>
       </c>
       <c r="P9" t="n">
-        <v>326.7068375580914</v>
+        <v>326.7311311607013</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20200,28 +20304,28 @@
         <v>0.1375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1186207117870592</v>
+        <v>0.1139386360824245</v>
       </c>
       <c r="J10" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K10" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02522353927963283</v>
+        <v>0.02355756989734947</v>
       </c>
       <c r="M10" t="n">
-        <v>4.143108738777165</v>
+        <v>4.140801602705505</v>
       </c>
       <c r="N10" t="n">
-        <v>28.86554098219691</v>
+        <v>28.76860198951606</v>
       </c>
       <c r="O10" t="n">
-        <v>5.372666096287476</v>
+        <v>5.363637011349301</v>
       </c>
       <c r="P10" t="n">
-        <v>324.1844418286632</v>
+        <v>324.2308805218798</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20278,28 +20382,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.03582553000481847</v>
+        <v>-0.03900833641199731</v>
       </c>
       <c r="J11" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K11" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002001918636846289</v>
+        <v>0.002398856039443786</v>
       </c>
       <c r="M11" t="n">
-        <v>4.412843958551733</v>
+        <v>4.401636557879137</v>
       </c>
       <c r="N11" t="n">
-        <v>33.31229009078933</v>
+        <v>33.16211989052938</v>
       </c>
       <c r="O11" t="n">
-        <v>5.771680005924559</v>
+        <v>5.758656083716875</v>
       </c>
       <c r="P11" t="n">
-        <v>329.5344425099217</v>
+        <v>329.5665141502976</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20337,7 +20441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L378"/>
+  <dimension ref="A1:L380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42265,6 +42369,130 @@
         </is>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>-42.74884906031239,173.39379252894582</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>-42.74944798960823,173.39341602687375</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>-42.75007517133358,173.39309351970394</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>-42.75072225191182,173.39286919182388</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>-42.75133629564066,173.39259745285443</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>-42.75188187231071,173.39218028675862</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>-42.752507677599255,173.39188393933742</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>-42.75311263387179,173.39148098243902</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>-42.75372370140993,173.39115987959244</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>-42.75433990672366,173.39085428392843</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>-42.74885261734589,173.39380295145978</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>-42.74942740407487,173.3933557088696</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>-42.750074819860835,173.3930920044979</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>-42.75071399753997,173.39281184069745</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>-42.7513367342729,173.39259941531432</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>-42.75188530444046,173.39219015954646</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>-42.752491927397074,173.39183718901984</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>-42.753114994855935,173.39148956903222</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>-42.7537291602974,173.39117850089067</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>-42.754334468871605,173.3908368358662</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0401/nzd0401.xlsx
+++ b/data/nzd0401/nzd0401.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L380"/>
+  <dimension ref="A1:L382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15655,6 +15655,90 @@
       <c r="L380" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>338.45</v>
+      </c>
+      <c r="C381" t="n">
+        <v>339.05</v>
+      </c>
+      <c r="D381" t="n">
+        <v>343.36</v>
+      </c>
+      <c r="E381" t="n">
+        <v>329.75</v>
+      </c>
+      <c r="F381" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="G381" t="n">
+        <v>322.79</v>
+      </c>
+      <c r="H381" t="n">
+        <v>327.83</v>
+      </c>
+      <c r="I381" t="n">
+        <v>329.76</v>
+      </c>
+      <c r="J381" t="n">
+        <v>331.04</v>
+      </c>
+      <c r="K381" t="n">
+        <v>326.21</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>336.46</v>
+      </c>
+      <c r="C382" t="n">
+        <v>336.97</v>
+      </c>
+      <c r="D382" t="n">
+        <v>340.47</v>
+      </c>
+      <c r="E382" t="n">
+        <v>330.5317391304348</v>
+      </c>
+      <c r="F382" t="n">
+        <v>328.3117391304348</v>
+      </c>
+      <c r="G382" t="n">
+        <v>322.6966666666667</v>
+      </c>
+      <c r="H382" t="n">
+        <v>319.8666666666667</v>
+      </c>
+      <c r="I382" t="n">
+        <v>321.6614285714285</v>
+      </c>
+      <c r="J382" t="n">
+        <v>323.43</v>
+      </c>
+      <c r="K382" t="n">
+        <v>327.3543243243243</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15669,7 +15753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B383"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19507,6 +19591,26 @@
       </c>
       <c r="B383" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -19680,28 +19784,28 @@
         <v>0.0983</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7927430611216005</v>
+        <v>0.7949690653863788</v>
       </c>
       <c r="J2" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K2" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2931441508656695</v>
+        <v>0.2969084581426701</v>
       </c>
       <c r="M2" t="n">
-        <v>6.953974055344626</v>
+        <v>6.923644529475172</v>
       </c>
       <c r="N2" t="n">
-        <v>78.13963871965193</v>
+        <v>77.70196018614718</v>
       </c>
       <c r="O2" t="n">
-        <v>8.839662817079164</v>
+        <v>8.814871535430745</v>
       </c>
       <c r="P2" t="n">
-        <v>315.2359255529895</v>
+        <v>315.2131607116732</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19758,28 +19862,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7734325578047505</v>
+        <v>0.7746325313659604</v>
       </c>
       <c r="J3" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K3" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2841381098786312</v>
+        <v>0.287361058817436</v>
       </c>
       <c r="M3" t="n">
-        <v>7.190361295025962</v>
+        <v>7.154512466241481</v>
       </c>
       <c r="N3" t="n">
-        <v>79.04697609877262</v>
+        <v>78.6050106899218</v>
       </c>
       <c r="O3" t="n">
-        <v>8.89083663660359</v>
+        <v>8.86594668887208</v>
       </c>
       <c r="P3" t="n">
-        <v>317.1156860175336</v>
+        <v>317.1036977726889</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19836,28 +19940,28 @@
         <v>0.1383</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4949150789577307</v>
+        <v>0.4950458680647141</v>
       </c>
       <c r="J4" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K4" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1947513259726622</v>
+        <v>0.1967745567741861</v>
       </c>
       <c r="M4" t="n">
-        <v>5.898526151908408</v>
+        <v>5.873012239243578</v>
       </c>
       <c r="N4" t="n">
-        <v>54.15508435807516</v>
+        <v>53.85696280350677</v>
       </c>
       <c r="O4" t="n">
-        <v>7.359013816950961</v>
+        <v>7.338730326392078</v>
       </c>
       <c r="P4" t="n">
-        <v>329.0828478521436</v>
+        <v>329.0815685517521</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19914,28 +20018,28 @@
         <v>0.1411</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1013427324267081</v>
+        <v>0.1002015756943676</v>
       </c>
       <c r="J5" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K5" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01420046889722326</v>
+        <v>0.01405851140227299</v>
       </c>
       <c r="M5" t="n">
-        <v>4.750177166911459</v>
+        <v>4.729354270226477</v>
       </c>
       <c r="N5" t="n">
-        <v>37.56139113407183</v>
+        <v>37.35547914661833</v>
       </c>
       <c r="O5" t="n">
-        <v>6.128734872228675</v>
+        <v>6.11191288768241</v>
       </c>
       <c r="P5" t="n">
-        <v>328.5279781343166</v>
+        <v>328.5393476205246</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19992,28 +20096,28 @@
         <v>0.138</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1685533513804131</v>
+        <v>-0.1619974291501639</v>
       </c>
       <c r="J6" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K6" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02449992137184931</v>
+        <v>0.0228737740945808</v>
       </c>
       <c r="M6" t="n">
-        <v>5.743269035634484</v>
+        <v>5.742982015021635</v>
       </c>
       <c r="N6" t="n">
-        <v>59.63187024802644</v>
+        <v>59.49889216157003</v>
       </c>
       <c r="O6" t="n">
-        <v>7.722167457911441</v>
+        <v>7.713552499436951</v>
       </c>
       <c r="P6" t="n">
-        <v>329.0345990818589</v>
+        <v>328.9689184915063</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20070,28 +20174,28 @@
         <v>0.1085</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1493523357078756</v>
+        <v>0.155851271682843</v>
       </c>
       <c r="J7" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K7" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01857914187681808</v>
+        <v>0.02041986065410017</v>
       </c>
       <c r="M7" t="n">
-        <v>6.226528206145605</v>
+        <v>6.218584644537127</v>
       </c>
       <c r="N7" t="n">
-        <v>61.89186242373361</v>
+        <v>61.67682376815498</v>
       </c>
       <c r="O7" t="n">
-        <v>7.867138134273073</v>
+        <v>7.853459350385344</v>
       </c>
       <c r="P7" t="n">
-        <v>313.7054346457826</v>
+        <v>313.6407938648113</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20148,28 +20252,28 @@
         <v>0.1046</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0033642009387308</v>
+        <v>0.002862308821810737</v>
       </c>
       <c r="J8" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K8" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L8" t="n">
-        <v>1.020309239196937e-05</v>
+        <v>7.46443815147213e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>5.886878851762338</v>
+        <v>5.876303248919441</v>
       </c>
       <c r="N8" t="n">
-        <v>57.98349608300056</v>
+        <v>57.74719229026712</v>
       </c>
       <c r="O8" t="n">
-        <v>7.614689493538168</v>
+        <v>7.599157340802145</v>
       </c>
       <c r="P8" t="n">
-        <v>324.1963336835327</v>
+        <v>324.2014665864515</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20226,28 +20330,28 @@
         <v>0.1228</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03671927213569893</v>
+        <v>-0.03681489179531742</v>
       </c>
       <c r="J9" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K9" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001338471448613987</v>
+        <v>0.001359266282835669</v>
       </c>
       <c r="M9" t="n">
-        <v>5.602283615216579</v>
+        <v>5.59354895607737</v>
       </c>
       <c r="N9" t="n">
-        <v>53.20896953707921</v>
+        <v>53.00157261160676</v>
       </c>
       <c r="O9" t="n">
-        <v>7.294447856903167</v>
+        <v>7.280217895887922</v>
       </c>
       <c r="P9" t="n">
-        <v>326.7311311607013</v>
+        <v>326.7321424643559</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20304,28 +20408,28 @@
         <v>0.1375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1139386360824245</v>
+        <v>0.1140261450146764</v>
       </c>
       <c r="J10" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K10" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02355756989734947</v>
+        <v>0.02383384220658891</v>
       </c>
       <c r="M10" t="n">
-        <v>4.140801602705505</v>
+        <v>4.138641723923747</v>
       </c>
       <c r="N10" t="n">
-        <v>28.76860198951606</v>
+        <v>28.67686062697431</v>
       </c>
       <c r="O10" t="n">
-        <v>5.363637011349301</v>
+        <v>5.355078022491765</v>
       </c>
       <c r="P10" t="n">
-        <v>324.2308805218798</v>
+        <v>324.2300560686934</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20382,28 +20486,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.03900833641199731</v>
+        <v>-0.04109182157898043</v>
       </c>
       <c r="J11" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K11" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002398856039443786</v>
+        <v>0.002692983557160411</v>
       </c>
       <c r="M11" t="n">
-        <v>4.401636557879137</v>
+        <v>4.385378148599832</v>
       </c>
       <c r="N11" t="n">
-        <v>33.16211989052938</v>
+        <v>32.98834535677124</v>
       </c>
       <c r="O11" t="n">
-        <v>5.758656083716875</v>
+        <v>5.743548150470338</v>
       </c>
       <c r="P11" t="n">
-        <v>329.5665141502976</v>
+        <v>329.5876335386625</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20441,7 +20545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L380"/>
+  <dimension ref="A1:L382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42493,6 +42597,130 @@
         </is>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>-42.74886905915319,173.39385112788273</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>-42.74946893459878,173.39347739826619</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>-42.75008644548711,173.3931421228596</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>-42.750714751008694,173.39281707576646</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>-42.751351387524366,173.3926649747077</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>-42.751900992336076,173.39223528704198</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>-42.75249849206371,173.39185667449007</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>-42.75313299677662,173.39155503978222</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>-42.753751395246624,173.3912543486513</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>-42.75433822588158,173.39084889072475</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>-42.74886152884582,173.39382906318875</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>-42.749461063675774,173.39345433547973</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>-42.75007863198723,173.39310843865633</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>-42.75071610034749,173.39282645092024</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>-42.75134044105477,173.39261599962637</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>-42.75190063375582,173.39223425555613</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>-42.75246867646922,173.3917681749254</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>-42.753107502664,173.39146232091204</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>-42.75372606470915,173.39116794125164</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>-42.75434223980406,173.3908617699268</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0401/nzd0401.xlsx
+++ b/data/nzd0401/nzd0401.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L382"/>
+  <dimension ref="A1:L383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15739,6 +15739,48 @@
       <c r="L382" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>328.585</v>
+      </c>
+      <c r="C383" t="n">
+        <v>338.735</v>
+      </c>
+      <c r="D383" t="n">
+        <v>335.2733333333333</v>
+      </c>
+      <c r="E383" t="n">
+        <v>334.145652173913</v>
+      </c>
+      <c r="F383" t="n">
+        <v>334.6256521739131</v>
+      </c>
+      <c r="G383" t="n">
+        <v>316.2044444444444</v>
+      </c>
+      <c r="H383" t="n">
+        <v>331.1444444444444</v>
+      </c>
+      <c r="I383" t="n">
+        <v>326.942380952381</v>
+      </c>
+      <c r="J383" t="n">
+        <v>327.1633333333333</v>
+      </c>
+      <c r="K383" t="n">
+        <v>327.5056756756757</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -15753,7 +15795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B385"/>
+  <dimension ref="A1:B386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19611,6 +19653,16 @@
       </c>
       <c r="B385" t="n">
         <v>0.06</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -19784,28 +19836,28 @@
         <v>0.0983</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7949690653863788</v>
+        <v>0.7907266973776491</v>
       </c>
       <c r="J2" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K2" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2969084581426701</v>
+        <v>0.2956049579409411</v>
       </c>
       <c r="M2" t="n">
-        <v>6.923644529475172</v>
+        <v>6.92403299568298</v>
       </c>
       <c r="N2" t="n">
-        <v>77.70196018614718</v>
+        <v>77.61930535587319</v>
       </c>
       <c r="O2" t="n">
-        <v>8.814871535430745</v>
+        <v>8.810181913892198</v>
       </c>
       <c r="P2" t="n">
-        <v>315.2131607116732</v>
+        <v>315.2566569664223</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19862,28 +19914,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7746325313659604</v>
+        <v>0.7756236031256493</v>
       </c>
       <c r="J3" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K3" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L3" t="n">
-        <v>0.287361058817436</v>
+        <v>0.2891690150782805</v>
       </c>
       <c r="M3" t="n">
-        <v>7.154512466241481</v>
+        <v>7.138333843461722</v>
       </c>
       <c r="N3" t="n">
-        <v>78.6050106899218</v>
+        <v>78.38794294561281</v>
       </c>
       <c r="O3" t="n">
-        <v>8.86594668887208</v>
+        <v>8.853696569547253</v>
       </c>
       <c r="P3" t="n">
-        <v>317.1036977726889</v>
+        <v>317.0937667923992</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19940,28 +19992,28 @@
         <v>0.1383</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4950458680647141</v>
+        <v>0.4913030211228702</v>
       </c>
       <c r="J4" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K4" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1967745567741861</v>
+        <v>0.1950065749999774</v>
       </c>
       <c r="M4" t="n">
-        <v>5.873012239243578</v>
+        <v>5.876475268159302</v>
       </c>
       <c r="N4" t="n">
-        <v>53.85696280350677</v>
+        <v>53.8245064571526</v>
       </c>
       <c r="O4" t="n">
-        <v>7.338730326392078</v>
+        <v>7.336518687848659</v>
       </c>
       <c r="P4" t="n">
-        <v>329.0815685517521</v>
+        <v>329.1187388148911</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20018,28 +20070,28 @@
         <v>0.1411</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1002015756943676</v>
+        <v>0.1019376789517202</v>
       </c>
       <c r="J5" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K5" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01405851140227299</v>
+        <v>0.01462270752785644</v>
       </c>
       <c r="M5" t="n">
-        <v>4.729354270226477</v>
+        <v>4.723853615427834</v>
       </c>
       <c r="N5" t="n">
-        <v>37.35547914661833</v>
+        <v>37.27583892987582</v>
       </c>
       <c r="O5" t="n">
-        <v>6.11191288768241</v>
+        <v>6.105394248521206</v>
       </c>
       <c r="P5" t="n">
-        <v>328.5393476205246</v>
+        <v>328.5220095471673</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20096,28 +20148,28 @@
         <v>0.138</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1619974291501639</v>
+        <v>-0.156372144348406</v>
       </c>
       <c r="J6" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K6" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0228737740945808</v>
+        <v>0.02137975399433456</v>
       </c>
       <c r="M6" t="n">
-        <v>5.742982015021635</v>
+        <v>5.754429490106626</v>
       </c>
       <c r="N6" t="n">
-        <v>59.49889216157003</v>
+        <v>59.60168005190383</v>
       </c>
       <c r="O6" t="n">
-        <v>7.713552499436951</v>
+        <v>7.720212435671951</v>
       </c>
       <c r="P6" t="n">
-        <v>328.9689184915063</v>
+        <v>328.9124272302196</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20174,28 +20226,28 @@
         <v>0.1085</v>
       </c>
       <c r="I7" t="n">
-        <v>0.155851271682843</v>
+        <v>0.1549522182225922</v>
       </c>
       <c r="J7" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K7" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02041986065410017</v>
+        <v>0.02032280369513451</v>
       </c>
       <c r="M7" t="n">
-        <v>6.218584644537127</v>
+        <v>6.204317567240166</v>
       </c>
       <c r="N7" t="n">
-        <v>61.67682376815498</v>
+        <v>61.49620968207429</v>
       </c>
       <c r="O7" t="n">
-        <v>7.853459350385344</v>
+        <v>7.841951905111015</v>
       </c>
       <c r="P7" t="n">
-        <v>313.6407938648113</v>
+        <v>313.649753798985</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20252,28 +20304,28 @@
         <v>0.1046</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002862308821810737</v>
+        <v>0.006738203328016344</v>
       </c>
       <c r="J8" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K8" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L8" t="n">
-        <v>7.46443815147213e-06</v>
+        <v>4.152035076154803e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>5.876303248919441</v>
+        <v>5.877707181458128</v>
       </c>
       <c r="N8" t="n">
-        <v>57.74719229026712</v>
+        <v>57.71636490802967</v>
       </c>
       <c r="O8" t="n">
-        <v>7.599157340802145</v>
+        <v>7.597128727883296</v>
       </c>
       <c r="P8" t="n">
-        <v>324.2014665864515</v>
+        <v>324.1621064100778</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20330,28 +20382,28 @@
         <v>0.1228</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03681489179531742</v>
+        <v>-0.03616982420999201</v>
       </c>
       <c r="J9" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K9" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001359266282835669</v>
+        <v>0.001319819728563876</v>
       </c>
       <c r="M9" t="n">
-        <v>5.59354895607737</v>
+        <v>5.58093408395033</v>
       </c>
       <c r="N9" t="n">
-        <v>53.00157261160676</v>
+        <v>52.85642379188786</v>
       </c>
       <c r="O9" t="n">
-        <v>7.280217895887922</v>
+        <v>7.270242347534769</v>
       </c>
       <c r="P9" t="n">
-        <v>326.7321424643559</v>
+        <v>326.7256252575461</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20408,28 +20460,28 @@
         <v>0.1375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1140261450146764</v>
+        <v>0.1140253398201822</v>
       </c>
       <c r="J10" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K10" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02383384220658891</v>
+        <v>0.0239911345873457</v>
       </c>
       <c r="M10" t="n">
-        <v>4.138641723923747</v>
+        <v>4.125381052727739</v>
       </c>
       <c r="N10" t="n">
-        <v>28.67686062697431</v>
+        <v>28.58494761731513</v>
       </c>
       <c r="O10" t="n">
-        <v>5.355078022491765</v>
+        <v>5.346489279640905</v>
       </c>
       <c r="P10" t="n">
-        <v>324.2300560686934</v>
+        <v>324.230064135865</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20486,28 +20538,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.04109182157898043</v>
+        <v>-0.04168807528040952</v>
       </c>
       <c r="J11" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K11" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002692983557160411</v>
+        <v>0.002788380257927825</v>
       </c>
       <c r="M11" t="n">
-        <v>4.385378148599832</v>
+        <v>4.37528397024777</v>
       </c>
       <c r="N11" t="n">
-        <v>32.98834535677124</v>
+        <v>32.89520130961328</v>
       </c>
       <c r="O11" t="n">
-        <v>5.743548150470338</v>
+        <v>5.735433837959713</v>
       </c>
       <c r="P11" t="n">
-        <v>329.5876335386625</v>
+        <v>329.5936918158943</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20545,7 +20597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L382"/>
+  <dimension ref="A1:L383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24588,7 +24640,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-42.75188778889206,173.39219730626667</t>
+          <t>-42.75188778889207,173.39219730626667</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -42721,6 +42773,68 @@
         </is>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>-42.74883172922065,173.39374174692676</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>-42.74946774260833,173.39347390558422</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>-42.750064582081755,173.3930478692739</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>-42.75072233821521,173.39286979145842</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>-42.751356943136564,173.3926898308518</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>-42.75187569105993,173.39216250591954</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>-42.752510901687366,173.39189350920194</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>-42.75312412698663,173.39152278143564</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>-42.75373849143743,173.39121033120682</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>-42.75434277069591,173.39086347336413</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0401/nzd0401.xlsx
+++ b/data/nzd0401/nzd0401.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L383"/>
+  <dimension ref="A1:L386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15781,6 +15781,132 @@
       <c r="L383" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>304.425</v>
+      </c>
+      <c r="C384" t="n">
+        <v>316.295</v>
+      </c>
+      <c r="D384" t="n">
+        <v>331.1</v>
+      </c>
+      <c r="E384" t="n">
+        <v>321.9834782608696</v>
+      </c>
+      <c r="F384" t="n">
+        <v>321.1034782608696</v>
+      </c>
+      <c r="G384" t="n">
+        <v>302.5966666666667</v>
+      </c>
+      <c r="H384" t="n">
+        <v>314.4966666666667</v>
+      </c>
+      <c r="I384" t="n">
+        <v>309.2014285714285</v>
+      </c>
+      <c r="J384" t="n">
+        <v>328.27</v>
+      </c>
+      <c r="K384" t="n">
+        <v>323.8089189189189</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>332.965</v>
+      </c>
+      <c r="C385" t="n">
+        <v>339.705</v>
+      </c>
+      <c r="D385" t="n">
+        <v>338.61</v>
+      </c>
+      <c r="E385" t="n">
+        <v>333.9</v>
+      </c>
+      <c r="F385" t="n">
+        <v>320.59</v>
+      </c>
+      <c r="G385" t="n">
+        <v>319.2366666666667</v>
+      </c>
+      <c r="H385" t="n">
+        <v>322.6166666666667</v>
+      </c>
+      <c r="I385" t="n">
+        <v>326.3614285714286</v>
+      </c>
+      <c r="J385" t="n">
+        <v>331.18</v>
+      </c>
+      <c r="K385" t="n">
+        <v>325.0697297297297</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:30+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>331.355</v>
+      </c>
+      <c r="C386" t="n">
+        <v>329.745</v>
+      </c>
+      <c r="D386" t="n">
+        <v>340.9233333333333</v>
+      </c>
+      <c r="E386" t="n">
+        <v>333.2695652173913</v>
+      </c>
+      <c r="F386" t="n">
+        <v>328.8595652173913</v>
+      </c>
+      <c r="G386" t="n">
+        <v>314.2244444444444</v>
+      </c>
+      <c r="H386" t="n">
+        <v>322.8944444444444</v>
+      </c>
+      <c r="I386" t="n">
+        <v>333.9609523809524</v>
+      </c>
+      <c r="J386" t="n">
+        <v>328.3033333333333</v>
+      </c>
+      <c r="K386" t="n">
+        <v>323.4808108108109</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15795,7 +15921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B386"/>
+  <dimension ref="A1:B389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19663,6 +19789,36 @@
       </c>
       <c r="B386" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -19836,28 +19992,28 @@
         <v>0.0983</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7907266973776491</v>
+        <v>0.7681351284084631</v>
       </c>
       <c r="J2" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K2" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2956049579409411</v>
+        <v>0.2800300734952242</v>
       </c>
       <c r="M2" t="n">
-        <v>6.92403299568298</v>
+        <v>6.973345071282377</v>
       </c>
       <c r="N2" t="n">
-        <v>77.61930535587319</v>
+        <v>79.84224805749299</v>
       </c>
       <c r="O2" t="n">
-        <v>8.810181913892198</v>
+        <v>8.935448956683318</v>
       </c>
       <c r="P2" t="n">
-        <v>315.2566569664223</v>
+        <v>315.4894960875072</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19914,28 +20070,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7756236031256493</v>
+        <v>0.7608338353634169</v>
       </c>
       <c r="J3" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K3" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2891690150782805</v>
+        <v>0.2815855362536938</v>
       </c>
       <c r="M3" t="n">
-        <v>7.138333843461722</v>
+        <v>7.173226231386924</v>
       </c>
       <c r="N3" t="n">
-        <v>78.38794294561281</v>
+        <v>79.1124532835821</v>
       </c>
       <c r="O3" t="n">
-        <v>8.853696569547253</v>
+        <v>8.894518159157476</v>
       </c>
       <c r="P3" t="n">
-        <v>317.0937667923992</v>
+        <v>317.2427604326998</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19992,28 +20148,28 @@
         <v>0.1383</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4913030211228702</v>
+        <v>0.4829545101698392</v>
       </c>
       <c r="J4" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K4" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1950065749999774</v>
+        <v>0.1915458134599729</v>
       </c>
       <c r="M4" t="n">
-        <v>5.876475268159302</v>
+        <v>5.871959388038838</v>
       </c>
       <c r="N4" t="n">
-        <v>53.8245064571526</v>
+        <v>53.71853948793556</v>
       </c>
       <c r="O4" t="n">
-        <v>7.336518687848659</v>
+        <v>7.329293246141511</v>
       </c>
       <c r="P4" t="n">
-        <v>329.1187388148911</v>
+        <v>329.2020933607077</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20070,28 +20226,28 @@
         <v>0.1411</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1019376789517202</v>
+        <v>0.09950845326794071</v>
       </c>
       <c r="J5" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K5" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01462270752785644</v>
+        <v>0.01410319047205011</v>
       </c>
       <c r="M5" t="n">
-        <v>4.723853615427834</v>
+        <v>4.724523906751963</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27583892987582</v>
+        <v>37.23146113156472</v>
       </c>
       <c r="O5" t="n">
-        <v>6.105394248521206</v>
+        <v>6.101758855573098</v>
       </c>
       <c r="P5" t="n">
-        <v>328.5220095471673</v>
+        <v>328.5463491953049</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20148,28 +20304,28 @@
         <v>0.138</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.156372144348406</v>
+        <v>-0.1586473596167547</v>
       </c>
       <c r="J6" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K6" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02137975399433456</v>
+        <v>0.02234494281827171</v>
       </c>
       <c r="M6" t="n">
-        <v>5.754429490106626</v>
+        <v>5.739628128279018</v>
       </c>
       <c r="N6" t="n">
-        <v>59.60168005190383</v>
+        <v>59.23408750598535</v>
       </c>
       <c r="O6" t="n">
-        <v>7.720212435671951</v>
+        <v>7.696368462202505</v>
       </c>
       <c r="P6" t="n">
-        <v>328.9124272302196</v>
+        <v>328.9353679353744</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20226,28 +20382,28 @@
         <v>0.1085</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1549522182225922</v>
+        <v>0.1446401295413986</v>
       </c>
       <c r="J7" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K7" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02032280369513451</v>
+        <v>0.01790698227247134</v>
       </c>
       <c r="M7" t="n">
-        <v>6.204317567240166</v>
+        <v>6.210352656856022</v>
       </c>
       <c r="N7" t="n">
-        <v>61.49620968207429</v>
+        <v>61.65775122878554</v>
       </c>
       <c r="O7" t="n">
-        <v>7.841951905111015</v>
+        <v>7.852244980181498</v>
       </c>
       <c r="P7" t="n">
-        <v>313.649753798985</v>
+        <v>313.7530534577181</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20304,28 +20460,28 @@
         <v>0.1046</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006738203328016344</v>
+        <v>-0.0004849629757574723</v>
       </c>
       <c r="J8" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K8" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L8" t="n">
-        <v>4.152035076154803e-05</v>
+        <v>2.179423295167737e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>5.877707181458128</v>
+        <v>5.866736547482126</v>
       </c>
       <c r="N8" t="n">
-        <v>57.71636490802967</v>
+        <v>57.51368108092746</v>
       </c>
       <c r="O8" t="n">
-        <v>7.597128727883296</v>
+        <v>7.583777494159983</v>
       </c>
       <c r="P8" t="n">
-        <v>324.1621064100778</v>
+        <v>324.2358506723507</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20382,28 +20538,28 @@
         <v>0.1228</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03616982420999201</v>
+        <v>-0.04045337167061594</v>
       </c>
       <c r="J9" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K9" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001319819728563876</v>
+        <v>0.001650120375803477</v>
       </c>
       <c r="M9" t="n">
-        <v>5.58093408395033</v>
+        <v>5.606081546340774</v>
       </c>
       <c r="N9" t="n">
-        <v>52.85642379188786</v>
+        <v>53.36677285407207</v>
       </c>
       <c r="O9" t="n">
-        <v>7.270242347534769</v>
+        <v>7.305256522126521</v>
       </c>
       <c r="P9" t="n">
-        <v>326.7256252575461</v>
+        <v>326.7690251135216</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20460,28 +20616,28 @@
         <v>0.1375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1140253398201822</v>
+        <v>0.117877370585098</v>
       </c>
       <c r="J10" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K10" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0239911345873457</v>
+        <v>0.02605514815156451</v>
       </c>
       <c r="M10" t="n">
-        <v>4.125381052727739</v>
+        <v>4.104827415456283</v>
       </c>
       <c r="N10" t="n">
-        <v>28.58494761731513</v>
+        <v>28.37009767991449</v>
       </c>
       <c r="O10" t="n">
-        <v>5.346489279640905</v>
+        <v>5.326358763725412</v>
       </c>
       <c r="P10" t="n">
-        <v>324.230064135865</v>
+        <v>324.1912319051527</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20538,28 +20694,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.04168807528040952</v>
+        <v>-0.04924984039944445</v>
       </c>
       <c r="J11" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K11" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002788380257927825</v>
+        <v>0.003939883244900355</v>
       </c>
       <c r="M11" t="n">
-        <v>4.37528397024777</v>
+        <v>4.370731713479359</v>
       </c>
       <c r="N11" t="n">
-        <v>32.89520130961328</v>
+        <v>32.7770590723789</v>
       </c>
       <c r="O11" t="n">
-        <v>5.735433837959713</v>
+        <v>5.725125245125987</v>
       </c>
       <c r="P11" t="n">
-        <v>329.5936918158943</v>
+        <v>329.6709909142095</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20597,7 +20753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L383"/>
+  <dimension ref="A1:L386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42835,6 +42991,192 @@
         </is>
       </c>
     </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>-42.74874030544414,173.3934738666985</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>-42.74938282720357,173.39322509391593</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>-42.75005329887587,173.3929992273007</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>-42.750701345383455,173.39272393431318</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>-42.75132160144156,173.3925317104653</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>-42.75182341071508,173.392012117983</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>-42.752448570560645,173.39170849611213</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>-42.753068278729295,173.3913196690952</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>-42.753742175071714,173.3912228968039</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>-42.75432980365505,173.39082186691564</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>-42.74884830349662,173.3937903113898</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>-42.74947141318173,173.39348466082754</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>-42.75007360322425,173.39308675955417</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>-42.75072191420283,173.39286684542785</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>-42.7513202594051,173.3925257061546</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>-42.75188734066631,173.3921960169099</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>-42.752478972779,173.3917987367161</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>-42.753122298162786,173.39151613023128</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>-42.75375186124801,173.3912559382756</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>-42.754334226178,173.3908360571522</t>
+        </is>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:30+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>-42.7488422111282,173.39377246006595</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>-42.74943372353428,173.39337422560564</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>-42.75007985763493,173.39311372245237</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>-42.75072082602912,173.39285928481854</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>-42.751341872858276,173.39262240558435</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>-42.75186808401959,173.39214062370394</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>-42.75248001280984,173.39180182376623</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>-42.75314622124631,173.3916031356474</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>-42.753742286024526,173.39122327528577</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>-42.75432865275597,173.39081817410843</t>
+        </is>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0401/nzd0401.xlsx
+++ b/data/nzd0401/nzd0401.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L386"/>
+  <dimension ref="A1:L387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15905,6 +15905,48 @@
         <v>323.4808108108109</v>
       </c>
       <c r="L386" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>336.345</v>
+      </c>
+      <c r="C387" t="n">
+        <v>334.325</v>
+      </c>
+      <c r="D387" t="n">
+        <v>334.7633333333333</v>
+      </c>
+      <c r="E387" t="n">
+        <v>329.4504347826087</v>
+      </c>
+      <c r="F387" t="n">
+        <v>322.3604347826087</v>
+      </c>
+      <c r="G387" t="n">
+        <v>319.7844444444444</v>
+      </c>
+      <c r="H387" t="n">
+        <v>329.4344444444445</v>
+      </c>
+      <c r="I387" t="n">
+        <v>331.6380952380952</v>
+      </c>
+      <c r="J387" t="n">
+        <v>321.5333333333333</v>
+      </c>
+      <c r="K387" t="n">
+        <v>326.4427027027027</v>
+      </c>
+      <c r="L387" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15921,7 +15963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B389"/>
+  <dimension ref="A1:B390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19819,6 +19861,16 @@
       </c>
       <c r="B389" t="n">
         <v>-0.59</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -19992,28 +20044,28 @@
         <v>0.0983</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7681351284084631</v>
+        <v>0.7686672282155496</v>
       </c>
       <c r="J2" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K2" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2800300734952242</v>
+        <v>0.2815812510033758</v>
       </c>
       <c r="M2" t="n">
-        <v>6.973345071282377</v>
+        <v>6.955550336267999</v>
       </c>
       <c r="N2" t="n">
-        <v>79.84224805749299</v>
+        <v>79.61114753995903</v>
       </c>
       <c r="O2" t="n">
-        <v>8.935448956683318</v>
+        <v>8.922507917618177</v>
       </c>
       <c r="P2" t="n">
-        <v>315.4894960875072</v>
+        <v>315.4839810457477</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20070,28 +20122,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7608338353634169</v>
+        <v>0.7592891464231999</v>
       </c>
       <c r="J3" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K3" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2815855362536938</v>
+        <v>0.2819929557097067</v>
       </c>
       <c r="M3" t="n">
-        <v>7.173226231386924</v>
+        <v>7.161319767945741</v>
       </c>
       <c r="N3" t="n">
-        <v>79.1124532835821</v>
+        <v>78.90852579152515</v>
       </c>
       <c r="O3" t="n">
-        <v>8.894518159157476</v>
+        <v>8.883047100602651</v>
       </c>
       <c r="P3" t="n">
-        <v>317.2427604326998</v>
+        <v>317.2584060076205</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20148,28 +20200,28 @@
         <v>0.1383</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4829545101698392</v>
+        <v>0.4790183912589537</v>
       </c>
       <c r="J4" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K4" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1915458134599729</v>
+        <v>0.1895836480478762</v>
       </c>
       <c r="M4" t="n">
-        <v>5.871959388038838</v>
+        <v>5.876851138662087</v>
       </c>
       <c r="N4" t="n">
-        <v>53.71853948793556</v>
+        <v>53.70335405805028</v>
       </c>
       <c r="O4" t="n">
-        <v>7.329293246141511</v>
+        <v>7.328257231978847</v>
       </c>
       <c r="P4" t="n">
-        <v>329.2020933607077</v>
+        <v>329.2416174506615</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20226,28 +20278,28 @@
         <v>0.1411</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09950845326794071</v>
+        <v>0.09855812546451066</v>
       </c>
       <c r="J5" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K5" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01410319047205011</v>
+        <v>0.01392121587233197</v>
       </c>
       <c r="M5" t="n">
-        <v>4.724523906751963</v>
+        <v>4.716424675931898</v>
       </c>
       <c r="N5" t="n">
-        <v>37.23146113156472</v>
+        <v>37.13555116256785</v>
       </c>
       <c r="O5" t="n">
-        <v>6.101758855573098</v>
+        <v>6.093894580854501</v>
       </c>
       <c r="P5" t="n">
-        <v>328.5463491953049</v>
+        <v>328.5559426899088</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20304,28 +20356,28 @@
         <v>0.138</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1586473596167547</v>
+        <v>-0.1600329998723373</v>
       </c>
       <c r="J6" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K6" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02234494281827171</v>
+        <v>0.02285901594395101</v>
       </c>
       <c r="M6" t="n">
-        <v>5.739628128279018</v>
+        <v>5.730332842683407</v>
       </c>
       <c r="N6" t="n">
-        <v>59.23408750598535</v>
+        <v>59.08446170140973</v>
       </c>
       <c r="O6" t="n">
-        <v>7.696368462202505</v>
+        <v>7.686641770071618</v>
       </c>
       <c r="P6" t="n">
-        <v>328.9353679353744</v>
+        <v>328.9494359036194</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20382,28 +20434,28 @@
         <v>0.1085</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1446401295413986</v>
+        <v>0.1460286536316092</v>
       </c>
       <c r="J7" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K7" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01790698227247134</v>
+        <v>0.01836312043328769</v>
       </c>
       <c r="M7" t="n">
-        <v>6.210352656856022</v>
+        <v>6.198284864308621</v>
       </c>
       <c r="N7" t="n">
-        <v>61.65775122878554</v>
+        <v>61.48848063864451</v>
       </c>
       <c r="O7" t="n">
-        <v>7.852244980181498</v>
+        <v>7.841459088629138</v>
       </c>
       <c r="P7" t="n">
-        <v>313.7530534577181</v>
+        <v>313.7390669234526</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20460,28 +20512,28 @@
         <v>0.1046</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0004849629757574723</v>
+        <v>0.00241824903009591</v>
       </c>
       <c r="J8" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K8" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L8" t="n">
-        <v>2.179423295167737e-07</v>
+        <v>5.444625233774758e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>5.866736547482126</v>
+        <v>5.863824446767593</v>
       </c>
       <c r="N8" t="n">
-        <v>57.51368108092746</v>
+        <v>57.42869541841477</v>
       </c>
       <c r="O8" t="n">
-        <v>7.583777494159983</v>
+        <v>7.578172300655005</v>
       </c>
       <c r="P8" t="n">
-        <v>324.2358506723507</v>
+        <v>324.2060432018622</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20538,28 +20590,28 @@
         <v>0.1228</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04045337167061594</v>
+        <v>-0.03719532553805304</v>
       </c>
       <c r="J9" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K9" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001650120375803477</v>
+        <v>0.001401134033393148</v>
       </c>
       <c r="M9" t="n">
-        <v>5.606081546340774</v>
+        <v>5.605880829750435</v>
       </c>
       <c r="N9" t="n">
-        <v>53.36677285407207</v>
+        <v>53.31503581419133</v>
       </c>
       <c r="O9" t="n">
-        <v>7.305256522126521</v>
+        <v>7.301714580438715</v>
       </c>
       <c r="P9" t="n">
-        <v>326.7690251135216</v>
+        <v>326.7357389644098</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20616,28 +20668,28 @@
         <v>0.1375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.117877370585098</v>
+        <v>0.1143307363800899</v>
       </c>
       <c r="J10" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K10" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02605514815156451</v>
+        <v>0.02462274023411259</v>
       </c>
       <c r="M10" t="n">
-        <v>4.104827415456283</v>
+        <v>4.110662387392986</v>
       </c>
       <c r="N10" t="n">
-        <v>28.37009767991449</v>
+        <v>28.38283979594219</v>
       </c>
       <c r="O10" t="n">
-        <v>5.326358763725412</v>
+        <v>5.327554767052347</v>
       </c>
       <c r="P10" t="n">
-        <v>324.1912319051527</v>
+        <v>324.2271699087205</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20694,28 +20746,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.04924984039944445</v>
+        <v>-0.05036875419903883</v>
       </c>
       <c r="J11" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K11" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003939883244900355</v>
+        <v>0.004144218092597907</v>
       </c>
       <c r="M11" t="n">
-        <v>4.370731713479359</v>
+        <v>4.363027788940255</v>
       </c>
       <c r="N11" t="n">
-        <v>32.7770590723789</v>
+        <v>32.69344828994086</v>
       </c>
       <c r="O11" t="n">
-        <v>5.725125245125987</v>
+        <v>5.717818490468272</v>
       </c>
       <c r="P11" t="n">
-        <v>329.6709909142095</v>
+        <v>329.6824862117001</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20753,7 +20805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L386"/>
+  <dimension ref="A1:L387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43177,6 +43229,68 @@
         </is>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>-42.74886109367718,173.39382778809355</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>-42.74945105473087,173.39342500805054</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>-42.75006320322465,173.39304192500626</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>-42.75071423393707,173.39281348317425</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>-42.751324886645506,173.3925464085716</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>-42.75188944519288,173.39220207074715</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>-42.75250449927156,173.39187450530417</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>-42.75313890896554,173.39157654171717</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>-42.75371975148132,173.39114640564694</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>-42.754339042128116,173.39085150975933</t>
+        </is>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0401/nzd0401.xlsx
+++ b/data/nzd0401/nzd0401.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L387"/>
+  <dimension ref="A1:L388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15947,6 +15947,48 @@
         <v>326.4427027027027</v>
       </c>
       <c r="L387" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>335.17</v>
+      </c>
+      <c r="C388" t="n">
+        <v>332.01</v>
+      </c>
+      <c r="D388" t="n">
+        <v>342.64</v>
+      </c>
+      <c r="E388" t="n">
+        <v>326.0021739130435</v>
+      </c>
+      <c r="F388" t="n">
+        <v>322.0621739130435</v>
+      </c>
+      <c r="G388" t="n">
+        <v>314.5466666666667</v>
+      </c>
+      <c r="H388" t="n">
+        <v>318.6866666666667</v>
+      </c>
+      <c r="I388" t="n">
+        <v>326.86</v>
+      </c>
+      <c r="J388" t="n">
+        <v>324.38</v>
+      </c>
+      <c r="K388" t="n">
+        <v>322.7302702702702</v>
+      </c>
+      <c r="L388" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15963,7 +16005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B390"/>
+  <dimension ref="A1:B391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19871,6 +19913,16 @@
       </c>
       <c r="B390" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -20044,28 +20096,28 @@
         <v>0.0983</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7686672282155496</v>
+        <v>0.768482261260529</v>
       </c>
       <c r="J2" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K2" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2815812510033758</v>
+        <v>0.2827592002954191</v>
       </c>
       <c r="M2" t="n">
-        <v>6.955550336267999</v>
+        <v>6.936196607234558</v>
       </c>
       <c r="N2" t="n">
-        <v>79.61114753995903</v>
+        <v>79.37933190482256</v>
       </c>
       <c r="O2" t="n">
-        <v>8.922507917618177</v>
+        <v>8.90950794964697</v>
       </c>
       <c r="P2" t="n">
-        <v>315.4839810457477</v>
+        <v>315.4859019210718</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20122,28 +20174,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7592891464231999</v>
+        <v>0.7564207253175872</v>
       </c>
       <c r="J3" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K3" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2819929557097067</v>
+        <v>0.2815573648082343</v>
       </c>
       <c r="M3" t="n">
-        <v>7.161319767945741</v>
+        <v>7.156612030477139</v>
       </c>
       <c r="N3" t="n">
-        <v>78.90852579152515</v>
+        <v>78.75575393092078</v>
       </c>
       <c r="O3" t="n">
-        <v>8.883047100602651</v>
+        <v>8.874443866007649</v>
       </c>
       <c r="P3" t="n">
-        <v>317.2584060076205</v>
+        <v>317.2875154831718</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20200,28 +20252,28 @@
         <v>0.1383</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4790183912589537</v>
+        <v>0.4795421794576568</v>
       </c>
       <c r="J4" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K4" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1895836480478762</v>
+        <v>0.1908635345478902</v>
       </c>
       <c r="M4" t="n">
-        <v>5.876851138662087</v>
+        <v>5.86267193648666</v>
       </c>
       <c r="N4" t="n">
-        <v>53.70335405805028</v>
+        <v>53.55451270990927</v>
       </c>
       <c r="O4" t="n">
-        <v>7.328257231978847</v>
+        <v>7.318094882543494</v>
       </c>
       <c r="P4" t="n">
-        <v>329.2416174506615</v>
+        <v>329.236347403759</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20278,28 +20330,28 @@
         <v>0.1411</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09855812546451066</v>
+        <v>0.09567868499505629</v>
       </c>
       <c r="J5" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K5" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01392121587233197</v>
+        <v>0.01318552135608808</v>
       </c>
       <c r="M5" t="n">
-        <v>4.716424675931898</v>
+        <v>4.718557075823494</v>
       </c>
       <c r="N5" t="n">
-        <v>37.13555116256785</v>
+        <v>37.10451522606236</v>
       </c>
       <c r="O5" t="n">
-        <v>6.093894580854501</v>
+        <v>6.09134757061706</v>
       </c>
       <c r="P5" t="n">
-        <v>328.5559426899088</v>
+        <v>328.5850669447042</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20356,28 +20408,28 @@
         <v>0.138</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1600329998723373</v>
+        <v>-0.1615631849652426</v>
       </c>
       <c r="J6" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K6" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02285901594395101</v>
+        <v>0.02342009797279432</v>
       </c>
       <c r="M6" t="n">
-        <v>5.730332842683407</v>
+        <v>5.721769480043232</v>
       </c>
       <c r="N6" t="n">
-        <v>59.08446170140973</v>
+        <v>58.93954538036121</v>
       </c>
       <c r="O6" t="n">
-        <v>7.686641770071618</v>
+        <v>7.677209478733872</v>
       </c>
       <c r="P6" t="n">
-        <v>328.9494359036194</v>
+        <v>328.9650019986524</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20434,28 +20486,28 @@
         <v>0.1085</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1460286536316092</v>
+        <v>0.1442121769610381</v>
       </c>
       <c r="J7" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K7" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01836312043328769</v>
+        <v>0.0180283671200332</v>
       </c>
       <c r="M7" t="n">
-        <v>6.198284864308621</v>
+        <v>6.188994261735992</v>
       </c>
       <c r="N7" t="n">
-        <v>61.48848063864451</v>
+        <v>61.33139965910197</v>
       </c>
       <c r="O7" t="n">
-        <v>7.841459088629138</v>
+        <v>7.831436628046093</v>
       </c>
       <c r="P7" t="n">
-        <v>313.7390669234526</v>
+        <v>313.7573995329277</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20512,28 +20564,28 @@
         <v>0.1046</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00241824903009591</v>
+        <v>-0.0006771734244662139</v>
       </c>
       <c r="J8" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K8" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L8" t="n">
-        <v>5.444625233774758e-06</v>
+        <v>4.288647016403857e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>5.863824446767593</v>
+        <v>5.864079287071506</v>
       </c>
       <c r="N8" t="n">
-        <v>57.42869541841477</v>
+        <v>57.35518163043588</v>
       </c>
       <c r="O8" t="n">
-        <v>7.578172300655005</v>
+        <v>7.573320383453739</v>
       </c>
       <c r="P8" t="n">
-        <v>324.2060432018622</v>
+        <v>324.2378869002338</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20590,28 +20642,28 @@
         <v>0.1228</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03719532553805304</v>
+        <v>-0.03659704327693652</v>
       </c>
       <c r="J9" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K9" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001401134033393148</v>
+        <v>0.001364428982956634</v>
       </c>
       <c r="M9" t="n">
-        <v>5.605880829750435</v>
+        <v>5.593157208454936</v>
       </c>
       <c r="N9" t="n">
-        <v>53.31503581419133</v>
+        <v>53.17062401664206</v>
       </c>
       <c r="O9" t="n">
-        <v>7.301714580438715</v>
+        <v>7.291818978598005</v>
       </c>
       <c r="P9" t="n">
-        <v>326.7357389644098</v>
+        <v>326.7296142573676</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20668,28 +20720,28 @@
         <v>0.1375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1143307363800899</v>
+        <v>0.1125909473207801</v>
       </c>
       <c r="J10" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K10" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02462274023411259</v>
+        <v>0.02403229701441778</v>
       </c>
       <c r="M10" t="n">
-        <v>4.110662387392986</v>
+        <v>4.107061147448418</v>
       </c>
       <c r="N10" t="n">
-        <v>28.38283979594219</v>
+        <v>28.31818237842833</v>
       </c>
       <c r="O10" t="n">
-        <v>5.327554767052347</v>
+        <v>5.321483099515428</v>
       </c>
       <c r="P10" t="n">
-        <v>324.2271699087205</v>
+        <v>324.2448352411391</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20746,28 +20798,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.05036875419903883</v>
+        <v>-0.05359173675838311</v>
       </c>
       <c r="J11" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K11" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004144218092597907</v>
+        <v>0.004704735859793363</v>
       </c>
       <c r="M11" t="n">
-        <v>4.363027788940255</v>
+        <v>4.364474921232619</v>
       </c>
       <c r="N11" t="n">
-        <v>32.69344828994086</v>
+        <v>32.69013847879762</v>
       </c>
       <c r="O11" t="n">
-        <v>5.717818490468272</v>
+        <v>5.71752905360328</v>
       </c>
       <c r="P11" t="n">
-        <v>329.6824862117001</v>
+        <v>329.7156639812205</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -20805,7 +20857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L387"/>
+  <dimension ref="A1:L388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43291,6 +43343,68 @@
         </is>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>-42.748856647388,173.39381475994773</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>-42.74944229453281,173.39339933962782</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>-42.75008449887216,173.39313373094657</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>-42.7507082819766,173.39277212926163</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>-42.75132410710576,173.3925429208852</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>-42.75186932197819,173.39214418478244</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>-42.752464258413795,173.3917550611419</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>-42.75312386765342,173.391521838273</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>-42.75372922686918,173.3911787279797</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>-42.754326020097565,173.3908097268885</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0401/nzd0401.xlsx
+++ b/data/nzd0401/nzd0401.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L388"/>
+  <dimension ref="A1:L389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15991,6 +15991,48 @@
       <c r="L388" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>334.515</v>
+      </c>
+      <c r="C389" t="n">
+        <v>331.015</v>
+      </c>
+      <c r="D389" t="n">
+        <v>334.8933333333333</v>
+      </c>
+      <c r="E389" t="n">
+        <v>323.1695652173913</v>
+      </c>
+      <c r="F389" t="n">
+        <v>330.2495652173913</v>
+      </c>
+      <c r="G389" t="n">
+        <v>321.3844444444445</v>
+      </c>
+      <c r="H389" t="n">
+        <v>328.9644444444444</v>
+      </c>
+      <c r="I389" t="n">
+        <v>324.8009523809524</v>
+      </c>
+      <c r="J389" t="n">
+        <v>321.4933333333333</v>
+      </c>
+      <c r="K389" t="n">
+        <v>321.9308108108108</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -16005,7 +16047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B391"/>
+  <dimension ref="A1:B392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19923,6 +19965,16 @@
       </c>
       <c r="B391" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>-0.59</v>
       </c>
     </row>
   </sheetData>
@@ -20857,7 +20909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L388"/>
+  <dimension ref="A1:L389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43405,6 +43457,68 @@
         </is>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>-42.74885416881765,173.39380749745027</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>-42.749438529348716,173.3933883071978</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>-42.750063554698045,173.3930434402117</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>-42.75070339266742,173.39273815867858</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>-42.751345505773976,173.39263865943298</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>-42.75189559228696,173.3922197533573</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>-42.75250273954267,173.39186928201133</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>-42.753117385820175,173.39149826466218</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>-42.753719618337634,173.391145951469</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>-42.75432321584641,173.3908007290943</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0401/nzd0401.xlsx
+++ b/data/nzd0401/nzd0401.xlsx
@@ -20148,28 +20148,28 @@
         <v>0.0983</v>
       </c>
       <c r="I2" t="n">
-        <v>0.768482261260529</v>
+        <v>0.7679087282445783</v>
       </c>
       <c r="J2" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K2" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2827592002954191</v>
+        <v>0.2837178071352625</v>
       </c>
       <c r="M2" t="n">
-        <v>6.936196607234558</v>
+        <v>6.91888689994931</v>
       </c>
       <c r="N2" t="n">
-        <v>79.37933190482256</v>
+        <v>79.15136735947934</v>
       </c>
       <c r="O2" t="n">
-        <v>8.90950794964697</v>
+        <v>8.896705421642292</v>
       </c>
       <c r="P2" t="n">
-        <v>315.4859019210718</v>
+        <v>315.4918638774911</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20226,28 +20226,28 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7564207253175872</v>
+        <v>0.75302285505558</v>
       </c>
       <c r="J3" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K3" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2815573648082343</v>
+        <v>0.2807464259658319</v>
       </c>
       <c r="M3" t="n">
-        <v>7.156612030477139</v>
+        <v>7.15475289745789</v>
       </c>
       <c r="N3" t="n">
-        <v>78.75575393092078</v>
+        <v>78.63344802977201</v>
       </c>
       <c r="O3" t="n">
-        <v>8.874443866007649</v>
+        <v>8.867550283464539</v>
       </c>
       <c r="P3" t="n">
-        <v>317.2875154831718</v>
+        <v>317.3220314040227</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20304,28 +20304,28 @@
         <v>0.1383</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4795421794576568</v>
+        <v>0.4757378358329989</v>
       </c>
       <c r="J4" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K4" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1908635345478902</v>
+        <v>0.1889805702405409</v>
       </c>
       <c r="M4" t="n">
-        <v>5.86267193648666</v>
+        <v>5.86707631745339</v>
       </c>
       <c r="N4" t="n">
-        <v>53.55451270990927</v>
+        <v>53.53400504692709</v>
       </c>
       <c r="O4" t="n">
-        <v>7.318094882543494</v>
+        <v>7.316693587060148</v>
       </c>
       <c r="P4" t="n">
-        <v>329.236347403759</v>
+        <v>329.2746626574354</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20382,28 +20382,28 @@
         <v>0.1411</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09567868499505629</v>
+        <v>0.09126102765146113</v>
       </c>
       <c r="J5" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K5" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01318552135608808</v>
+        <v>0.01202849467311495</v>
       </c>
       <c r="M5" t="n">
-        <v>4.718557075823494</v>
+        <v>4.728748206618672</v>
       </c>
       <c r="N5" t="n">
-        <v>37.10451522606236</v>
+        <v>37.17338886001078</v>
       </c>
       <c r="O5" t="n">
-        <v>6.09134757061706</v>
+        <v>6.09699834836871</v>
       </c>
       <c r="P5" t="n">
-        <v>328.5850669447042</v>
+        <v>328.6297930472836</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20460,28 +20460,28 @@
         <v>0.138</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1615631849652426</v>
+        <v>-0.1584982112984054</v>
       </c>
       <c r="J6" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K6" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02342009797279432</v>
+        <v>0.02266306976969545</v>
       </c>
       <c r="M6" t="n">
-        <v>5.721769480043232</v>
+        <v>5.721271022144438</v>
       </c>
       <c r="N6" t="n">
-        <v>58.93954538036121</v>
+        <v>58.85841754558685</v>
       </c>
       <c r="O6" t="n">
-        <v>7.677209478733872</v>
+        <v>7.6719239793931</v>
       </c>
       <c r="P6" t="n">
-        <v>328.9650019986524</v>
+        <v>328.9337922350248</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20538,28 +20538,28 @@
         <v>0.1085</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1442121769610381</v>
+        <v>0.1465444995325429</v>
       </c>
       <c r="J7" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K7" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0180283671200332</v>
+        <v>0.01871417979538392</v>
       </c>
       <c r="M7" t="n">
-        <v>6.188994261735992</v>
+        <v>6.181629055720324</v>
       </c>
       <c r="N7" t="n">
-        <v>61.33139965910197</v>
+        <v>61.19304392347532</v>
       </c>
       <c r="O7" t="n">
-        <v>7.831436628046093</v>
+        <v>7.822598284679798</v>
       </c>
       <c r="P7" t="n">
-        <v>313.7573995329277</v>
+        <v>313.7338380332558</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20616,28 +20616,28 @@
         <v>0.1046</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0006771734244662139</v>
+        <v>0.001936017414377142</v>
       </c>
       <c r="J8" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K8" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L8" t="n">
-        <v>4.288647016403857e-07</v>
+        <v>3.522503528086141e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>5.864079287071506</v>
+        <v>5.859946754914888</v>
       </c>
       <c r="N8" t="n">
-        <v>57.35518163043588</v>
+        <v>57.25837772519212</v>
       </c>
       <c r="O8" t="n">
-        <v>7.573320383453739</v>
+        <v>7.566926570622456</v>
       </c>
       <c r="P8" t="n">
-        <v>324.2378869002338</v>
+        <v>324.2109775134469</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20694,28 +20694,28 @@
         <v>0.1228</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03659704327693652</v>
+        <v>-0.03712798195321323</v>
       </c>
       <c r="J9" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K9" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001364428982956634</v>
+        <v>0.00141243144892278</v>
       </c>
       <c r="M9" t="n">
-        <v>5.593157208454936</v>
+        <v>5.580573074715449</v>
       </c>
       <c r="N9" t="n">
-        <v>53.17062401664206</v>
+        <v>53.02635043102383</v>
       </c>
       <c r="O9" t="n">
-        <v>7.291818978598005</v>
+        <v>7.28191941942671</v>
       </c>
       <c r="P9" t="n">
-        <v>326.7296142573676</v>
+        <v>326.7350550284333</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20772,28 +20772,28 @@
         <v>0.1375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1125909473207801</v>
+        <v>0.1091140375453056</v>
       </c>
       <c r="J10" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K10" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02403229701441778</v>
+        <v>0.02267153988355619</v>
       </c>
       <c r="M10" t="n">
-        <v>4.107061147448418</v>
+        <v>4.112847278941214</v>
       </c>
       <c r="N10" t="n">
-        <v>28.31818237842833</v>
+        <v>28.32972908647777</v>
       </c>
       <c r="O10" t="n">
-        <v>5.321483099515428</v>
+        <v>5.322567903416336</v>
       </c>
       <c r="P10" t="n">
-        <v>324.2448352411391</v>
+        <v>324.280174989083</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20850,28 +20850,28 @@
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.05359173675838311</v>
+        <v>-0.05721663114506943</v>
       </c>
       <c r="J11" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K11" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004704735859793363</v>
+        <v>0.005372789426318025</v>
       </c>
       <c r="M11" t="n">
-        <v>4.364474921232619</v>
+        <v>4.367615726192346</v>
       </c>
       <c r="N11" t="n">
-        <v>32.69013847879762</v>
+        <v>32.71239396031634</v>
       </c>
       <c r="O11" t="n">
-        <v>5.71752905360328</v>
+        <v>5.719474972435524</v>
       </c>
       <c r="P11" t="n">
-        <v>329.7156639812205</v>
+        <v>329.7530163383928</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">

--- a/data/nzd0401/nzd0401.xlsx
+++ b/data/nzd0401/nzd0401.xlsx
@@ -20139,13 +20139,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.135</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0697</v>
+        <v>0.1153</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0983</v>
+        <v>0.1661</v>
       </c>
       <c r="I2" t="n">
         <v>0.7679230003878339</v>
@@ -20217,13 +20217,13 @@
         <v>0.111300950305554</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.145</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0699</v>
+        <v>0.1225</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1754</v>
       </c>
       <c r="I3" t="n">
         <v>0.753025540019458</v>
@@ -20295,13 +20295,13 @@
         <v>0.222601900611108</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1025</v>
+        <v>0.1306</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1383</v>
+        <v>0.1716</v>
       </c>
       <c r="I4" t="n">
         <v>0.475722909182706</v>
@@ -20373,13 +20373,13 @@
         <v>0.3337950235812813</v>
       </c>
       <c r="F5" t="n">
-        <v>0.115</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0949</v>
+        <v>0.1913</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1411</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.09126019790595291</v>
@@ -20451,13 +20451,13 @@
         <v>0.4450692178237031</v>
       </c>
       <c r="F6" t="n">
-        <v>0.115</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0955</v>
+        <v>0.1463</v>
       </c>
       <c r="H6" t="n">
-        <v>0.138</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1585019627198794</v>
@@ -20529,13 +20529,13 @@
         <v>0.5550420019688603</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09</v>
+        <v>0.185</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0793</v>
+        <v>0.1404</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1085</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.1465503771018768</v>
@@ -20607,13 +20607,13 @@
         <v>0.6661039784166021</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07820000000000001</v>
+        <v>0.1236</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1046</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>0.001946801853287038</v>
@@ -20685,13 +20685,13 @@
         <v>0.7774049287229569</v>
       </c>
       <c r="F9" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0931</v>
+        <v>0.1762</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1228</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>-0.03710527661707122</v>
@@ -20763,13 +20763,13 @@
         <v>0.8887058790288186</v>
       </c>
       <c r="F10" t="n">
-        <v>0.12</v>
+        <v>0.165</v>
       </c>
       <c r="G10" t="n">
-        <v>0.107</v>
+        <v>0.1198</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1375</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>0.1091052571592396</v>
@@ -20841,10 +20841,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.145</v>
+        <v>0.1696</v>
       </c>
       <c r="H11" t="n">
         <v>0.2</v>

--- a/data/nzd0401/nzd0401.xlsx
+++ b/data/nzd0401/nzd0401.xlsx
@@ -511,7 +511,7 @@
         <v>318.43</v>
       </c>
       <c r="D2" t="n">
-        <v>333.83</v>
+        <v>333.9</v>
       </c>
       <c r="E2" t="n">
         <v>333.47</v>
@@ -553,7 +553,7 @@
         <v>326.94</v>
       </c>
       <c r="D3" t="n">
-        <v>336.46</v>
+        <v>336.32</v>
       </c>
       <c r="E3" t="n">
         <v>332.38</v>
@@ -595,7 +595,7 @@
         <v>318.2</v>
       </c>
       <c r="D4" t="n">
-        <v>326.87</v>
+        <v>326.95</v>
       </c>
       <c r="E4" t="n">
         <v>325.43</v>
@@ -631,7 +631,7 @@
         <v>327.67</v>
       </c>
       <c r="D5" t="n">
-        <v>335.27</v>
+        <v>335.46</v>
       </c>
       <c r="E5" t="n">
         <v>332.39</v>
@@ -673,7 +673,7 @@
         <v>322.27</v>
       </c>
       <c r="D6" t="n">
-        <v>330.5</v>
+        <v>330.66</v>
       </c>
       <c r="E6" t="n">
         <v>334.21</v>
@@ -715,7 +715,7 @@
         <v>319.98</v>
       </c>
       <c r="D7" t="n">
-        <v>326.8</v>
+        <v>326.87</v>
       </c>
       <c r="E7" t="n">
         <v>328.58</v>
@@ -757,7 +757,7 @@
         <v>328.69</v>
       </c>
       <c r="D8" t="n">
-        <v>334.98</v>
+        <v>334.94</v>
       </c>
       <c r="E8" t="n">
         <v>329.87</v>
@@ -799,7 +799,7 @@
         <v>315.37</v>
       </c>
       <c r="D9" t="n">
-        <v>330.11</v>
+        <v>329.96</v>
       </c>
       <c r="E9" t="n">
         <v>329.39</v>
@@ -841,7 +841,7 @@
         <v>325.72</v>
       </c>
       <c r="D10" t="n">
-        <v>337.32</v>
+        <v>337.18</v>
       </c>
       <c r="E10" t="n">
         <v>332.15</v>
@@ -881,7 +881,7 @@
         <v>314.23</v>
       </c>
       <c r="D11" t="n">
-        <v>333</v>
+        <v>332.85</v>
       </c>
       <c r="E11" t="n">
         <v>330.84</v>
@@ -921,7 +921,7 @@
         <v>316.07</v>
       </c>
       <c r="D12" t="n">
-        <v>337.77</v>
+        <v>337.73</v>
       </c>
       <c r="E12" t="n">
         <v>334.96</v>
@@ -961,7 +961,7 @@
         <v>324.42</v>
       </c>
       <c r="D13" t="n">
-        <v>332.43</v>
+        <v>332.6</v>
       </c>
       <c r="E13" t="n">
         <v>334.56</v>
@@ -1003,7 +1003,7 @@
         <v>325.03</v>
       </c>
       <c r="D14" t="n">
-        <v>337.03</v>
+        <v>337.12</v>
       </c>
       <c r="E14" t="n">
         <v>334.37</v>
@@ -1045,7 +1045,7 @@
         <v>323.43</v>
       </c>
       <c r="D15" t="n">
-        <v>338.53</v>
+        <v>338.51</v>
       </c>
       <c r="E15" t="n">
         <v>333.59</v>
@@ -1087,7 +1087,7 @@
         <v>315.45</v>
       </c>
       <c r="D16" t="n">
-        <v>326.55</v>
+        <v>326.4</v>
       </c>
       <c r="E16" t="n">
         <v>324.25</v>
@@ -1129,7 +1129,7 @@
         <v>318.91</v>
       </c>
       <c r="D17" t="n">
-        <v>335.44</v>
+        <v>335.3</v>
       </c>
       <c r="E17" t="n">
         <v>330.08</v>
@@ -1169,7 +1169,7 @@
         <v>314.19</v>
       </c>
       <c r="D18" t="n">
-        <v>336.86</v>
+        <v>336.7</v>
       </c>
       <c r="E18" t="n">
         <v>331.34</v>
@@ -1207,7 +1207,7 @@
         <v>321.72</v>
       </c>
       <c r="D19" t="n">
-        <v>341.04</v>
+        <v>341.01</v>
       </c>
       <c r="E19" t="n">
         <v>334.91</v>
@@ -1249,7 +1249,7 @@
         <v>321.19</v>
       </c>
       <c r="D20" t="n">
-        <v>337.83</v>
+        <v>337.91</v>
       </c>
       <c r="E20" t="n">
         <v>330.8</v>
@@ -1291,7 +1291,7 @@
         <v>308.74</v>
       </c>
       <c r="D21" t="n">
-        <v>323.21</v>
+        <v>323.31</v>
       </c>
       <c r="E21" t="n">
         <v>316.25</v>
@@ -1333,7 +1333,7 @@
         <v>324.03</v>
       </c>
       <c r="D22" t="n">
-        <v>329.18</v>
+        <v>329.3</v>
       </c>
       <c r="E22" t="n">
         <v>318.19</v>
@@ -1373,7 +1373,7 @@
         <v>322.34</v>
       </c>
       <c r="D23" t="n">
-        <v>335.49</v>
+        <v>335.42</v>
       </c>
       <c r="E23" t="n">
         <v>333.29</v>
@@ -1415,7 +1415,7 @@
         <v>323.01</v>
       </c>
       <c r="D24" t="n">
-        <v>331.46</v>
+        <v>331.54</v>
       </c>
       <c r="E24" t="n">
         <v>332.98</v>
@@ -1457,7 +1457,7 @@
         <v>325.56</v>
       </c>
       <c r="D25" t="n">
-        <v>335.5</v>
+        <v>335.6</v>
       </c>
       <c r="E25" t="n">
         <v>331.59</v>
@@ -1499,7 +1499,7 @@
         <v>319.74</v>
       </c>
       <c r="D26" t="n">
-        <v>325.04</v>
+        <v>325.14</v>
       </c>
       <c r="E26" t="n">
         <v>323.77</v>
@@ -1541,7 +1541,7 @@
         <v>320.16</v>
       </c>
       <c r="D27" t="n">
-        <v>334.77</v>
+        <v>334.82</v>
       </c>
       <c r="E27" t="n">
         <v>329.72</v>
@@ -1583,7 +1583,7 @@
         <v>313.47</v>
       </c>
       <c r="D28" t="n">
-        <v>323.99</v>
+        <v>324.06</v>
       </c>
       <c r="E28" t="n">
         <v>324.43</v>
@@ -1625,7 +1625,7 @@
         <v>318.53</v>
       </c>
       <c r="D29" t="n">
-        <v>328.84</v>
+        <v>328.72</v>
       </c>
       <c r="E29" t="n">
         <v>326.64</v>
@@ -1667,7 +1667,7 @@
         <v>324.3</v>
       </c>
       <c r="D30" t="n">
-        <v>329.18</v>
+        <v>329.2</v>
       </c>
       <c r="E30" t="n">
         <v>328.19</v>
@@ -1705,7 +1705,7 @@
         <v>328.27</v>
       </c>
       <c r="D31" t="n">
-        <v>335.28</v>
+        <v>335.41</v>
       </c>
       <c r="E31" t="n">
         <v>336.17</v>
@@ -1747,7 +1747,7 @@
         <v>317.18</v>
       </c>
       <c r="D32" t="n">
-        <v>325.15</v>
+        <v>325.23</v>
       </c>
       <c r="E32" t="n">
         <v>318.15</v>
@@ -1789,7 +1789,7 @@
         <v>319.61</v>
       </c>
       <c r="D33" t="n">
-        <v>332.05</v>
+        <v>331.88</v>
       </c>
       <c r="E33" t="n">
         <v>326.87</v>
@@ -1829,7 +1829,7 @@
         <v>310.55</v>
       </c>
       <c r="D34" t="n">
-        <v>326.27</v>
+        <v>326.13</v>
       </c>
       <c r="E34" t="n">
         <v>330.17</v>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>333.47</v>
+        <v>333.63</v>
       </c>
       <c r="E35" t="n">
         <v>335.52</v>
@@ -1911,7 +1911,7 @@
         <v>320.72</v>
       </c>
       <c r="D36" t="n">
-        <v>330.8</v>
+        <v>330.63</v>
       </c>
       <c r="E36" t="n">
         <v>330.29</v>
@@ -1953,7 +1953,7 @@
         <v>308.83</v>
       </c>
       <c r="D37" t="n">
-        <v>326.1</v>
+        <v>326.05</v>
       </c>
       <c r="E37" t="n">
         <v>327</v>
@@ -1995,7 +1995,7 @@
         <v>322.53</v>
       </c>
       <c r="D38" t="n">
-        <v>339.88</v>
+        <v>339.91</v>
       </c>
       <c r="E38" t="n">
         <v>334.17</v>
@@ -2037,7 +2037,7 @@
         <v>312.39</v>
       </c>
       <c r="D39" t="n">
-        <v>340.75</v>
+        <v>340.81</v>
       </c>
       <c r="E39" t="n">
         <v>335.7</v>
@@ -2069,7 +2069,7 @@
         <v>321.48</v>
       </c>
       <c r="D40" t="n">
-        <v>334.33</v>
+        <v>334.49</v>
       </c>
       <c r="E40" t="n">
         <v>332.33</v>
@@ -2111,7 +2111,7 @@
         <v>312.54</v>
       </c>
       <c r="D41" t="n">
-        <v>319.58</v>
+        <v>319.66</v>
       </c>
       <c r="E41" t="n">
         <v>320.13</v>
@@ -2153,7 +2153,7 @@
         <v>321.3</v>
       </c>
       <c r="D42" t="n">
-        <v>332.06</v>
+        <v>331.94</v>
       </c>
       <c r="E42" t="n">
         <v>327.3</v>
@@ -2195,7 +2195,7 @@
         <v>320.34</v>
       </c>
       <c r="D43" t="n">
-        <v>330.64</v>
+        <v>330.84</v>
       </c>
       <c r="E43" t="n">
         <v>323.81</v>
@@ -2237,7 +2237,7 @@
         <v>326.81</v>
       </c>
       <c r="D44" t="n">
-        <v>337.67</v>
+        <v>337.77</v>
       </c>
       <c r="E44" t="n">
         <v>334.11</v>
@@ -2275,7 +2275,7 @@
         <v>315.02</v>
       </c>
       <c r="D45" t="n">
-        <v>325.83</v>
+        <v>325.9</v>
       </c>
       <c r="E45" t="n">
         <v>328.98</v>
@@ -2317,7 +2317,7 @@
         <v>319.41</v>
       </c>
       <c r="D46" t="n">
-        <v>327.42</v>
+        <v>327.62</v>
       </c>
       <c r="E46" t="n">
         <v>327.63</v>
@@ -2359,7 +2359,7 @@
         <v>322.08</v>
       </c>
       <c r="D47" t="n">
-        <v>329.85</v>
+        <v>329.91</v>
       </c>
       <c r="E47" t="n">
         <v>327.73</v>
@@ -2401,7 +2401,7 @@
         <v>318.61</v>
       </c>
       <c r="D48" t="n">
-        <v>326.84</v>
+        <v>326.85</v>
       </c>
       <c r="E48" t="n">
         <v>328.88</v>
@@ -2439,7 +2439,7 @@
         <v>317.38</v>
       </c>
       <c r="D49" t="n">
-        <v>329.9</v>
+        <v>329.76</v>
       </c>
       <c r="E49" t="n">
         <v>325.74</v>
@@ -2481,7 +2481,7 @@
         <v>313.22</v>
       </c>
       <c r="D50" t="n">
-        <v>326.52</v>
+        <v>326.63</v>
       </c>
       <c r="E50" t="n">
         <v>326.04</v>
@@ -2519,7 +2519,7 @@
         <v>312.23</v>
       </c>
       <c r="D51" t="n">
-        <v>324.31</v>
+        <v>324.17</v>
       </c>
       <c r="E51" t="n">
         <v>327.24</v>
@@ -2559,7 +2559,7 @@
         <v>308.91</v>
       </c>
       <c r="D52" t="n">
-        <v>329.09</v>
+        <v>329.15</v>
       </c>
       <c r="E52" t="n">
         <v>329.65</v>
@@ -2597,7 +2597,7 @@
         <v>307.18</v>
       </c>
       <c r="D53" t="n">
-        <v>340.57</v>
+        <v>340.52</v>
       </c>
       <c r="E53" t="n">
         <v>327.99</v>
@@ -2639,7 +2639,7 @@
         <v>316.13</v>
       </c>
       <c r="D54" t="n">
-        <v>327.27</v>
+        <v>327.3</v>
       </c>
       <c r="E54" t="n">
         <v>327.14</v>
@@ -2679,7 +2679,7 @@
         <v>317.53</v>
       </c>
       <c r="D55" t="n">
-        <v>331.04</v>
+        <v>331.1</v>
       </c>
       <c r="E55" t="n">
         <v>332.02</v>
@@ -2721,7 +2721,7 @@
         <v>310.47</v>
       </c>
       <c r="D56" t="n">
-        <v>331.03</v>
+        <v>331.13</v>
       </c>
       <c r="E56" t="n">
         <v>333.21</v>
@@ -2801,7 +2801,7 @@
         <v>317.67</v>
       </c>
       <c r="D58" t="n">
-        <v>328.42</v>
+        <v>328.39</v>
       </c>
       <c r="E58" t="n">
         <v>321.94</v>
@@ -2843,7 +2843,7 @@
         <v>320.23</v>
       </c>
       <c r="D59" t="n">
-        <v>327.4</v>
+        <v>327.43</v>
       </c>
       <c r="E59" t="n">
         <v>332.7</v>
@@ -2881,7 +2881,7 @@
         <v>316.96</v>
       </c>
       <c r="D60" t="n">
-        <v>328.66</v>
+        <v>328.82</v>
       </c>
       <c r="E60" t="n">
         <v>331</v>
@@ -2923,7 +2923,7 @@
         <v>325.41</v>
       </c>
       <c r="D61" t="n">
-        <v>331.11</v>
+        <v>331.15</v>
       </c>
       <c r="E61" t="n">
         <v>332.18</v>
@@ -2961,7 +2961,7 @@
         <v>314.53</v>
       </c>
       <c r="D62" t="n">
-        <v>323.58</v>
+        <v>323.48</v>
       </c>
       <c r="E62" t="n">
         <v>322.99</v>
@@ -3003,7 +3003,7 @@
         <v>317.16</v>
       </c>
       <c r="D63" t="n">
-        <v>332.27</v>
+        <v>332.16</v>
       </c>
       <c r="E63" t="n">
         <v>331.86</v>
@@ -3043,7 +3043,7 @@
         <v>319.91</v>
       </c>
       <c r="D64" t="n">
-        <v>328.23</v>
+        <v>328.42</v>
       </c>
       <c r="E64" t="n">
         <v>327.91</v>
@@ -3085,7 +3085,7 @@
         <v>310.97</v>
       </c>
       <c r="D65" t="n">
-        <v>322.79</v>
+        <v>322.65</v>
       </c>
       <c r="E65" t="n">
         <v>320.99</v>
@@ -3123,7 +3123,7 @@
         <v>321.13</v>
       </c>
       <c r="D66" t="n">
-        <v>331.86</v>
+        <v>331.98</v>
       </c>
       <c r="E66" t="n">
         <v>330.08</v>
@@ -3165,7 +3165,7 @@
         <v>325.02</v>
       </c>
       <c r="D67" t="n">
-        <v>329.91</v>
+        <v>329.98</v>
       </c>
       <c r="E67" t="n">
         <v>330.99</v>
@@ -3207,7 +3207,7 @@
         <v>313.1</v>
       </c>
       <c r="D68" t="n">
-        <v>328.51</v>
+        <v>328.43</v>
       </c>
       <c r="E68" t="n">
         <v>327.96</v>
@@ -3289,7 +3289,7 @@
         <v>317.69</v>
       </c>
       <c r="D70" t="n">
-        <v>325.95</v>
+        <v>325.97</v>
       </c>
       <c r="E70" t="n">
         <v>327.04</v>
@@ -3325,7 +3325,7 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>331.34</v>
+        <v>331.42</v>
       </c>
       <c r="E71" t="n">
         <v>331.23</v>
@@ -3363,7 +3363,7 @@
         <v>316.76</v>
       </c>
       <c r="D72" t="n">
-        <v>331.15</v>
+        <v>331.11</v>
       </c>
       <c r="E72" t="n">
         <v>319.31</v>
@@ -3403,7 +3403,7 @@
         <v>312.85</v>
       </c>
       <c r="D73" t="n">
-        <v>324.18</v>
+        <v>324.09</v>
       </c>
       <c r="E73" t="n">
         <v>323.61</v>
@@ -3479,7 +3479,7 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>322.11</v>
+        <v>321.91</v>
       </c>
       <c r="E75" t="n">
         <v>328.09</v>
@@ -3521,7 +3521,7 @@
         <v>319.65</v>
       </c>
       <c r="D76" t="n">
-        <v>332.72</v>
+        <v>332.73</v>
       </c>
       <c r="E76" t="n">
         <v>334.44</v>
@@ -3559,7 +3559,7 @@
         <v>317.33</v>
       </c>
       <c r="D77" t="n">
-        <v>327.39</v>
+        <v>327.44</v>
       </c>
       <c r="E77" t="n">
         <v>335.81</v>
@@ -3601,7 +3601,7 @@
         <v>315.88</v>
       </c>
       <c r="D78" t="n">
-        <v>322.91</v>
+        <v>322.81</v>
       </c>
       <c r="E78" t="n">
         <v>329.22</v>
@@ -3643,7 +3643,7 @@
         <v>323.52</v>
       </c>
       <c r="D79" t="n">
-        <v>332.55</v>
+        <v>332.73</v>
       </c>
       <c r="E79" t="n">
         <v>332.12</v>
@@ -3685,7 +3685,7 @@
         <v>323.52</v>
       </c>
       <c r="D80" t="n">
-        <v>325.86</v>
+        <v>325.85</v>
       </c>
       <c r="E80" t="n">
         <v>327.8</v>
@@ -3727,7 +3727,7 @@
         <v>329.05</v>
       </c>
       <c r="D81" t="n">
-        <v>331.39</v>
+        <v>331.42</v>
       </c>
       <c r="E81" t="n">
         <v>332.18</v>
@@ -3769,7 +3769,7 @@
         <v>324.71</v>
       </c>
       <c r="D82" t="n">
-        <v>331.08</v>
+        <v>330.98</v>
       </c>
       <c r="E82" t="n">
         <v>330.62</v>
@@ -3809,7 +3809,7 @@
         <v>320.65</v>
       </c>
       <c r="D83" t="n">
-        <v>329.98</v>
+        <v>330.08</v>
       </c>
       <c r="E83" t="n">
         <v>324.66</v>
@@ -3851,7 +3851,7 @@
         <v>320.16</v>
       </c>
       <c r="D84" t="n">
-        <v>328.4</v>
+        <v>328.26</v>
       </c>
       <c r="E84" t="n">
         <v>328.78</v>
@@ -3929,7 +3929,7 @@
         <v>322.17</v>
       </c>
       <c r="D86" t="n">
-        <v>330.57</v>
+        <v>330.56</v>
       </c>
       <c r="E86" t="n">
         <v>328.9</v>
@@ -3969,7 +3969,7 @@
         <v>334.13</v>
       </c>
       <c r="D87" t="n">
-        <v>341.91</v>
+        <v>342.03</v>
       </c>
       <c r="E87" t="n">
         <v>339.6</v>
@@ -4011,7 +4011,7 @@
         <v>329.25</v>
       </c>
       <c r="D88" t="n">
-        <v>334.94</v>
+        <v>334.85</v>
       </c>
       <c r="E88" t="n">
         <v>327.17</v>
@@ -4051,7 +4051,7 @@
         <v>336.35</v>
       </c>
       <c r="D89" t="n">
-        <v>334.4</v>
+        <v>334.25</v>
       </c>
       <c r="E89" t="n">
         <v>325.82</v>
@@ -4091,7 +4091,7 @@
         <v>318.01</v>
       </c>
       <c r="D90" t="n">
-        <v>328.62</v>
+        <v>328.56</v>
       </c>
       <c r="E90" t="n">
         <v>320.97</v>
@@ -4133,7 +4133,7 @@
         <v>327.06</v>
       </c>
       <c r="D91" t="n">
-        <v>327.52</v>
+        <v>327.53</v>
       </c>
       <c r="E91" t="n">
         <v>326.67</v>
@@ -4175,7 +4175,7 @@
         <v>329.81</v>
       </c>
       <c r="D92" t="n">
-        <v>329.69</v>
+        <v>329.8</v>
       </c>
       <c r="E92" t="n">
         <v>316.5</v>
@@ -4217,7 +4217,7 @@
         <v>324.49</v>
       </c>
       <c r="D93" t="n">
-        <v>341.65</v>
+        <v>341.76</v>
       </c>
       <c r="E93" t="n">
         <v>332.13</v>
@@ -4259,7 +4259,7 @@
         <v>319.84</v>
       </c>
       <c r="D94" t="n">
-        <v>331.63</v>
+        <v>331.51</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
@@ -4299,7 +4299,7 @@
         <v>331.02</v>
       </c>
       <c r="D95" t="n">
-        <v>338.29</v>
+        <v>338.11</v>
       </c>
       <c r="E95" t="n">
         <v>332.26</v>
@@ -4339,7 +4339,7 @@
         <v>309.61</v>
       </c>
       <c r="D96" t="n">
-        <v>324.57</v>
+        <v>324.72</v>
       </c>
       <c r="E96" t="n">
         <v>327.64</v>
@@ -4381,7 +4381,7 @@
         <v>324.09</v>
       </c>
       <c r="D97" t="n">
-        <v>336.11</v>
+        <v>336.21</v>
       </c>
       <c r="E97" t="n">
         <v>333.24</v>
@@ -4419,7 +4419,7 @@
         <v>322.5</v>
       </c>
       <c r="D98" t="n">
-        <v>335.88</v>
+        <v>335.8</v>
       </c>
       <c r="E98" t="n">
         <v>329.75</v>
@@ -4459,7 +4459,7 @@
         <v>333.68</v>
       </c>
       <c r="D99" t="n">
-        <v>339.23</v>
+        <v>339.06</v>
       </c>
       <c r="E99" t="n">
         <v>332.02</v>
@@ -4501,7 +4501,7 @@
         <v>329.85</v>
       </c>
       <c r="D100" t="n">
-        <v>337.61</v>
+        <v>337.56</v>
       </c>
       <c r="E100" t="n">
         <v>327.67</v>
@@ -4585,7 +4585,7 @@
         <v>322.23</v>
       </c>
       <c r="D102" t="n">
-        <v>333.37</v>
+        <v>333.45</v>
       </c>
       <c r="E102" t="n">
         <v>332.94</v>
@@ -4627,7 +4627,7 @@
         <v>315.17</v>
       </c>
       <c r="D103" t="n">
-        <v>321.34</v>
+        <v>321.22</v>
       </c>
       <c r="E103" t="n">
         <v>323.67</v>
@@ -4669,7 +4669,7 @@
         <v>317.06</v>
       </c>
       <c r="D104" t="n">
-        <v>322.79</v>
+        <v>322.62</v>
       </c>
       <c r="E104" t="n">
         <v>327.28</v>
@@ -4711,7 +4711,7 @@
         <v>316.89</v>
       </c>
       <c r="D105" t="n">
-        <v>324.71</v>
+        <v>324.64</v>
       </c>
       <c r="E105" t="n">
         <v>319.08</v>
@@ -4753,7 +4753,7 @@
         <v>312.68</v>
       </c>
       <c r="D106" t="n">
-        <v>328.9</v>
+        <v>329.01</v>
       </c>
       <c r="E106" t="n">
         <v>328.11</v>
@@ -4793,7 +4793,7 @@
         <v>309.63</v>
       </c>
       <c r="D107" t="n">
-        <v>330.2</v>
+        <v>330.31</v>
       </c>
       <c r="E107" t="n">
         <v>328.4</v>
@@ -4833,7 +4833,7 @@
         <v>319.23</v>
       </c>
       <c r="D108" t="n">
-        <v>326.32</v>
+        <v>326.21</v>
       </c>
       <c r="E108" t="n">
         <v>322.59</v>
@@ -4875,7 +4875,7 @@
         <v>316.12</v>
       </c>
       <c r="D109" t="n">
-        <v>324.98</v>
+        <v>324.94</v>
       </c>
       <c r="E109" t="n">
         <v>326.18</v>
@@ -4959,7 +4959,7 @@
         <v>320.18</v>
       </c>
       <c r="D111" t="n">
-        <v>327.63</v>
+        <v>327.49</v>
       </c>
       <c r="E111" t="n">
         <v>326.21</v>
@@ -5001,7 +5001,7 @@
         <v>327.57</v>
       </c>
       <c r="D112" t="n">
-        <v>339.29</v>
+        <v>339.09</v>
       </c>
       <c r="E112" t="n">
         <v>333.16</v>
@@ -5043,7 +5043,7 @@
         <v>326.32</v>
       </c>
       <c r="D113" t="n">
-        <v>338.58</v>
+        <v>338.67</v>
       </c>
       <c r="E113" t="n">
         <v>334.87</v>
@@ -5085,7 +5085,7 @@
         <v>306.29</v>
       </c>
       <c r="D114" t="n">
-        <v>341.31</v>
+        <v>341.38</v>
       </c>
       <c r="E114" t="n">
         <v>336.72</v>
@@ -5123,7 +5123,7 @@
         <v>300.34</v>
       </c>
       <c r="D115" t="n">
-        <v>318.98</v>
+        <v>319.1</v>
       </c>
       <c r="E115" t="n">
         <v>320.17</v>
@@ -5165,7 +5165,7 @@
         <v>318.37</v>
       </c>
       <c r="D116" t="n">
-        <v>331.74</v>
+        <v>331.86</v>
       </c>
       <c r="E116" t="n">
         <v>327.69</v>
@@ -5205,7 +5205,7 @@
         <v>330.71</v>
       </c>
       <c r="D117" t="n">
-        <v>341.34</v>
+        <v>341.3</v>
       </c>
       <c r="E117" t="n">
         <v>339.14</v>
@@ -5247,7 +5247,7 @@
         <v>319.35</v>
       </c>
       <c r="D118" t="n">
-        <v>325.96</v>
+        <v>325.89</v>
       </c>
       <c r="E118" t="n">
         <v>331.36</v>
@@ -5289,7 +5289,7 @@
         <v>328.92</v>
       </c>
       <c r="D119" t="n">
-        <v>335.82</v>
+        <v>335.95</v>
       </c>
       <c r="E119" t="n">
         <v>335.2</v>
@@ -5327,7 +5327,7 @@
         <v>319.72</v>
       </c>
       <c r="D120" t="n">
-        <v>329.94</v>
+        <v>330.02</v>
       </c>
       <c r="E120" t="n">
         <v>331.15</v>
@@ -5369,7 +5369,7 @@
         <v>323.33</v>
       </c>
       <c r="D121" t="n">
-        <v>326.68</v>
+        <v>326.61</v>
       </c>
       <c r="E121" t="n">
         <v>327.22</v>
@@ -5409,7 +5409,7 @@
         <v>312.86</v>
       </c>
       <c r="D122" t="n">
-        <v>333.28</v>
+        <v>333.07</v>
       </c>
       <c r="E122" t="n">
         <v>330.34</v>
@@ -5445,7 +5445,7 @@
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>331.34</v>
+        <v>331.31</v>
       </c>
       <c r="E123" t="n">
         <v>333.07</v>
@@ -5485,7 +5485,7 @@
         <v>315.06</v>
       </c>
       <c r="D124" t="n">
-        <v>332.89</v>
+        <v>333.05</v>
       </c>
       <c r="E124" t="n">
         <v>333.66</v>
@@ -5517,7 +5517,7 @@
         <v>316.53</v>
       </c>
       <c r="D125" t="n">
-        <v>330.6</v>
+        <v>330.73</v>
       </c>
       <c r="E125" t="n">
         <v>330.85</v>
@@ -5557,7 +5557,7 @@
         <v>320.25</v>
       </c>
       <c r="D126" t="n">
-        <v>328.61</v>
+        <v>328.75</v>
       </c>
       <c r="E126" t="n">
         <v>332.73</v>
@@ -5599,7 +5599,7 @@
         <v>312.13</v>
       </c>
       <c r="D127" t="n">
-        <v>324.03</v>
+        <v>323.95</v>
       </c>
       <c r="E127" t="n">
         <v>322.44</v>
@@ -5641,7 +5641,7 @@
         <v>329.69</v>
       </c>
       <c r="D128" t="n">
-        <v>328.85</v>
+        <v>328.95</v>
       </c>
       <c r="E128" t="n">
         <v>331.96</v>
@@ -5681,7 +5681,7 @@
         <v>321.15</v>
       </c>
       <c r="D129" t="n">
-        <v>332.11</v>
+        <v>331.9</v>
       </c>
       <c r="E129" t="n">
         <v>331.57</v>
@@ -5723,7 +5723,7 @@
         <v>318.93</v>
       </c>
       <c r="D130" t="n">
-        <v>327.84</v>
+        <v>327.96</v>
       </c>
       <c r="E130" t="n">
         <v>332.47</v>
@@ -5803,7 +5803,7 @@
         <v>310.98</v>
       </c>
       <c r="D132" t="n">
-        <v>318.15</v>
+        <v>318.07</v>
       </c>
       <c r="E132" t="n">
         <v>312.72</v>
@@ -5845,7 +5845,7 @@
         <v>322.47</v>
       </c>
       <c r="D133" t="n">
-        <v>330.1</v>
+        <v>330.26</v>
       </c>
       <c r="E133" t="n">
         <v>324.35</v>
@@ -5883,7 +5883,7 @@
         <v>318.95</v>
       </c>
       <c r="D134" t="n">
-        <v>330.77</v>
+        <v>330.92</v>
       </c>
       <c r="E134" t="n">
         <v>325.72</v>
@@ -5923,7 +5923,7 @@
         <v>324.06</v>
       </c>
       <c r="D135" t="n">
-        <v>328.32</v>
+        <v>328.4</v>
       </c>
       <c r="E135" t="n">
         <v>329.43</v>
@@ -5963,7 +5963,7 @@
         <v>327.29</v>
       </c>
       <c r="D136" t="n">
-        <v>328.53</v>
+        <v>328.48</v>
       </c>
       <c r="E136" t="n">
         <v>328.66</v>
@@ -6003,7 +6003,7 @@
         <v>326.07</v>
       </c>
       <c r="D137" t="n">
-        <v>341.56</v>
+        <v>341.35</v>
       </c>
       <c r="E137" t="n">
         <v>330.16</v>
@@ -6081,7 +6081,7 @@
         <v>328.14</v>
       </c>
       <c r="D139" t="n">
-        <v>339</v>
+        <v>339.13</v>
       </c>
       <c r="E139" t="n">
         <v>333.27</v>
@@ -6121,7 +6121,7 @@
         <v>328.79</v>
       </c>
       <c r="D140" t="n">
-        <v>339.28</v>
+        <v>339.39</v>
       </c>
       <c r="E140" t="n">
         <v>331.6</v>
@@ -6159,7 +6159,7 @@
         <v>332.69</v>
       </c>
       <c r="D141" t="n">
-        <v>333.34</v>
+        <v>333.49</v>
       </c>
       <c r="E141" t="n">
         <v>324.68</v>
@@ -6199,7 +6199,7 @@
         <v>332.61</v>
       </c>
       <c r="D142" t="n">
-        <v>334.99</v>
+        <v>334.84</v>
       </c>
       <c r="E142" t="n">
         <v>325.35</v>
@@ -6237,7 +6237,7 @@
         <v>330.93</v>
       </c>
       <c r="D143" t="n">
-        <v>336.32</v>
+        <v>336.11</v>
       </c>
       <c r="E143" t="n">
         <v>327.24</v>
@@ -6277,7 +6277,7 @@
         <v>348.11</v>
       </c>
       <c r="D144" t="n">
-        <v>343.67</v>
+        <v>343.8</v>
       </c>
       <c r="E144" t="n">
         <v>338.51</v>
@@ -6317,7 +6317,7 @@
         <v>336.34</v>
       </c>
       <c r="D145" t="n">
-        <v>347.42</v>
+        <v>347.55</v>
       </c>
       <c r="E145" t="n">
         <v>327.52</v>
@@ -6359,7 +6359,7 @@
         <v>332.4</v>
       </c>
       <c r="D146" t="n">
-        <v>338.33</v>
+        <v>338.27</v>
       </c>
       <c r="E146" t="n">
         <v>329.83</v>
@@ -6435,7 +6435,7 @@
         <v>345.97</v>
       </c>
       <c r="D148" t="n">
-        <v>357.14</v>
+        <v>357.04</v>
       </c>
       <c r="E148" t="n">
         <v>335.92</v>
@@ -6477,7 +6477,7 @@
         <v>326.64</v>
       </c>
       <c r="D149" t="n">
-        <v>336.01</v>
+        <v>336.15</v>
       </c>
       <c r="E149" t="n">
         <v>321.12</v>
@@ -6517,7 +6517,7 @@
         <v>332.65</v>
       </c>
       <c r="D150" t="n">
-        <v>332.74</v>
+        <v>332.9</v>
       </c>
       <c r="E150" t="n">
         <v>322.18</v>
@@ -6559,7 +6559,7 @@
         <v>349.93</v>
       </c>
       <c r="D151" t="n">
-        <v>353.4</v>
+        <v>353.46</v>
       </c>
       <c r="E151" t="n">
         <v>338.92</v>
@@ -6601,7 +6601,7 @@
         <v>334.11</v>
       </c>
       <c r="D152" t="n">
-        <v>343.76</v>
+        <v>343.7</v>
       </c>
       <c r="E152" t="n">
         <v>331.41</v>
@@ -6643,7 +6643,7 @@
         <v>330.08</v>
       </c>
       <c r="D153" t="n">
-        <v>339.88</v>
+        <v>339.84</v>
       </c>
       <c r="E153" t="n">
         <v>329.43</v>
@@ -6685,7 +6685,7 @@
         <v>342.97</v>
       </c>
       <c r="D154" t="n">
-        <v>344.99</v>
+        <v>345</v>
       </c>
       <c r="E154" t="n">
         <v>332.13</v>
@@ -6725,7 +6725,7 @@
         <v>314.07</v>
       </c>
       <c r="D155" t="n">
-        <v>316.07</v>
+        <v>316.21</v>
       </c>
       <c r="E155" t="n">
         <v>310.65</v>
@@ -6767,7 +6767,7 @@
         <v>347.89</v>
       </c>
       <c r="D156" t="n">
-        <v>339.86</v>
+        <v>339.74</v>
       </c>
       <c r="E156" t="n">
         <v>334.1</v>
@@ -6809,7 +6809,7 @@
         <v>339.23</v>
       </c>
       <c r="D157" t="n">
-        <v>342.72</v>
+        <v>342.84</v>
       </c>
       <c r="E157" t="n">
         <v>335.27</v>
@@ -6851,7 +6851,7 @@
         <v>333.93</v>
       </c>
       <c r="D158" t="n">
-        <v>341.85</v>
+        <v>341.98</v>
       </c>
       <c r="E158" t="n">
         <v>334.34</v>
@@ -6891,7 +6891,7 @@
         <v>342.76</v>
       </c>
       <c r="D159" t="n">
-        <v>344.2</v>
+        <v>344.11</v>
       </c>
       <c r="E159" t="n">
         <v>329.64</v>
@@ -6933,7 +6933,7 @@
         <v>331.46</v>
       </c>
       <c r="D160" t="n">
-        <v>340.3</v>
+        <v>340.32</v>
       </c>
       <c r="E160" t="n">
         <v>331.07</v>
@@ -6975,7 +6975,7 @@
         <v>329.45</v>
       </c>
       <c r="D161" t="n">
-        <v>327.79</v>
+        <v>327.71</v>
       </c>
       <c r="E161" t="n">
         <v>326.78</v>
@@ -7015,7 +7015,7 @@
         <v>331.38</v>
       </c>
       <c r="D162" t="n">
-        <v>342.41</v>
+        <v>342.53</v>
       </c>
       <c r="E162" t="n">
         <v>330.01</v>
@@ -7053,7 +7053,7 @@
         <v>318.35</v>
       </c>
       <c r="D163" t="n">
-        <v>326.77</v>
+        <v>326.66</v>
       </c>
       <c r="E163" t="n">
         <v>324.69</v>
@@ -7095,7 +7095,7 @@
         <v>340.77</v>
       </c>
       <c r="D164" t="n">
-        <v>347.11</v>
+        <v>347.23</v>
       </c>
       <c r="E164" t="n">
         <v>335.82</v>
@@ -7177,7 +7177,7 @@
         <v>336.96</v>
       </c>
       <c r="D166" t="n">
-        <v>341.86</v>
+        <v>341.83</v>
       </c>
       <c r="E166" t="n">
         <v>331.78</v>
@@ -7257,7 +7257,7 @@
         <v>330.86</v>
       </c>
       <c r="D168" t="n">
-        <v>342.16</v>
+        <v>342.32</v>
       </c>
       <c r="E168" t="n">
         <v>333.79</v>
@@ -7297,7 +7297,7 @@
         <v>337.05</v>
       </c>
       <c r="D169" t="n">
-        <v>332.89</v>
+        <v>332.81</v>
       </c>
       <c r="E169" t="n">
         <v>325.55</v>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>331.83</v>
+        <v>331.78</v>
       </c>
       <c r="E170" t="n">
         <v>329.19</v>
@@ -7379,7 +7379,7 @@
         <v>337.24</v>
       </c>
       <c r="D171" t="n">
-        <v>339.14</v>
+        <v>339.32</v>
       </c>
       <c r="E171" t="n">
         <v>331.91</v>
@@ -7421,7 +7421,7 @@
         <v>334.15</v>
       </c>
       <c r="D172" t="n">
-        <v>339.65</v>
+        <v>339.46</v>
       </c>
       <c r="E172" t="n">
         <v>335.29</v>
@@ -7463,7 +7463,7 @@
         <v>327.96</v>
       </c>
       <c r="D173" t="n">
-        <v>335.27</v>
+        <v>335.2</v>
       </c>
       <c r="E173" t="n">
         <v>328.57</v>
@@ -7505,7 +7505,7 @@
         <v>333.42</v>
       </c>
       <c r="D174" t="n">
-        <v>335.12</v>
+        <v>335.08</v>
       </c>
       <c r="E174" t="n">
         <v>331.59</v>
@@ -7547,7 +7547,7 @@
         <v>328.85</v>
       </c>
       <c r="D175" t="n">
-        <v>334.88</v>
+        <v>334.9</v>
       </c>
       <c r="E175" t="n">
         <v>332.26</v>
@@ -7589,7 +7589,7 @@
         <v>335.42</v>
       </c>
       <c r="D176" t="n">
-        <v>340.26</v>
+        <v>340.12</v>
       </c>
       <c r="E176" t="n">
         <v>331.88</v>
@@ -7631,7 +7631,7 @@
         <v>324.42</v>
       </c>
       <c r="D177" t="n">
-        <v>333.01</v>
+        <v>332.91</v>
       </c>
       <c r="E177" t="n">
         <v>324.3</v>
@@ -7673,7 +7673,7 @@
         <v>323.84</v>
       </c>
       <c r="D178" t="n">
-        <v>331.51</v>
+        <v>331.52</v>
       </c>
       <c r="E178" t="n">
         <v>322.86</v>
@@ -7713,7 +7713,7 @@
         <v>335.18</v>
       </c>
       <c r="D179" t="n">
-        <v>339.79</v>
+        <v>339.86</v>
       </c>
       <c r="E179" t="n">
         <v>332.71</v>
@@ -7755,7 +7755,7 @@
         <v>332.37</v>
       </c>
       <c r="D180" t="n">
-        <v>339.57</v>
+        <v>339.69</v>
       </c>
       <c r="E180" t="n">
         <v>329.75</v>
@@ -7797,7 +7797,7 @@
         <v>329.29</v>
       </c>
       <c r="D181" t="n">
-        <v>340.7</v>
+        <v>340.51</v>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
@@ -7837,7 +7837,7 @@
         <v>336.57</v>
       </c>
       <c r="D182" t="n">
-        <v>338.55</v>
+        <v>338.65</v>
       </c>
       <c r="E182" t="n">
         <v>329.33</v>
@@ -7879,7 +7879,7 @@
         <v>340.68</v>
       </c>
       <c r="D183" t="n">
-        <v>346.65</v>
+        <v>346.62</v>
       </c>
       <c r="E183" t="n">
         <v>327.62</v>
@@ -7921,7 +7921,7 @@
         <v>340.39</v>
       </c>
       <c r="D184" t="n">
-        <v>349.13</v>
+        <v>349.3</v>
       </c>
       <c r="E184" t="n">
         <v>335.27</v>
@@ -7963,7 +7963,7 @@
         <v>343.38</v>
       </c>
       <c r="D185" t="n">
-        <v>348.45</v>
+        <v>348.32</v>
       </c>
       <c r="E185" t="n">
         <v>335.45</v>
@@ -8005,7 +8005,7 @@
         <v>346.94</v>
       </c>
       <c r="D186" t="n">
-        <v>347.79</v>
+        <v>347.71</v>
       </c>
       <c r="E186" t="n">
         <v>329.68</v>
@@ -8047,7 +8047,7 @@
         <v>348.89</v>
       </c>
       <c r="D187" t="n">
-        <v>352.66</v>
+        <v>352.64</v>
       </c>
       <c r="E187" t="n">
         <v>338.93</v>
@@ -8089,7 +8089,7 @@
         <v>343.4</v>
       </c>
       <c r="D188" t="n">
-        <v>348.3</v>
+        <v>348.22</v>
       </c>
       <c r="E188" t="n">
         <v>334.74</v>
@@ -8131,7 +8131,7 @@
         <v>338.2</v>
       </c>
       <c r="D189" t="n">
-        <v>344.44</v>
+        <v>344.59</v>
       </c>
       <c r="E189" t="n">
         <v>331.98</v>
@@ -8173,7 +8173,7 @@
         <v>344.8</v>
       </c>
       <c r="D190" t="n">
-        <v>352.03</v>
+        <v>351.93</v>
       </c>
       <c r="E190" t="n">
         <v>343.28</v>
@@ -8215,7 +8215,7 @@
         <v>339.82</v>
       </c>
       <c r="D191" t="n">
-        <v>350.77</v>
+        <v>350.71</v>
       </c>
       <c r="E191" t="n">
         <v>335.27</v>
@@ -8255,7 +8255,7 @@
         <v>332.71</v>
       </c>
       <c r="D192" t="n">
-        <v>341.23</v>
+        <v>341.26</v>
       </c>
       <c r="E192" t="n">
         <v>328.99</v>
@@ -8297,7 +8297,7 @@
         <v>340.87</v>
       </c>
       <c r="D193" t="n">
-        <v>347.16</v>
+        <v>347.02</v>
       </c>
       <c r="E193" t="n">
         <v>331.61</v>
@@ -8339,7 +8339,7 @@
         <v>340.43</v>
       </c>
       <c r="D194" t="n">
-        <v>344.81</v>
+        <v>344.91</v>
       </c>
       <c r="E194" t="n">
         <v>332.89</v>
@@ -8379,7 +8379,7 @@
         <v>347.34</v>
       </c>
       <c r="D195" t="n">
-        <v>350.73</v>
+        <v>350.85</v>
       </c>
       <c r="E195" t="n">
         <v>336.5</v>
@@ -8421,7 +8421,7 @@
         <v>329.76</v>
       </c>
       <c r="D196" t="n">
-        <v>337.33</v>
+        <v>337.45</v>
       </c>
       <c r="E196" t="n">
         <v>324.77</v>
@@ -8461,7 +8461,7 @@
         <v>349.07</v>
       </c>
       <c r="D197" t="n">
-        <v>356.83</v>
+        <v>356.73</v>
       </c>
       <c r="E197" t="n">
         <v>340.09</v>
@@ -8541,7 +8541,7 @@
         <v>343.54</v>
       </c>
       <c r="D199" t="n">
-        <v>347.91</v>
+        <v>348.01</v>
       </c>
       <c r="E199" t="n">
         <v>330.84</v>
@@ -8581,7 +8581,7 @@
         <v>346.91</v>
       </c>
       <c r="D200" t="n">
-        <v>350.43</v>
+        <v>350.55</v>
       </c>
       <c r="E200" t="n">
         <v>337.71</v>
@@ -8619,7 +8619,7 @@
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>346.2</v>
+        <v>346.01</v>
       </c>
       <c r="E201" t="n">
         <v>329.33</v>
@@ -8661,7 +8661,7 @@
         <v>339.41</v>
       </c>
       <c r="D202" t="n">
-        <v>347.44</v>
+        <v>347.58</v>
       </c>
       <c r="E202" t="n">
         <v>328.55</v>
@@ -8703,7 +8703,7 @@
         <v>339.79</v>
       </c>
       <c r="D203" t="n">
-        <v>344.93</v>
+        <v>344.77</v>
       </c>
       <c r="E203" t="n">
         <v>333.57</v>
@@ -8783,7 +8783,7 @@
         <v>336.47</v>
       </c>
       <c r="D205" t="n">
-        <v>348.01</v>
+        <v>348.09</v>
       </c>
       <c r="E205" t="n">
         <v>330.89</v>
@@ -8825,7 +8825,7 @@
         <v>347.56</v>
       </c>
       <c r="D206" t="n">
-        <v>353.02</v>
+        <v>352.99</v>
       </c>
       <c r="E206" t="n">
         <v>340.43</v>
@@ -8867,7 +8867,7 @@
         <v>337.4</v>
       </c>
       <c r="D207" t="n">
-        <v>347.76</v>
+        <v>347.68</v>
       </c>
       <c r="E207" t="n">
         <v>333.9</v>
@@ -8909,7 +8909,7 @@
         <v>339.11</v>
       </c>
       <c r="D208" t="n">
-        <v>337.64</v>
+        <v>337.63</v>
       </c>
       <c r="E208" t="n">
         <v>329.03</v>
@@ -8951,7 +8951,7 @@
         <v>343.39</v>
       </c>
       <c r="D209" t="n">
-        <v>349.94</v>
+        <v>350.08</v>
       </c>
       <c r="E209" t="n">
         <v>336.9</v>
@@ -9031,7 +9031,7 @@
         <v>332.17</v>
       </c>
       <c r="D211" t="n">
-        <v>340.43</v>
+        <v>340.57</v>
       </c>
       <c r="E211" t="n">
         <v>330.91</v>
@@ -9073,7 +9073,7 @@
         <v>337.71</v>
       </c>
       <c r="D212" t="n">
-        <v>343.83</v>
+        <v>343.97</v>
       </c>
       <c r="E212" t="n">
         <v>332.32</v>
@@ -9115,7 +9115,7 @@
         <v>322.43</v>
       </c>
       <c r="D213" t="n">
-        <v>325.25</v>
+        <v>325.19</v>
       </c>
       <c r="E213" t="n">
         <v>317.54</v>
@@ -9157,7 +9157,7 @@
         <v>329.35</v>
       </c>
       <c r="D214" t="n">
-        <v>325.92</v>
+        <v>325.96</v>
       </c>
       <c r="E214" t="n">
         <v>320.93</v>
@@ -9197,7 +9197,7 @@
         <v>331.39</v>
       </c>
       <c r="D215" t="n">
-        <v>335.48</v>
+        <v>335.42</v>
       </c>
       <c r="E215" t="n">
         <v>330.29</v>
@@ -9239,7 +9239,7 @@
         <v>343.32</v>
       </c>
       <c r="D216" t="n">
-        <v>344.76</v>
+        <v>344.55</v>
       </c>
       <c r="E216" t="n">
         <v>334.22</v>
@@ -9279,7 +9279,7 @@
         <v>340.49</v>
       </c>
       <c r="D217" t="n">
-        <v>354.47</v>
+        <v>354.6</v>
       </c>
       <c r="E217" t="n">
         <v>344.88</v>
@@ -9319,7 +9319,7 @@
         <v>336.26</v>
       </c>
       <c r="D218" t="n">
-        <v>346.64</v>
+        <v>346.76</v>
       </c>
       <c r="E218" t="n">
         <v>337.79</v>
@@ -9359,7 +9359,7 @@
         <v>339.06</v>
       </c>
       <c r="D219" t="n">
-        <v>342.26</v>
+        <v>342.16</v>
       </c>
       <c r="E219" t="n">
         <v>329.61</v>
@@ -9397,7 +9397,7 @@
         <v>342.76</v>
       </c>
       <c r="D220" t="n">
-        <v>346.2</v>
+        <v>346.1</v>
       </c>
       <c r="E220" t="n">
         <v>334.96</v>
@@ -9439,7 +9439,7 @@
         <v>334.59</v>
       </c>
       <c r="D221" t="n">
-        <v>341.65</v>
+        <v>341.77</v>
       </c>
       <c r="E221" t="n">
         <v>332.81</v>
@@ -9481,7 +9481,7 @@
         <v>327.92</v>
       </c>
       <c r="D222" t="n">
-        <v>333.56</v>
+        <v>333.7</v>
       </c>
       <c r="E222" t="n">
         <v>325.77</v>
@@ -9523,7 +9523,7 @@
         <v>345.68</v>
       </c>
       <c r="D223" t="n">
-        <v>354.89</v>
+        <v>354.74</v>
       </c>
       <c r="E223" t="n">
         <v>338.84</v>
@@ -9561,7 +9561,7 @@
         <v>345.82</v>
       </c>
       <c r="D224" t="n">
-        <v>345</v>
+        <v>344.96</v>
       </c>
       <c r="E224" t="n">
         <v>335.15</v>
@@ -9603,7 +9603,7 @@
         <v>344.38</v>
       </c>
       <c r="D225" t="n">
-        <v>350.82</v>
+        <v>350.99</v>
       </c>
       <c r="E225" t="n">
         <v>339.67</v>
@@ -9645,7 +9645,7 @@
         <v>350.25</v>
       </c>
       <c r="D226" t="n">
-        <v>348.18</v>
+        <v>347.98</v>
       </c>
       <c r="E226" t="n">
         <v>334.66</v>
@@ -9687,7 +9687,7 @@
         <v>335.85</v>
       </c>
       <c r="D227" t="n">
-        <v>344</v>
+        <v>344.17</v>
       </c>
       <c r="E227" t="n">
         <v>330.49</v>
@@ -9729,7 +9729,7 @@
         <v>333.23</v>
       </c>
       <c r="D228" t="n">
-        <v>344.67</v>
+        <v>344.68</v>
       </c>
       <c r="E228" t="n">
         <v>331.74</v>
@@ -9771,7 +9771,7 @@
         <v>330.52</v>
       </c>
       <c r="D229" t="n">
-        <v>339.24</v>
+        <v>339.12</v>
       </c>
       <c r="E229" t="n">
         <v>328.31</v>
@@ -9811,7 +9811,7 @@
         <v>340.24</v>
       </c>
       <c r="D230" t="n">
-        <v>342.4</v>
+        <v>342.33</v>
       </c>
       <c r="E230" t="n">
         <v>331.9</v>
@@ -9853,7 +9853,7 @@
         <v>334.53</v>
       </c>
       <c r="D231" t="n">
-        <v>331.49</v>
+        <v>331.44</v>
       </c>
       <c r="E231" t="n">
         <v>322.57</v>
@@ -9895,7 +9895,7 @@
         <v>328.5</v>
       </c>
       <c r="D232" t="n">
-        <v>329.31</v>
+        <v>329.14</v>
       </c>
       <c r="E232" t="n">
         <v>320.24</v>
@@ -9933,7 +9933,7 @@
         <v>333.5</v>
       </c>
       <c r="D233" t="n">
-        <v>338.58</v>
+        <v>338.46</v>
       </c>
       <c r="E233" t="n">
         <v>332.41</v>
@@ -9971,7 +9971,7 @@
         <v>347.54</v>
       </c>
       <c r="D234" t="n">
-        <v>339.21</v>
+        <v>339.31</v>
       </c>
       <c r="E234" t="n">
         <v>329.7</v>
@@ -10013,7 +10013,7 @@
         <v>332.09</v>
       </c>
       <c r="D235" t="n">
-        <v>332.03</v>
+        <v>332.14</v>
       </c>
       <c r="E235" t="n">
         <v>320.96</v>
@@ -10055,7 +10055,7 @@
         <v>347.31</v>
       </c>
       <c r="D236" t="n">
-        <v>351.41</v>
+        <v>351.51</v>
       </c>
       <c r="E236" t="n">
         <v>340.14</v>
@@ -10097,7 +10097,7 @@
         <v>332.55</v>
       </c>
       <c r="D237" t="n">
-        <v>337.32</v>
+        <v>337.14</v>
       </c>
       <c r="E237" t="n">
         <v>324.86</v>
@@ -10139,7 +10139,7 @@
         <v>330.81</v>
       </c>
       <c r="D238" t="n">
-        <v>332.56</v>
+        <v>332.48</v>
       </c>
       <c r="E238" t="n">
         <v>325.76</v>
@@ -10181,7 +10181,7 @@
         <v>335.02</v>
       </c>
       <c r="D239" t="n">
-        <v>331.95</v>
+        <v>332.02</v>
       </c>
       <c r="E239" t="n">
         <v>325.87</v>
@@ -10219,7 +10219,7 @@
         <v>333.62</v>
       </c>
       <c r="D240" t="n">
-        <v>342.84</v>
+        <v>342.76</v>
       </c>
       <c r="E240" t="n">
         <v>336.69</v>
@@ -10259,7 +10259,7 @@
         <v>331.9</v>
       </c>
       <c r="D241" t="n">
-        <v>344.33</v>
+        <v>344.16</v>
       </c>
       <c r="E241" t="n">
         <v>332.1</v>
@@ -10297,7 +10297,7 @@
         <v>331.34</v>
       </c>
       <c r="D242" t="n">
-        <v>340.31</v>
+        <v>340.43</v>
       </c>
       <c r="E242" t="n">
         <v>336.55</v>
@@ -10335,7 +10335,7 @@
         <v>341.77</v>
       </c>
       <c r="D243" t="n">
-        <v>344.01</v>
+        <v>343.84</v>
       </c>
       <c r="E243" t="n">
         <v>329.28</v>
@@ -10377,7 +10377,7 @@
         <v>334.33</v>
       </c>
       <c r="D244" t="n">
-        <v>336.5</v>
+        <v>336.39</v>
       </c>
       <c r="E244" t="n">
         <v>324.84</v>
@@ -10419,7 +10419,7 @@
         <v>338.1</v>
       </c>
       <c r="D245" t="n">
-        <v>332.38</v>
+        <v>332.39</v>
       </c>
       <c r="E245" t="n">
         <v>325.44</v>
@@ -10461,7 +10461,7 @@
         <v>330.17</v>
       </c>
       <c r="D246" t="n">
-        <v>335.95</v>
+        <v>335.92</v>
       </c>
       <c r="E246" t="n">
         <v>327.55</v>
@@ -10503,7 +10503,7 @@
         <v>325.45</v>
       </c>
       <c r="D247" t="n">
-        <v>322.99</v>
+        <v>322.86</v>
       </c>
       <c r="E247" t="n">
         <v>320.45</v>
@@ -10541,7 +10541,7 @@
         <v>331.75</v>
       </c>
       <c r="D248" t="n">
-        <v>330.11</v>
+        <v>330.28</v>
       </c>
       <c r="E248" t="n">
         <v>321.35</v>
@@ -10583,7 +10583,7 @@
         <v>335.51</v>
       </c>
       <c r="D249" t="n">
-        <v>348.17</v>
+        <v>348.16</v>
       </c>
       <c r="E249" t="n">
         <v>337.3</v>
@@ -10621,7 +10621,7 @@
         <v>331.76</v>
       </c>
       <c r="D250" t="n">
-        <v>344.03</v>
+        <v>343.96</v>
       </c>
       <c r="E250" t="n">
         <v>335.45</v>
@@ -10663,7 +10663,7 @@
         <v>309.61</v>
       </c>
       <c r="D251" t="n">
-        <v>320.46</v>
+        <v>320.32</v>
       </c>
       <c r="E251" t="n">
         <v>310.74</v>
@@ -10695,7 +10695,7 @@
         <v>323.54</v>
       </c>
       <c r="D252" t="n">
-        <v>329.37</v>
+        <v>329.53</v>
       </c>
       <c r="E252" t="n">
         <v>321.52</v>
@@ -10731,7 +10731,7 @@
         <v>325.08</v>
       </c>
       <c r="D253" t="n">
-        <v>329.26</v>
+        <v>329.33</v>
       </c>
       <c r="E253" t="n">
         <v>323.98</v>
@@ -10773,7 +10773,7 @@
         <v>322.9</v>
       </c>
       <c r="D254" t="n">
-        <v>331.55</v>
+        <v>331.49</v>
       </c>
       <c r="E254" t="n">
         <v>324.28</v>
@@ -10811,7 +10811,7 @@
         <v>322.35</v>
       </c>
       <c r="D255" t="n">
-        <v>333.5</v>
+        <v>333.44</v>
       </c>
       <c r="E255" t="n">
         <v>328.14</v>
@@ -10853,7 +10853,7 @@
         <v>334.37</v>
       </c>
       <c r="D256" t="n">
-        <v>338.65</v>
+        <v>338.79</v>
       </c>
       <c r="E256" t="n">
         <v>329</v>
@@ -10895,7 +10895,7 @@
         <v>321.24</v>
       </c>
       <c r="D257" t="n">
-        <v>332.52</v>
+        <v>332.37</v>
       </c>
       <c r="E257" t="n">
         <v>327.78</v>
@@ -10933,7 +10933,7 @@
         <v>315.93</v>
       </c>
       <c r="D258" t="n">
-        <v>330.26</v>
+        <v>330.05</v>
       </c>
       <c r="E258" t="n">
         <v>323.08</v>
@@ -11001,7 +11001,7 @@
         <v>312.93</v>
       </c>
       <c r="D260" t="n">
-        <v>323.64</v>
+        <v>323.76</v>
       </c>
       <c r="E260" t="n">
         <v>316.04</v>
@@ -11077,7 +11077,7 @@
         <v>316.7</v>
       </c>
       <c r="D262" t="n">
-        <v>325.91</v>
+        <v>325.84</v>
       </c>
       <c r="E262" t="n">
         <v>326.6</v>
@@ -11115,7 +11115,7 @@
         <v>321.43</v>
       </c>
       <c r="D263" t="n">
-        <v>327.31</v>
+        <v>327.34</v>
       </c>
       <c r="E263" t="n">
         <v>326.21</v>
@@ -11153,7 +11153,7 @@
         <v>331.11</v>
       </c>
       <c r="D264" t="n">
-        <v>338.87</v>
+        <v>338.86</v>
       </c>
       <c r="E264" t="n">
         <v>333.11</v>
@@ -11195,7 +11195,7 @@
         <v>319.95</v>
       </c>
       <c r="D265" t="n">
-        <v>332.22</v>
+        <v>332.19</v>
       </c>
       <c r="E265" t="n">
         <v>320.04</v>
@@ -11233,7 +11233,7 @@
         <v>326.58</v>
       </c>
       <c r="D266" t="n">
-        <v>335.38</v>
+        <v>335.49</v>
       </c>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
@@ -11431,7 +11431,7 @@
         <v>329.76</v>
       </c>
       <c r="D272" t="n">
-        <v>339.95</v>
+        <v>339.88</v>
       </c>
       <c r="E272" t="n">
         <v>329.35</v>
@@ -11473,7 +11473,7 @@
         <v>339.35</v>
       </c>
       <c r="D273" t="n">
-        <v>342.3</v>
+        <v>342.4</v>
       </c>
       <c r="E273" t="n">
         <v>334.88</v>
@@ -11505,7 +11505,7 @@
         <v>337.59</v>
       </c>
       <c r="D274" t="n">
-        <v>335.52</v>
+        <v>335.66</v>
       </c>
       <c r="E274" t="n">
         <v>327.53</v>
@@ -11547,7 +11547,7 @@
         <v>321.47</v>
       </c>
       <c r="D275" t="n">
-        <v>329.03</v>
+        <v>328.89</v>
       </c>
       <c r="E275" t="n">
         <v>323.55</v>
@@ -11619,7 +11619,7 @@
         <v>334.26</v>
       </c>
       <c r="D277" t="n">
-        <v>341.5</v>
+        <v>341.3</v>
       </c>
       <c r="E277" t="n">
         <v>329.03</v>
@@ -11691,7 +11691,7 @@
         <v>336.37</v>
       </c>
       <c r="D279" t="n">
-        <v>340.15</v>
+        <v>340.19</v>
       </c>
       <c r="E279" t="n">
         <v>335.09</v>
@@ -11733,7 +11733,7 @@
         <v>317.79</v>
       </c>
       <c r="D280" t="n">
-        <v>327.05</v>
+        <v>327.22</v>
       </c>
       <c r="E280" t="n">
         <v>317.32</v>
@@ -11799,7 +11799,7 @@
         <v>325.76</v>
       </c>
       <c r="D282" t="n">
-        <v>335.21</v>
+        <v>335.11</v>
       </c>
       <c r="E282" t="n">
         <v>329.56</v>
@@ -11841,7 +11841,7 @@
         <v>334.88</v>
       </c>
       <c r="D283" t="n">
-        <v>343.86</v>
+        <v>343.9</v>
       </c>
       <c r="E283" t="n">
         <v>331.35</v>
@@ -11881,7 +11881,7 @@
         <v>315.7</v>
       </c>
       <c r="D284" t="n">
-        <v>326.56</v>
+        <v>326.67</v>
       </c>
       <c r="E284" t="n">
         <v>320.94</v>
@@ -11915,7 +11915,7 @@
         <v>337.33</v>
       </c>
       <c r="D285" t="n">
-        <v>341.76</v>
+        <v>341.86</v>
       </c>
       <c r="E285" t="n">
         <v>329.88</v>
@@ -11957,7 +11957,7 @@
         <v>329.72</v>
       </c>
       <c r="D286" t="n">
-        <v>335.81</v>
+        <v>335.62</v>
       </c>
       <c r="E286" t="n">
         <v>328.22</v>
@@ -11995,7 +11995,7 @@
         <v>331.49</v>
       </c>
       <c r="D287" t="n">
-        <v>329.63</v>
+        <v>329.77</v>
       </c>
       <c r="E287" t="n">
         <v>325.65</v>
@@ -12027,7 +12027,7 @@
         <v>335.62</v>
       </c>
       <c r="D288" t="n">
-        <v>335.23</v>
+        <v>335.35</v>
       </c>
       <c r="E288" t="n">
         <v>329.34</v>
@@ -12069,7 +12069,7 @@
         <v>326.96</v>
       </c>
       <c r="D289" t="n">
-        <v>331.94</v>
+        <v>332.04</v>
       </c>
       <c r="E289" t="n">
         <v>327.02</v>
@@ -12111,7 +12111,7 @@
         <v>337.47</v>
       </c>
       <c r="D290" t="n">
-        <v>339.22</v>
+        <v>339.03</v>
       </c>
       <c r="E290" t="n">
         <v>326.17</v>
@@ -12149,7 +12149,7 @@
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="n">
-        <v>336.63</v>
+        <v>336.74</v>
       </c>
       <c r="E291" t="n">
         <v>337.87</v>
@@ -12191,7 +12191,7 @@
         <v>331.55</v>
       </c>
       <c r="D292" t="n">
-        <v>334.86</v>
+        <v>334.73</v>
       </c>
       <c r="E292" t="n">
         <v>314.94</v>
@@ -12225,7 +12225,7 @@
         <v>336.25</v>
       </c>
       <c r="D293" t="n">
-        <v>334.71</v>
+        <v>334.83</v>
       </c>
       <c r="E293" t="n">
         <v>337.15</v>
@@ -12265,7 +12265,7 @@
         <v>325.07</v>
       </c>
       <c r="D294" t="n">
-        <v>335.23</v>
+        <v>335.12</v>
       </c>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
@@ -12325,7 +12325,7 @@
         <v>340.58</v>
       </c>
       <c r="D296" t="n">
-        <v>342.78</v>
+        <v>342.84</v>
       </c>
       <c r="E296" t="n">
         <v>326.09</v>
@@ -12403,7 +12403,7 @@
         <v>341.86</v>
       </c>
       <c r="D298" t="n">
-        <v>344.03</v>
+        <v>344.12</v>
       </c>
       <c r="E298" t="n">
         <v>337.79</v>
@@ -12445,7 +12445,7 @@
         <v>345.91</v>
       </c>
       <c r="D299" t="n">
-        <v>347.16</v>
+        <v>347.17</v>
       </c>
       <c r="E299" t="n">
         <v>336.43</v>
@@ -12487,7 +12487,7 @@
         <v>342.61</v>
       </c>
       <c r="D300" t="n">
-        <v>348.8</v>
+        <v>348.69</v>
       </c>
       <c r="E300" t="n">
         <v>335.02</v>
@@ -12587,7 +12587,7 @@
         <v>330.4</v>
       </c>
       <c r="D303" t="n">
-        <v>337.15</v>
+        <v>336.98</v>
       </c>
       <c r="E303" t="n">
         <v>327.3</v>
@@ -12657,7 +12657,7 @@
         <v>333.55</v>
       </c>
       <c r="D305" t="n">
-        <v>352.33</v>
+        <v>352.43</v>
       </c>
       <c r="E305" t="n">
         <v>355.19</v>
@@ -12699,7 +12699,7 @@
         <v>327.02</v>
       </c>
       <c r="D306" t="n">
-        <v>328.59</v>
+        <v>328.72</v>
       </c>
       <c r="E306" t="n">
         <v>321.4</v>
@@ -12767,7 +12767,7 @@
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="n">
-        <v>341.58</v>
+        <v>341.67</v>
       </c>
       <c r="E308" t="n">
         <v>331.02</v>
@@ -12799,7 +12799,7 @@
         <v>335.01</v>
       </c>
       <c r="D309" t="n">
-        <v>344.03</v>
+        <v>344.11</v>
       </c>
       <c r="E309" t="n">
         <v>334.5</v>
@@ -12891,7 +12891,7 @@
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="n">
-        <v>310.47</v>
+        <v>310.42</v>
       </c>
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
@@ -12923,7 +12923,7 @@
         <v>342.11</v>
       </c>
       <c r="D313" t="n">
-        <v>345.64</v>
+        <v>345.72</v>
       </c>
       <c r="E313" t="n">
         <v>334.9</v>
@@ -12965,7 +12965,7 @@
         <v>331.62</v>
       </c>
       <c r="D314" t="n">
-        <v>342.33</v>
+        <v>342.21</v>
       </c>
       <c r="E314" t="n">
         <v>337.17</v>
@@ -13005,7 +13005,7 @@
         <v>330.15</v>
       </c>
       <c r="D315" t="n">
-        <v>339.26</v>
+        <v>339.13</v>
       </c>
       <c r="E315" t="n">
         <v>332.1</v>
@@ -13047,7 +13047,7 @@
         <v>334.25</v>
       </c>
       <c r="D316" t="n">
-        <v>344.37</v>
+        <v>344.54</v>
       </c>
       <c r="E316" t="n">
         <v>336.62</v>
@@ -13089,7 +13089,7 @@
         <v>333.13</v>
       </c>
       <c r="D317" t="n">
-        <v>338.11</v>
+        <v>338.28</v>
       </c>
       <c r="E317" t="n">
         <v>334.73</v>
@@ -13131,7 +13131,7 @@
         <v>324.74</v>
       </c>
       <c r="D318" t="n">
-        <v>336.27</v>
+        <v>336.28</v>
       </c>
       <c r="E318" t="n">
         <v>326.49</v>
@@ -13213,7 +13213,7 @@
         <v>337.72</v>
       </c>
       <c r="D320" t="n">
-        <v>340.7</v>
+        <v>340.66</v>
       </c>
       <c r="E320" t="n">
         <v>331.18</v>
@@ -13255,7 +13255,7 @@
         <v>338.1</v>
       </c>
       <c r="D321" t="n">
-        <v>341.73</v>
+        <v>341.86</v>
       </c>
       <c r="E321" t="n">
         <v>332.17</v>
@@ -13293,7 +13293,7 @@
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="n">
-        <v>345.92</v>
+        <v>345.77</v>
       </c>
       <c r="E322" t="n">
         <v>336.63</v>
@@ -13331,7 +13331,7 @@
       <c r="B323" t="inlineStr"/>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="n">
-        <v>341.54</v>
+        <v>341.39</v>
       </c>
       <c r="E323" t="n">
         <v>338.62</v>
@@ -13373,7 +13373,7 @@
         <v>341.47</v>
       </c>
       <c r="D324" t="n">
-        <v>345.33</v>
+        <v>345.17</v>
       </c>
       <c r="E324" t="n">
         <v>334.92</v>
@@ -13413,7 +13413,7 @@
         <v>327.67</v>
       </c>
       <c r="D325" t="n">
-        <v>339.38</v>
+        <v>339.39</v>
       </c>
       <c r="E325" t="n">
         <v>330.95</v>
@@ -13497,7 +13497,7 @@
         <v>319.38</v>
       </c>
       <c r="D327" t="n">
-        <v>323.7</v>
+        <v>323.64</v>
       </c>
       <c r="E327" t="n">
         <v>318.38</v>
@@ -13539,7 +13539,7 @@
         <v>330.53</v>
       </c>
       <c r="D328" t="n">
-        <v>337.91</v>
+        <v>337.79</v>
       </c>
       <c r="E328" t="n">
         <v>336.03</v>
@@ -13581,7 +13581,7 @@
         <v>341.68</v>
       </c>
       <c r="D329" t="n">
-        <v>342.2</v>
+        <v>342.01</v>
       </c>
       <c r="E329" t="n">
         <v>328.15</v>
@@ -13623,7 +13623,7 @@
         <v>342.54</v>
       </c>
       <c r="D330" t="n">
-        <v>344.2</v>
+        <v>344.14</v>
       </c>
       <c r="E330" t="n">
         <v>338.85</v>
@@ -13659,7 +13659,7 @@
         <v>332.83</v>
       </c>
       <c r="D331" t="n">
-        <v>347.18</v>
+        <v>347.05</v>
       </c>
       <c r="E331" t="n">
         <v>332.6</v>
@@ -13701,7 +13701,7 @@
         <v>332.78</v>
       </c>
       <c r="D332" t="n">
-        <v>347.46</v>
+        <v>347.55</v>
       </c>
       <c r="E332" t="n">
         <v>337.4</v>
@@ -13741,7 +13741,7 @@
         <v>336.38</v>
       </c>
       <c r="D333" t="n">
-        <v>344.43</v>
+        <v>344.55</v>
       </c>
       <c r="E333" t="n">
         <v>329.12</v>
@@ -13813,7 +13813,7 @@
         <v>318.32</v>
       </c>
       <c r="D335" t="n">
-        <v>331.59</v>
+        <v>331.47</v>
       </c>
       <c r="E335" t="n">
         <v>324.82</v>
@@ -13855,7 +13855,7 @@
         <v>324.37</v>
       </c>
       <c r="D336" t="n">
-        <v>325.74</v>
+        <v>325.75</v>
       </c>
       <c r="E336" t="n">
         <v>318.57</v>
@@ -13897,7 +13897,7 @@
         <v>336.09</v>
       </c>
       <c r="D337" t="n">
-        <v>342.48</v>
+        <v>342.41</v>
       </c>
       <c r="E337" t="n">
         <v>338.77</v>
@@ -13935,7 +13935,7 @@
         <v>336.56</v>
       </c>
       <c r="D338" t="n">
-        <v>343.47</v>
+        <v>343.45</v>
       </c>
       <c r="E338" t="n">
         <v>335.16</v>
@@ -13977,7 +13977,7 @@
         <v>320.82</v>
       </c>
       <c r="D339" t="n">
-        <v>336.78</v>
+        <v>336.84</v>
       </c>
       <c r="E339" t="n">
         <v>333.52</v>
@@ -14053,7 +14053,7 @@
         <v>331.05</v>
       </c>
       <c r="D341" t="n">
-        <v>345.16</v>
+        <v>345.08</v>
       </c>
       <c r="E341" t="n">
         <v>334.36</v>
@@ -14095,7 +14095,7 @@
         <v>336.58</v>
       </c>
       <c r="D342" t="n">
-        <v>351.1</v>
+        <v>351.24</v>
       </c>
       <c r="E342" t="n">
         <v>339.33</v>
@@ -14137,7 +14137,7 @@
         <v>339.26</v>
       </c>
       <c r="D343" t="n">
-        <v>340.87</v>
+        <v>340.75</v>
       </c>
       <c r="E343" t="n">
         <v>333.57</v>
@@ -14217,7 +14217,7 @@
         <v>345.65</v>
       </c>
       <c r="D345" t="n">
-        <v>347.56</v>
+        <v>347.57</v>
       </c>
       <c r="E345" t="n">
         <v>328.89</v>
@@ -14259,7 +14259,7 @@
         <v>337.21</v>
       </c>
       <c r="D346" t="n">
-        <v>338.6</v>
+        <v>338.71</v>
       </c>
       <c r="E346" t="n">
         <v>323.17</v>
@@ -14301,7 +14301,7 @@
         <v>340.49</v>
       </c>
       <c r="D347" t="n">
-        <v>347.99</v>
+        <v>347.87</v>
       </c>
       <c r="E347" t="n">
         <v>335.53</v>
@@ -14343,7 +14343,7 @@
         <v>340.49</v>
       </c>
       <c r="D348" t="n">
-        <v>342.65</v>
+        <v>342.74</v>
       </c>
       <c r="E348" t="n">
         <v>336.4</v>
@@ -14381,7 +14381,7 @@
         <v>330.92</v>
       </c>
       <c r="D349" t="n">
-        <v>342.58</v>
+        <v>342.59</v>
       </c>
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
@@ -14411,7 +14411,7 @@
         <v>341.69</v>
       </c>
       <c r="D350" t="n">
-        <v>339.55</v>
+        <v>339.37</v>
       </c>
       <c r="E350" t="n">
         <v>330.4</v>
@@ -14449,7 +14449,7 @@
       <c r="B351" t="inlineStr"/>
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="n">
-        <v>330.9</v>
+        <v>330.94</v>
       </c>
       <c r="E351" t="n">
         <v>332.67</v>
@@ -14489,7 +14489,7 @@
         <v>332.33</v>
       </c>
       <c r="D352" t="n">
-        <v>345.15</v>
+        <v>345.09</v>
       </c>
       <c r="E352" t="n">
         <v>334.04</v>
@@ -14531,7 +14531,7 @@
         <v>337.96</v>
       </c>
       <c r="D353" t="n">
-        <v>345.57</v>
+        <v>345.62</v>
       </c>
       <c r="E353" t="n">
         <v>335.19</v>
@@ -14573,7 +14573,7 @@
         <v>339.24</v>
       </c>
       <c r="D354" t="n">
-        <v>347.01</v>
+        <v>347.04</v>
       </c>
       <c r="E354" t="n">
         <v>329.6</v>
@@ -14647,7 +14647,7 @@
         <v>341.34</v>
       </c>
       <c r="D356" t="n">
-        <v>347</v>
+        <v>346.83</v>
       </c>
       <c r="E356" t="n">
         <v>337.38</v>
@@ -14689,7 +14689,7 @@
         <v>326.13</v>
       </c>
       <c r="D357" t="n">
-        <v>334.18</v>
+        <v>334.15</v>
       </c>
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
@@ -14725,7 +14725,7 @@
         <v>344.12</v>
       </c>
       <c r="D358" t="n">
-        <v>347.49</v>
+        <v>347.39</v>
       </c>
       <c r="E358" t="n">
         <v>339.8</v>
@@ -14799,7 +14799,7 @@
         <v>334.98</v>
       </c>
       <c r="D360" t="n">
-        <v>350.19</v>
+        <v>350.32</v>
       </c>
       <c r="E360" t="n">
         <v>332.47</v>
@@ -14841,7 +14841,7 @@
         <v>341.97</v>
       </c>
       <c r="D361" t="n">
-        <v>347.54</v>
+        <v>347.41</v>
       </c>
       <c r="E361" t="n">
         <v>328.83</v>
@@ -14883,7 +14883,7 @@
         <v>342.24</v>
       </c>
       <c r="D362" t="n">
-        <v>346.73</v>
+        <v>346.83</v>
       </c>
       <c r="E362" t="n">
         <v>329.61</v>
@@ -14925,7 +14925,7 @@
         <v>342.67</v>
       </c>
       <c r="D363" t="n">
-        <v>342.95</v>
+        <v>342.96</v>
       </c>
       <c r="E363" t="n">
         <v>333.84</v>
@@ -14967,7 +14967,7 @@
         <v>343.57</v>
       </c>
       <c r="D364" t="n">
-        <v>345.64</v>
+        <v>345.58</v>
       </c>
       <c r="E364" t="n">
         <v>332.02</v>
@@ -15009,7 +15009,7 @@
         <v>332.13</v>
       </c>
       <c r="D365" t="n">
-        <v>337.43</v>
+        <v>337.42</v>
       </c>
       <c r="E365" t="n">
         <v>328.64</v>
@@ -15051,7 +15051,7 @@
         <v>326.47</v>
       </c>
       <c r="D366" t="n">
-        <v>336.54</v>
+        <v>336.6</v>
       </c>
       <c r="E366" t="n">
         <v>328.56</v>
@@ -15093,7 +15093,7 @@
         <v>338.28</v>
       </c>
       <c r="D367" t="n">
-        <v>345.45</v>
+        <v>345.31</v>
       </c>
       <c r="E367" t="n">
         <v>330.12</v>
@@ -15133,7 +15133,7 @@
         <v>337.15</v>
       </c>
       <c r="D368" t="n">
-        <v>343.51</v>
+        <v>343.39</v>
       </c>
       <c r="E368" t="n">
         <v>331.88</v>
@@ -15175,7 +15175,7 @@
         <v>324.13</v>
       </c>
       <c r="D369" t="n">
-        <v>338.48</v>
+        <v>338.36</v>
       </c>
       <c r="E369" t="n">
         <v>332.98</v>
@@ -15213,7 +15213,7 @@
         <v>336.46</v>
       </c>
       <c r="D370" t="n">
-        <v>334.99</v>
+        <v>335.09</v>
       </c>
       <c r="E370" t="n">
         <v>328.94</v>
@@ -15255,7 +15255,7 @@
         <v>330.91</v>
       </c>
       <c r="D371" t="n">
-        <v>336.14</v>
+        <v>336.02</v>
       </c>
       <c r="E371" t="n">
         <v>332.21</v>
@@ -15297,7 +15297,7 @@
         <v>334</v>
       </c>
       <c r="D372" t="n">
-        <v>339.21</v>
+        <v>339.39</v>
       </c>
       <c r="E372" t="n">
         <v>330</v>
@@ -15339,7 +15339,7 @@
         <v>335.58</v>
       </c>
       <c r="D373" t="n">
-        <v>341.96</v>
+        <v>342.11</v>
       </c>
       <c r="E373" t="n">
         <v>333.37</v>
@@ -15381,7 +15381,7 @@
         <v>338.97</v>
       </c>
       <c r="D374" t="n">
-        <v>340.01</v>
+        <v>339.87</v>
       </c>
       <c r="E374" t="n">
         <v>336.33</v>
@@ -15419,7 +15419,7 @@
       <c r="B375" t="inlineStr"/>
       <c r="C375" t="inlineStr"/>
       <c r="D375" t="n">
-        <v>336.87</v>
+        <v>336.91</v>
       </c>
       <c r="E375" t="n">
         <v>328.17</v>
@@ -15461,7 +15461,7 @@
         <v>335.35</v>
       </c>
       <c r="D376" t="n">
-        <v>335.95</v>
+        <v>335.92</v>
       </c>
       <c r="E376" t="n">
         <v>329.08</v>
@@ -15503,7 +15503,7 @@
         <v>334.17</v>
       </c>
       <c r="D377" t="n">
-        <v>334.03</v>
+        <v>334.06</v>
       </c>
       <c r="E377" t="n">
         <v>332.27</v>
@@ -15545,7 +15545,7 @@
         <v>339.88</v>
       </c>
       <c r="D378" t="n">
-        <v>344.89</v>
+        <v>344.8</v>
       </c>
       <c r="E378" t="n">
         <v>334.13</v>
@@ -15587,7 +15587,7 @@
         <v>334.36</v>
       </c>
       <c r="D379" t="n">
-        <v>339.44</v>
+        <v>339.41</v>
       </c>
       <c r="E379" t="n">
         <v>334.65</v>
@@ -15629,7 +15629,7 @@
         <v>331.27</v>
       </c>
       <c r="D380" t="n">
-        <v>340.01</v>
+        <v>339.88</v>
       </c>
       <c r="E380" t="n">
         <v>331.42</v>
@@ -15713,7 +15713,7 @@
         <v>336.63</v>
       </c>
       <c r="D382" t="n">
-        <v>340.37</v>
+        <v>340.38</v>
       </c>
       <c r="E382" t="n">
         <v>330.31</v>
@@ -15755,7 +15755,7 @@
         <v>337</v>
       </c>
       <c r="D383" t="n">
-        <v>334.76</v>
+        <v>334.83</v>
       </c>
       <c r="E383" t="n">
         <v>333</v>
@@ -15797,7 +15797,7 @@
         <v>319.49</v>
       </c>
       <c r="D384" t="n">
-        <v>332.05</v>
+        <v>331.92</v>
       </c>
       <c r="E384" t="n">
         <v>324.09</v>
@@ -15839,7 +15839,7 @@
         <v>335.84</v>
       </c>
       <c r="D385" t="n">
-        <v>337.46</v>
+        <v>337.62</v>
       </c>
       <c r="E385" t="n">
         <v>331.35</v>
@@ -15881,7 +15881,7 @@
         <v>333.05</v>
       </c>
       <c r="D386" t="n">
-        <v>341.91</v>
+        <v>341.77</v>
       </c>
       <c r="E386" t="n">
         <v>335.45</v>
@@ -15923,7 +15923,7 @@
         <v>333.6</v>
       </c>
       <c r="D387" t="n">
-        <v>334.55</v>
+        <v>334.58</v>
       </c>
       <c r="E387" t="n">
         <v>328.97</v>
@@ -15965,7 +15965,7 @@
         <v>329.66</v>
       </c>
       <c r="D388" t="n">
-        <v>341.94</v>
+        <v>342.04</v>
       </c>
       <c r="E388" t="n">
         <v>324.45</v>
@@ -16007,7 +16007,7 @@
         <v>334.32</v>
       </c>
       <c r="D389" t="n">
-        <v>335.88</v>
+        <v>335.74</v>
       </c>
       <c r="E389" t="n">
         <v>325.35</v>
@@ -16049,7 +16049,7 @@
         <v>330.04</v>
       </c>
       <c r="D390" t="n">
-        <v>339.95</v>
+        <v>339.79</v>
       </c>
       <c r="E390" t="n">
         <v>323.77</v>
@@ -16091,7 +16091,7 @@
         <v>341.55</v>
       </c>
       <c r="D391" t="n">
-        <v>346.19</v>
+        <v>346.06</v>
       </c>
       <c r="E391" t="n">
         <v>334.92</v>
@@ -16133,7 +16133,7 @@
         <v>334.32</v>
       </c>
       <c r="D392" t="n">
-        <v>334.89</v>
+        <v>335.03</v>
       </c>
       <c r="E392" t="n">
         <v>328.2</v>
@@ -16175,7 +16175,7 @@
         <v>330.89</v>
       </c>
       <c r="D393" t="n">
-        <v>335.21</v>
+        <v>335.07</v>
       </c>
       <c r="E393" t="n">
         <v>327.88</v>
@@ -20512,7 +20512,7 @@
         <v>0.1687</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4772018991559609</v>
+        <v>0.4760238726146367</v>
       </c>
       <c r="J4" t="n">
         <v>392</v>
@@ -20521,19 +20521,19 @@
         <v>360</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1949686829052383</v>
+        <v>0.194109496543703</v>
       </c>
       <c r="M4" t="n">
-        <v>5.82920486100435</v>
+        <v>5.828623051816542</v>
       </c>
       <c r="N4" t="n">
-        <v>52.50301033618277</v>
+        <v>52.53136451233542</v>
       </c>
       <c r="O4" t="n">
-        <v>7.245896103049144</v>
+        <v>7.24785240690892</v>
       </c>
       <c r="P4" t="n">
-        <v>329.2345663774245</v>
+        <v>329.2498782514177</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21213,7 +21213,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-42.7500606798252,173.39303104660863</t>
+          <t>-42.7500608690802,173.39303186248844</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -21275,7 +21275,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-42.75006779040169,173.39306170038125</t>
+          <t>-42.75006741189212,173.3930600686213</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -21337,7 +21337,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-42.75004186244233,173.39294992487132</t>
+          <t>-42.750042078734424,173.39295085730478</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -21387,7 +21387,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-42.750064573069615,173.39304783042246</t>
+          <t>-42.75006508676142,173.3930500449536</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -21449,7 +21449,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-42.75005167668801,173.3929922340472</t>
+          <t>-42.75005210927148,173.39299409891478</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -21511,7 +21511,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-42.750041673186765,173.392949108992</t>
+          <t>-42.75004186244233,173.39294992487132</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -21573,7 +21573,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-42.75006378901364,173.39304445034867</t>
+          <t>-42.75006368086799,173.3930439841316</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -21635,7 +21635,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-42.750050622265675,173.3929876884326</t>
+          <t>-42.75005021671858,173.39298594011936</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -21697,7 +21697,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-42.750070115531365,173.39307172404986</t>
+          <t>-42.75006973702195,173.3930700922898</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -21755,7 +21755,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-42.75005843580125,173.3930213726058</t>
+          <t>-42.75005803025468,173.3930196242921</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -21813,7 +21813,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-42.75007133216864,173.39307696899303</t>
+          <t>-42.750071224023124,173.39307650277584</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -21871,7 +21871,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-42.75005689472409,173.39301472901388</t>
+          <t>-42.75005735434363,173.39301671043603</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -21933,7 +21933,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-42.75006933147612,173.39306834397547</t>
+          <t>-42.75006957480361,173.39306939296407</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -21995,7 +21995,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-42.750073386933266,173.39308582711973</t>
+          <t>-42.75007333286053,173.39308559401115</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-42.75004099727392,173.39294619513743</t>
+          <t>-42.75004059172619,173.3929444468247</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -22119,7 +22119,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-42.75006503268859,173.39304981184506</t>
+          <t>-42.75006465417884,173.39304818008526</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -22177,7 +22177,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-42.750068871857465,173.39306636255262</t>
+          <t>-42.75006843927516,173.39306449768404</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-42.75008017305892,173.39311508225285</t>
+          <t>-42.7500800919499,173.39311473258985</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -22293,7 +22293,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-42.75007149438694,173.39307766831882</t>
+          <t>-42.75007171067797,173.39307860075317</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -22355,7 +22355,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-42.7500319670713,173.39290726604622</t>
+          <t>-42.75003223743685,173.3929084315877</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -22417,7 +22417,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-42.75004810787322,173.3929768488908</t>
+          <t>-42.750048432311026,173.39297824754132</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -22475,7 +22475,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-42.75006516787063,173.3930503946164</t>
+          <t>-42.750064978615775,173.3930495787365</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-42.75005427218838,173.39300342325296</t>
+          <t>-42.75005448848003,173.39300435568683</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -22599,7 +22599,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-42.75006519490703,173.39305051117069</t>
+          <t>-42.75006546527112,173.3930516767134</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -22661,7 +22661,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-42.750036914758816,173.39292859545705</t>
+          <t>-42.75003718512413,173.39292976099875</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -22723,7 +22723,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-42.75006322124893,173.39304200270908</t>
+          <t>-42.750063356431,173.39304258548043</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -22785,7 +22785,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-42.7500340759222,173.3929163572701</t>
+          <t>-42.750034265178016,173.39291717314921</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -22847,7 +22847,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-42.750047188632706,173.39297288604777</t>
+          <t>-42.75004686419486,173.3929714873973</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -22909,7 +22909,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-42.75004810787322,173.3929768488908</t>
+          <t>-42.75004816194618,173.39297708199922</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -22963,7 +22963,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-42.75006460010603,173.3930479469767</t>
+          <t>-42.75006495157937,173.39304946218223</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -23025,7 +23025,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-42.750037212160684,173.39292987755294</t>
+          <t>-42.75003742845293,173.39293080998627</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -23087,7 +23087,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-42.750055867339086,173.39301029995278</t>
+          <t>-42.750055407719444,173.39300831853078</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -23145,7 +23145,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-42.750040240251465,173.39294293162038</t>
+          <t>-42.750039861740206,173.39294129986186</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -23203,7 +23203,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-42.7500597065137,173.3930268506555</t>
+          <t>-42.75006013909662,173.39302871552354</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -23265,7 +23265,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-42.750052487782,173.3929957306739</t>
+          <t>-42.75005202816209,173.3929937492521</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -23327,7 +23327,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-42.75003978063065,173.39294095019935</t>
+          <t>-42.750039645448034,173.39294036742845</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -23389,7 +23389,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-42.75007703684243,173.39310156195148</t>
+          <t>-42.75007711795149,173.39310191161445</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -23451,7 +23451,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-42.750079389004945,173.39311170217738</t>
+          <t>-42.75007955122302,173.39311240150332</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -23493,7 +23493,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-42.75006203164646,173.39303687432152</t>
+          <t>-42.75006246422919,173.3930387391897</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -23555,7 +23555,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-42.7500221527941,173.39286495689691</t>
+          <t>-42.75002236908688,173.3928658893298</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -23617,7 +23617,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-42.75005589437555,173.39301041650705</t>
+          <t>-42.75005556993815,173.39300901785617</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -23679,7 +23679,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-42.75005205519855,173.39299386580632</t>
+          <t>-42.750052595927855,173.3929961968908</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -23741,7 +23741,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-42.75007106180482,173.3930758034501</t>
+          <t>-42.75007133216864,173.39307696899303</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -23795,7 +23795,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-42.750039050644546,173.39293780323658</t>
+          <t>-42.750039239900204,173.3929386191158</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -23857,7 +23857,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-42.75004334945027,173.39295633535164</t>
+          <t>-42.750043890180336,173.39295866643548</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -23919,7 +23919,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-42.75004991931734,173.39298465802298</t>
+          <t>-42.7500500815362,173.3929853573483</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -23981,7 +23981,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-42.75004178133281,173.39294957520875</t>
+          <t>-42.750041808369325,173.39294969176294</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -24035,7 +24035,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-42.75005005449973,173.39298524079408</t>
+          <t>-42.75004967598907,173.39298360903507</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -24097,7 +24097,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-42.75004091616438,173.39294584547488</t>
+          <t>-42.75004121356604,173.3929471275709</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -24151,7 +24151,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-42.7500349410916,173.39292008700315</t>
+          <t>-42.750034562580005,173.39291845524494</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -24209,7 +24209,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-42.75004786454487,173.39297579990293</t>
+          <t>-42.75004802676377,173.39297649922818</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -24263,7 +24263,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-42.75007890235071,173.39310960419954</t>
+          <t>-42.75007876716898,173.39310902142793</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -24325,7 +24325,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-42.75004294390269,173.3929545870388</t>
+          <t>-42.75004302501221,173.3929549367014</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-42.75005313665711,173.39299852797532</t>
+          <t>-42.75005329887587,173.3929992273007</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -24445,7 +24445,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-42.750053109620644,173.3929984114211</t>
+          <t>-42.75005337998525,173.39299957696338</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -24561,7 +24561,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-42.75004605310013,173.39296799077124</t>
+          <t>-42.75004597199065,173.39296764110864</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -24623,7 +24623,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-42.75004329537726,173.39295610224326</t>
+          <t>-42.750043376486765,173.39295645190583</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -24677,7 +24677,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-42.75004670197592,173.3929707880721</t>
+          <t>-42.75004713455974,173.39297265293936</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -24739,7 +24739,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-42.750053325912326,173.39299934385494</t>
+          <t>-42.75005343405817,173.39299981007184</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -24793,7 +24793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-42.75003296742375,173.39291157854979</t>
+          <t>-42.75003269705823,173.39291041300825</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -24855,7 +24855,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-42.750056462140954,173.39301286414604</t>
+          <t>-42.75005616474004,173.3930115820494</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -24913,7 +24913,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-42.750045539406756,173.39296577624145</t>
+          <t>-42.75004605310013,173.39296799077124</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -24975,7 +24975,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-42.750030831535895,173.39290237077208</t>
+          <t>-42.750030453024046,173.39290073901407</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -25029,7 +25029,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-42.75005535364654,173.3930080854223</t>
+          <t>-42.75005567808395,173.39300948407313</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -25091,7 +25091,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-42.7500500815362,173.3929853573483</t>
+          <t>-42.750050270791526,173.3929861732278</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -25153,7 +25153,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-42.75004629642855,173.39296903975907</t>
+          <t>-42.75004608013662,173.39296810732543</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -25273,7 +25273,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-42.750039375082814,173.3929392018867</t>
+          <t>-42.75003942915586,173.39293943499504</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -25323,7 +25323,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-42.75005394775089,173.3930020246022</t>
+          <t>-42.75005416404256,173.39300295703603</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -25377,7 +25377,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-42.75005343405817,173.39299981007184</t>
+          <t>-42.750053325912326,173.39299934385494</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -25435,7 +25435,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-42.75003458961654,173.3929185717991</t>
+          <t>-42.75003434628765,173.39291752281167</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -25543,7 +25543,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-42.75002899304957,173.3928944450905</t>
+          <t>-42.75002845231818,173.39289211400776</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -25605,7 +25605,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-42.750057678780934,173.3930181090869</t>
+          <t>-42.750057705817376,173.39301822564119</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -25659,7 +25659,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-42.750043268340754,173.39295598568907</t>
+          <t>-42.75004340352328,173.39295656846005</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-42.75003115597462,173.3929037694218</t>
+          <t>-42.75003088560903,173.39290260388034</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -25783,7 +25783,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-42.75005721916141,173.3930161276648</t>
+          <t>-42.750057705817376,173.39301822564119</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -25845,7 +25845,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-42.7500391317541,173.3929381528991</t>
+          <t>-42.750039104717594,173.39293803634493</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -25907,7 +25907,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-42.750054082933175,173.39300260737335</t>
+          <t>-42.75005416404256,173.39300295703603</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -25969,7 +25969,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-42.750053244802956,173.39299899419223</t>
+          <t>-42.75005297443833,173.39299782864998</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -26027,7 +26027,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-42.750050270791526,173.3929861732278</t>
+          <t>-42.75005054115626,173.39298733876998</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -26089,7 +26089,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-42.75004599902714,173.39296775766283</t>
+          <t>-42.75004562051624,173.39296612590405</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -26201,7 +26201,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-42.750051865943284,173.39299304992676</t>
+          <t>-42.75005183890682,173.39299293337254</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -26259,7 +26259,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-42.75008252522026,173.39312522247974</t>
+          <t>-42.75008284965622,173.39312662113178</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -26321,7 +26321,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-42.75006368086799,173.3930439841316</t>
+          <t>-42.75006343754024,173.3930429351432</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -26379,7 +26379,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-42.75006222090141,173.39303769020137</t>
+          <t>-42.75006181535507,173.39303594188743</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -26437,7 +26437,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-42.75004659382996,173.39297032185527</t>
+          <t>-42.75004643161102,173.39296962253005</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -26499,7 +26499,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-42.75004361981531,173.39295750089357</t>
+          <t>-42.750043646851815,173.39295761744776</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -26561,7 +26561,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-42.75004948673373,173.39298279315557</t>
+          <t>-42.75004978413499,173.39298407525192</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -26623,7 +26623,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-42.75008182227558,173.393122192067</t>
+          <t>-42.750082119675255,173.39312347416472</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -26685,7 +26685,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-42.75005473180813,173.3930054046749</t>
+          <t>-42.75005440737066,173.3930040060241</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -26743,7 +26743,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-42.75007273806031,173.39308302981652</t>
+          <t>-42.750072251405534,173.3930809318391</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -26801,7 +26801,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-42.750035644041645,173.39292311741133</t>
+          <t>-42.7500360495897,173.39292486572378</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -26863,7 +26863,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-42.75006684412772,173.39305762098147</t>
+          <t>-42.750067114491735,173.39305878652425</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -26917,7 +26917,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-42.75006622229047,173.3930549402331</t>
+          <t>-42.75006600599923,173.3930540077989</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -26975,7 +26975,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-42.75007527947903,173.39309398592115</t>
+          <t>-42.750074819860835,173.3930920044979</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -27037,7 +27037,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-42.750070899586525,173.39307510412434</t>
+          <t>-42.75007076440461,173.39307452135284</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -27161,7 +27161,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-42.75005943614938,173.393025685113</t>
+          <t>-42.75005965244084,173.393026617547</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -27223,7 +27223,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-42.7500269112335,173.3928854704222</t>
+          <t>-42.750026586794554,173.39288407177264</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -27285,7 +27285,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-42.750030831535895,173.39290237077208</t>
+          <t>-42.75003037191437,173.3929003893516</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -27347,7 +27347,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-42.75003602255317,173.39292474916962</t>
+          <t>-42.7500358332974,173.39292393329046</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -27409,7 +27409,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-42.75004735085164,173.392973585373</t>
+          <t>-42.750047648252995,173.39297486746926</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -27467,7 +27467,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-42.75005086559393,173.3929887374206</t>
+          <t>-42.7500511629951,173.392990019517</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -27525,7 +27525,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-42.75004037543405,173.39294351439128</t>
+          <t>-42.75004007803235,173.3929422322953</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-42.75003675253962,173.39292789613208</t>
+          <t>-42.75003664439348,173.39292742991543</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -27711,7 +27711,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-42.75004391721683,173.3929587829897</t>
+          <t>-42.75004353870581,173.392957151231</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -27773,7 +27773,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-42.750075441697206,173.393094685247</t>
+          <t>-42.75007490096993,173.39309235416084</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -27835,7 +27835,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-42.75007352211512,173.39308640989125</t>
+          <t>-42.75007376544247,173.39308745888</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -27897,7 +27897,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-42.75008090304012,173.3931182292197</t>
+          <t>-42.750081092294494,173.39311904510004</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -27951,7 +27951,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-42.75002053059801,173.39285796365036</t>
+          <t>-42.75002085503726,173.39285936229965</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -28013,7 +28013,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-42.75005502920911,173.39300668677149</t>
+          <t>-42.75005535364654,173.3930080854223</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -28071,7 +28071,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-42.75008098414914,173.39311857888273</t>
+          <t>-42.750080876003786,173.39311811266538</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -28133,7 +28133,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-42.750039402119334,173.39293931844088</t>
+          <t>-42.75003921286368,173.39293850256163</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -28195,7 +28195,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-42.75006606007205,173.39305424090745</t>
+          <t>-42.75006641154529,173.39305575611303</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -28249,7 +28249,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>-42.75005016264563,173.39298570701095</t>
+          <t>-42.75005037893742,173.39298663944467</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -28311,7 +28311,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-42.7500413487486,173.39294771034182</t>
+          <t>-42.75004115949301,173.39294689446254</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -28369,7 +28369,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-42.750059192821475,173.39302463612475</t>
+          <t>-42.75005862505631,173.39302218848553</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -28419,7 +28419,7 @@
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-42.75005394775089,173.3930020246022</t>
+          <t>-42.750053866641515,173.39300167493948</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -28477,7 +28477,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-42.75005813840043,173.39302009050908</t>
+          <t>-42.75005857098344,173.39302195537704</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -28519,7 +28519,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-42.75005194705268,173.39299339958941</t>
+          <t>-42.750052298526754,173.39299491479431</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -28577,7 +28577,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-42.75004656679347,173.39297020530108</t>
+          <t>-42.75004694530431,173.39297183705992</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -28639,7 +28639,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-42.75003418406839,173.39291682348673</t>
+          <t>-42.75003396777603,173.3929158910535</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -28701,7 +28701,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-42.7500472156692,173.39297300260196</t>
+          <t>-42.75004748603408,173.39297416814404</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -28759,7 +28759,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-42.75005602955778,173.39301099927823</t>
+          <t>-42.75005546179234,173.39300855163924</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -28821,7 +28821,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-42.75004448498336,173.39296123062775</t>
+          <t>-42.75004480942133,173.3929626292781</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -28937,7 +28937,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-42.750018286559374,173.39284828965992</t>
+          <t>-42.750018070266435,173.39284735722714</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -28999,7 +28999,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-42.75005059522921,173.39298757187842</t>
+          <t>-42.75005102781276,173.39298943674592</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -29053,7 +29053,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-42.75005240667261,173.39299538101122</t>
+          <t>-42.75005281221956,173.3929971293246</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -29111,7 +29111,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-42.75004578273519,173.39296682522925</t>
+          <t>-42.75004599902714,173.39296775766283</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -29169,7 +29169,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-42.75004635050154,173.39296927286745</t>
+          <t>-42.750046215319074,173.39296869009647</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -29227,7 +29227,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-42.750081578948574,173.39312114307802</t>
+          <t>-42.75008101118548,173.39311869543704</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -29339,7 +29339,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-42.750074657642635,173.39309130517208</t>
+          <t>-42.75007500911538,173.39309282037806</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -29397,7 +29397,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-42.75007541466084,173.3930945686927</t>
+          <t>-42.75007571206084,173.39309585079013</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -29451,7 +29451,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-42.75005935504009,173.39302533545026</t>
+          <t>-42.75005976058657,173.39302708376403</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -29509,7 +29509,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-42.75006381605005,173.39304456690294</t>
+          <t>-42.750063410503834,173.39304281858895</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -29563,7 +29563,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-42.75006741189212,173.3930600686213</t>
+          <t>-42.75006684412772,173.39305762098147</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -29621,7 +29621,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-42.75008728361282,173.39314573604452</t>
+          <t>-42.750087635084846,173.39314725125112</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -29679,7 +29679,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-42.75009742222103,173.3931894439344</t>
+          <t>-42.75009777369248,173.39319095914152</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -29741,7 +29741,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-42.75007284620581,173.3930834960337</t>
+          <t>-42.750072683987554,173.39308279670792</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -29849,7 +29849,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-42.75012370141552,173.39330273485083</t>
+          <t>-42.75012343105401,173.39330156930592</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -29911,7 +29911,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-42.7500665737637,173.39305645543868</t>
+          <t>-42.75006695227333,173.39305808719857</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -29969,7 +29969,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-42.75005773285381,173.39301834219543</t>
+          <t>-42.75005816543686,173.39302020706333</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -30031,7 +30031,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-42.750113589886936,173.39325914347876</t>
+          <t>-42.7501137521041,173.39325984280546</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -30093,7 +30093,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-42.75008752693961,173.3931467850337</t>
+          <t>-42.75008736472175,173.39314608570757</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -30155,7 +30155,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-42.75007703684243,173.39310156195148</t>
+          <t>-42.750076928697005,173.39310109573424</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -30217,7 +30217,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-42.75009085240482,173.39316112122015</t>
+          <t>-42.75009087944112,173.3931612377745</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -30275,7 +30275,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-42.75001266294088,173.3928240464098</t>
+          <t>-42.75001304145382,173.39282567816684</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -30337,7 +30337,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-42.75007698276971,173.39310132884287</t>
+          <t>-42.75007665833343,173.39309993019108</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -30399,7 +30399,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-42.75008471516275,173.39313466338132</t>
+          <t>-42.7500850395986,173.39313606203348</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -30461,7 +30461,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-42.750082363002264,173.39312452315372</t>
+          <t>-42.75008271447458,173.3931260383601</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -30519,7 +30519,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-42.75008871653713,173.3931519134254</t>
+          <t>-42.75008847321038,173.3931508644362</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -30581,7 +30581,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-42.750078172369264,173.39310645723288</t>
+          <t>-42.75007822644198,173.3931066903415</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -30643,7 +30643,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-42.750044349800845,173.39296064785677</t>
+          <t>-42.75004413350886,173.39295971542325</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -30701,7 +30701,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-42.750083877036694,173.39313105019667</t>
+          <t>-42.7500842014726,173.3931324488488</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -30755,7 +30755,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-42.750041592077224,173.39294875932944</t>
+          <t>-42.75004129467558,173.39294747723343</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -30817,7 +30817,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>-42.750096584096724,173.3931858307483</t>
+          <t>-42.750096908531944,173.39318722940098</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -30937,7 +30937,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>-42.7500823900386,173.39312463970805</t>
+          <t>-42.7500823089296,173.39312429004505</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -31053,7 +31053,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-42.7500832011285,173.39312813633816</t>
+          <t>-42.75008363370977,173.3931300012076</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -31111,7 +31111,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-42.75005813840043,173.39302009050908</t>
+          <t>-42.75005792210891,173.39301915807513</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -31169,7 +31169,7 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-42.75005527253719,173.3930077357596</t>
+          <t>-42.75005513735493,173.39300715298842</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -31231,7 +31231,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-42.75007503615175,173.39309293693236</t>
+          <t>-42.75007552280629,173.39309503490995</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -31293,7 +31293,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-42.75007641500621,173.39309888120226</t>
+          <t>-42.75007590131537,173.3930966666703</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -31355,7 +31355,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>-42.750064573069615,173.39304783042246</t>
+          <t>-42.75006438381473,173.39304701454256</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -31417,7 +31417,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-42.75006416752344,173.3930460821084</t>
+          <t>-42.75006405937779,173.39304561589134</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -31479,7 +31479,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-42.750063518649505,173.393043284806</t>
+          <t>-42.75006357272232,173.39304351791452</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -31541,7 +31541,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-42.750078064223864,173.3931059910156</t>
+          <t>-42.750077685714935,173.39310435925512</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -31603,7 +31603,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-42.750058462837686,173.39302148916005</t>
+          <t>-42.750058192473304,173.39302032361758</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -31665,7 +31665,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-42.75005440737066,173.3930040060241</t>
+          <t>-42.75005443440711,173.39300412257836</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -31723,7 +31723,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-42.75007679351522,173.39310051296266</t>
+          <t>-42.75007698276971,173.39310132884287</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -31785,7 +31785,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-42.75007619871533,173.39309794876775</t>
+          <t>-42.75007652315165,173.3930993474195</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -31847,7 +31847,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-42.75007925382322,173.39311111940575</t>
+          <t>-42.75007874013263,173.3931089048736</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
@@ -31905,7 +31905,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-42.750073441006016,173.39308606022834</t>
+          <t>-42.75007371136972,173.39308722577135</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -31967,7 +31967,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-42.75009534042818,173.39318046924652</t>
+          <t>-42.75009525931935,173.3931801195834</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -32029,7 +32029,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-42.75010204542081,173.3932093747369</t>
+          <t>-42.75010250503696,173.39321135616188</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -32091,7 +32091,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-42.75010020695583,173.39320144903732</t>
+          <t>-42.75009985548451,173.3931999338301</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -32153,7 +32153,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-42.7500984225628,173.39319375644698</t>
+          <t>-42.75009820627271,173.39319282401183</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -32215,7 +32215,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-42.75011158920818,173.39325051844958</t>
+          <t>-42.750111535135765,173.39325028534068</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -32277,7 +32277,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-42.750099801412,173.39319970072128</t>
+          <t>-42.750099585121944,173.39319876828608</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -32339,7 +32339,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-42.75008936540841,173.3931547107301</t>
+          <t>-42.75008977095292,173.3931564590455</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -32401,7 +32401,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-42.7501098859271,173.39324317551979</t>
+          <t>-42.75010961556499,173.39324200997538</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -32463,7 +32463,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-42.75010647936352,173.39322848966134</t>
+          <t>-42.75010631714616,173.3932277903348</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -32521,7 +32521,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-42.75008068674941,173.39311729678508</t>
+          <t>-42.750080767858435,173.39311764644808</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -32583,7 +32583,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-42.75009671927807,173.39318641352025</t>
+          <t>-42.75009634077029,173.3931847817588</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -32645,7 +32645,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-42.75009036575149,173.39315902324157</t>
+          <t>-42.75009063611445,173.3931601887852</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -32703,7 +32703,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-42.75010637121863,173.39322802344364</t>
+          <t>-42.75010669565334,173.39322942209677</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -32765,7 +32765,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-42.750070142567765,173.39307184060414</t>
+          <t>-42.750070467004385,173.39307323925564</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -32823,7 +32823,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-42.75012286329479,173.3932991216617</t>
+          <t>-42.75012259293326,173.39329795611684</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -32939,7 +32939,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-42.750098746997935,173.39319515509973</t>
+          <t>-42.75009901736053,173.3931963206437</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -32997,7 +32997,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-42.750105560131765,173.3932245268109</t>
+          <t>-42.75010588456652,173.393225925464</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -33051,7 +33051,7 @@
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-42.75009412379568,173.39317522429934</t>
+          <t>-42.750093610106305,173.39317300976617</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -33113,7 +33113,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>-42.750097476293554,173.39318967704318</t>
+          <t>-42.750097854801275,173.39319130880472</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -33175,7 +33175,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-42.75009069018704,173.39316042189395</t>
+          <t>-42.750090257606296,173.3931585570241</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -33291,7 +33291,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-42.75009901736053,173.3931963206437</t>
+          <t>-42.7500992336506,173.3931972530789</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -33353,7 +33353,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-42.75011256251143,173.39325471440964</t>
+          <t>-42.75011248140283,173.3932543647463</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -33415,7 +33415,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-42.75009834145402,173.39319340678378</t>
+          <t>-42.750098125163916,173.39319247434864</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -33477,7 +33477,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-42.750070980695675,173.39307545378722</t>
+          <t>-42.750070953659296,173.39307533723291</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -33539,7 +33539,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-42.75010423535634,173.39321881564436</t>
+          <t>-42.75010461386363,173.39322044740624</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -33655,7 +33655,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-42.75007852384183,173.39310797243905</t>
+          <t>-42.75007890235071,173.39310960419954</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -33717,7 +33717,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-42.75008771619377,173.3931476009142</t>
+          <t>-42.750088094702086,173.3931492326752</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -33779,7 +33779,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-42.75003748252598,173.3929310430946</t>
+          <t>-42.750037320306795,173.3929303437696</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -33841,7 +33841,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-42.750039293973245,173.39293885222415</t>
+          <t>-42.750039402119334,173.39293931844088</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -33899,7 +33899,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-42.75006514083422,173.39305027806213</t>
+          <t>-42.750064978615775,173.3930495787365</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -33961,7 +33961,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-42.75009023057,173.39315844046973</t>
+          <t>-42.7500896628077,173.3931559928281</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -34019,7 +34019,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-42.750116482759104,173.39327161480568</t>
+          <t>-42.750116834229466,173.3932731300137</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -34077,7 +34077,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-42.75009531339191,173.39318035269216</t>
+          <t>-42.750095637827194,173.39318175134477</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -34135,7 +34135,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-42.750083471491806,173.39312930188157</t>
+          <t>-42.7500832011285,173.39312813633816</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -34189,7 +34189,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-42.75009412379568,173.39317522429934</t>
+          <t>-42.75009385343285,173.39317405875556</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -34251,7 +34251,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-42.75008182227558,173.393122192067</t>
+          <t>-42.7500821467116,173.39312359071903</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -34313,7 +34313,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-42.7500599498416,173.39302789964378</t>
+          <t>-42.75006032835163,173.39302953140333</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -34375,7 +34375,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-42.75011761827866,173.39327651009322</t>
+          <t>-42.75011721273599,173.39327476177624</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -34429,7 +34429,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-42.75009087944112,173.3931612377745</t>
+          <t>-42.75009077129594,173.39316077155706</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -34491,7 +34491,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-42.75010661454466,173.39322907243346</t>
+          <t>-42.75010707416049,173.39323105385873</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -34553,7 +34553,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-42.75009947697692,173.3931983020685</t>
+          <t>-42.75009893625175,173.3931959709805</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -34615,7 +34615,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-42.75008817581101,173.39314958233825</t>
+          <t>-42.75008863542821,173.39315156376233</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -34677,7 +34677,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-42.75008998724331,173.39315739148046</t>
+          <t>-42.75009001427961,173.3931575080348</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -34739,7 +34739,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-42.7500753065154,173.39309410247546</t>
+          <t>-42.75007498207901,173.39309270382375</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -34797,7 +34797,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-42.75008385000037,173.39313093364234</t>
+          <t>-42.75008366074609,173.39313011776196</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -34859,7 +34859,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-42.75005435329775,173.39300377291565</t>
+          <t>-42.75005421811547,173.3930031901445</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -34921,7 +34921,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-42.750048459347504,173.3929783640955</t>
+          <t>-42.750047999727286,173.39297638267396</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -34975,7 +34975,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-42.75007352211512,173.39308640989125</t>
+          <t>-42.75007319767867,173.3930850112396</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -35029,7 +35029,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-42.7500752254063,173.39309375281252</t>
+          <t>-42.750075495769934,173.39309491835564</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -35091,7 +35091,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-42.7500558132662,173.3930100668443</t>
+          <t>-42.75005611066714,173.39301134894095</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -35153,7 +35153,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-42.75010820968177,173.39323594914478</t>
+          <t>-42.75010848004395,173.39323711468913</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -35215,7 +35215,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-42.750070115531365,173.39307172404986</t>
+          <t>-42.75006962887638,173.39306962607264</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -35277,7 +35277,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-42.75005724619787,173.39301624421904</t>
+          <t>-42.750057029906316,173.39301531178512</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -35339,7 +35339,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-42.75005559697459,173.39300913441045</t>
+          <t>-42.75005578622974,173.3930099502901</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -35393,7 +35393,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-42.7500850395986,173.39313606203348</t>
+          <t>-42.75008482330803,173.3931351295987</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -35451,7 +35451,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-42.75008906800907,173.3931534286321</t>
+          <t>-42.75008860839191,173.393151447208</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -35505,7 +35505,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-42.75007819940563,173.39310657378718</t>
+          <t>-42.75007852384183,173.39310797243905</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -35559,7 +35559,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-42.75008820284732,173.39314969889264</t>
+          <t>-42.75008774323009,173.39314771746857</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -35621,7 +35621,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>-42.750067898547265,173.39306216659838</t>
+          <t>-42.7500676011469,173.3930608845013</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -35683,7 +35683,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-42.750056759541856,173.39301414624268</t>
+          <t>-42.75005678657831,173.39301426279692</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -35745,7 +35745,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-42.75006641154529,173.39305575611303</t>
+          <t>-42.750066330436084,173.3930554064502</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -35807,7 +35807,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-42.75003137226707,173.39290470185497</t>
+          <t>-42.75003102079182,173.39290318665107</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -35861,7 +35861,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-42.750050622265675,173.3929876884326</t>
+          <t>-42.75005108188569,173.39298966985436</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -35923,7 +35923,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-42.75009944994066,173.3931981855141</t>
+          <t>-42.75009942290441,173.3931980689597</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -35977,7 +35977,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-42.75008825691994,173.39314993200134</t>
+          <t>-42.750088067665786,173.39314911612084</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -36039,7 +36039,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-42.75002453201425,173.39287521365915</t>
+          <t>-42.750024153502025,173.39287358190148</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -36081,7 +36081,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>-42.7500486215664,173.39297906342077</t>
+          <t>-42.750049054150075,173.39298092828818</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -36131,7 +36131,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-42.75004832416509,173.39297778132448</t>
+          <t>-42.75004851342046,173.39297859720395</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -36193,7 +36193,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>-42.750054515516474,173.39300447224105</t>
+          <t>-42.75005435329775,173.39300377291565</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -36247,7 +36247,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>-42.750059787623,173.39302720031827</t>
+          <t>-42.750059625404404,173.39302650099276</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -36309,7 +36309,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-42.75007371136972,173.39308722577135</t>
+          <t>-42.750074089878915,173.39308885753164</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -36371,7 +36371,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>-42.750057138052085,173.39301577800205</t>
+          <t>-42.75005673250541,173.39301402968846</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -36425,7 +36425,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>-42.75005102781276,173.39298943674592</t>
+          <t>-42.75005046004684,173.39298698910733</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -36517,7 +36517,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>-42.75003312964305,173.3929122778747</t>
+          <t>-42.75003345408162,173.39291367652453</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -36625,7 +36625,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>-42.75003926693673,173.39293873567</t>
+          <t>-42.75003907768108,173.39293791979077</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -36679,7 +36679,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-42.75004305204872,173.39295505325558</t>
+          <t>-42.75004313315823,173.39295540291812</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -36733,7 +36733,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>-42.75007430616985,173.39308978996607</t>
+          <t>-42.750074279133486,173.39308967341177</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -36795,7 +36795,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>-42.75005632695872,173.39301228137484</t>
+          <t>-42.750056245849386,173.39301193171212</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -36849,7 +36849,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>-42.750064870470126,173.39304911251944</t>
+          <t>-42.75006516787063,173.3930503946164</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -37113,7 +37113,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-42.75007722609692,173.3931023778317</t>
+          <t>-42.75007703684243,173.39310156195148</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -37175,7 +37175,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>-42.750083579637106,173.39312976809893</t>
+          <t>-42.75008385000037,173.39313093364234</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -37217,7 +37217,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>-42.750065248979844,173.39305074427924</t>
+          <t>-42.750065627489555,173.39305237603904</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -37279,7 +37279,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>-42.75004770232596,173.39297510057767</t>
+          <t>-42.75004732381516,173.3929734688188</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -37379,7 +37379,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>-42.75008141673055,173.39312044375203</t>
+          <t>-42.750080876003786,173.39311811266538</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -37479,7 +37479,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>-42.750077766824006,173.39310470891806</t>
+          <t>-42.750077874969406,173.39310517513536</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -37541,7 +37541,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>-42.75004234909952,173.39295202284666</t>
+          <t>-42.750042808720146,173.39295400426786</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -37629,7 +37629,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>-42.75006441085115,173.39304713109684</t>
+          <t>-42.750064140487034,173.39304596555414</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -37691,7 +37691,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>-42.7500877973027,173.39314795057726</t>
+          <t>-42.750087905447934,173.3931484167947</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -37749,7 +37749,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>-42.75004102431045,173.39294631169162</t>
+          <t>-42.75004132171208,173.39294759378762</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>-42.750082119675255,173.39312347416472</t>
+          <t>-42.7500823900386,173.39312463970805</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -37857,7 +37857,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-42.75006603303564,173.39305412435317</t>
+          <t>-42.75006551934393,173.39305190982193</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -37911,7 +37911,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>-42.75004932451487,173.39298209383028</t>
+          <t>-42.750049703025546,173.39298372558926</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -37953,7 +37953,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>-42.75006446492397,173.3930473642054</t>
+          <t>-42.75006478936089,173.3930487628566</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -38015,7 +38015,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-42.75005556993815,173.39300901785617</t>
+          <t>-42.75005584030265,173.39301018339856</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -38077,7 +38077,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>-42.750075252442656,173.39309386936685</t>
+          <t>-42.75007473875174,173.393091654835</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -38131,7 +38131,7 @@
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
-          <t>-42.75006825002041,173.39306368180405</t>
+          <t>-42.75006854742075,173.3930649639012</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -38193,7 +38193,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>-42.75006346457667,173.39304305169748</t>
+          <t>-42.75006311310325,173.39304153649203</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -38239,7 +38239,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>-42.750063059030424,173.3930413033835</t>
+          <t>-42.75006338346742,173.39304270203468</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -38297,7 +38297,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>-42.75006446492397,173.3930473642054</t>
+          <t>-42.75006416752344,173.3930460821084</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -38373,7 +38373,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>-42.75008487738068,173.3931353627074</t>
+          <t>-42.7500850395986,173.39313606203348</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -38485,7 +38485,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>-42.75008825691994,173.39314993200134</t>
+          <t>-42.75008850024669,173.39315098099055</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -38547,7 +38547,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>-42.75009671927807,173.39318641352025</t>
+          <t>-42.750096746314334,173.39318653007467</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -38609,7 +38609,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>-42.750101153224634,173.39320552844146</t>
+          <t>-42.750100855825885,173.393204246343</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -38743,7 +38743,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>-42.750069655912775,173.39306974262695</t>
+          <t>-42.75006919629416,173.39306776120407</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -38839,7 +38839,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>-42.75011069701339,173.39324667215297</t>
+          <t>-42.75011096737546,173.39324783769737</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -38901,7 +38901,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>-42.75004651272048,173.39296997219267</t>
+          <t>-42.75004686419486,173.3929714873973</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -38993,7 +38993,7 @@
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>-42.75008163302124,173.39312137618668</t>
+          <t>-42.75008187634825,173.3931224251757</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -39035,7 +39035,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>-42.75008825691994,173.39314993200134</t>
+          <t>-42.75008847321038,173.3931508644362</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -39153,7 +39153,7 @@
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
-          <t>-42.749997522403916,173.39275877614256</t>
+          <t>-42.74999738722038,173.39275819337246</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -39195,7 +39195,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>-42.75009260976376,173.39316869725425</t>
+          <t>-42.75009282605404,173.39316962968923</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -39257,7 +39257,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>-42.75008366074609,173.39313011776196</t>
+          <t>-42.75008333631016,173.39312871910988</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -39315,7 +39315,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>-42.75007536058811,173.3930943355841</t>
+          <t>-42.75007500911538,173.39309282037806</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -39377,7 +39377,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>-42.75008917615429,173.39315389484958</t>
+          <t>-42.75008963577142,173.3931558762737</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -39439,7 +39439,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>-42.750072251405534,173.3930809318391</t>
+          <t>-42.75007271102393,173.39308291326222</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -39501,7 +39501,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>-42.75006727671012,173.3930594858499</t>
+          <t>-42.75006730374653,173.3930596024042</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -39621,7 +39621,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>-42.75007925382322,173.39311111940575</t>
+          <t>-42.75007914567783,173.39311065318847</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -39683,7 +39683,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>-42.75008203856626,173.3931231245017</t>
+          <t>-42.7500823900386,173.39312463970805</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -39737,7 +39737,7 @@
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>-42.75009336677976,173.39317196077675</t>
+          <t>-42.75009296123548,173.39317021246111</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -39791,7 +39791,7 @@
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>-42.75008152487589,173.39312090996935</t>
+          <t>-42.75008111933083,173.3931191616544</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -39853,7 +39853,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>-42.750091771638786,173.3931650840687</t>
+          <t>-42.75009133905811,173.39316321919878</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -39911,7 +39911,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>-42.75007568502448,173.3930957342358</t>
+          <t>-42.75007571206084,173.39309585079013</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -40035,7 +40035,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>-42.75003329186234,173.39291297719961</t>
+          <t>-42.75003312964305,173.3929122778747</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -40097,7 +40097,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>-42.75007171067797,173.39307860075317</t>
+          <t>-42.750071386241416,173.3930772021016</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -40159,7 +40159,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>-42.750083309273826,173.39312860255552</t>
+          <t>-42.75008279558357,173.39312638802312</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -40221,7 +40221,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>-42.75008871653713,173.3931519134254</t>
+          <t>-42.7500885543193,173.39315121409928</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -40271,7 +40271,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>-42.750096773350606,173.39318664662903</t>
+          <t>-42.7500964218791,173.393185131422</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -40333,7 +40333,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>-42.7500975303661,173.39318991015196</t>
+          <t>-42.75009777369248,173.39319095914152</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -40391,7 +40391,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>-42.750089338372106,173.39315459417574</t>
+          <t>-42.7500896628077,173.3931559928281</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -40491,7 +40491,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>-42.7500546236623,173.39300493845798</t>
+          <t>-42.75005429922484,173.39300353980718</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -40553,7 +40553,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>-42.75003880731583,173.392936754249</t>
+          <t>-42.75003883435235,173.3929368708032</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -40615,7 +40615,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>-42.75008406629098,173.39313186607708</t>
+          <t>-42.750083877036694,173.39313105019667</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -40669,7 +40669,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>-42.75008674288657,173.39314340495744</t>
+          <t>-42.75008668881395,173.39314317184875</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -40731,7 +40731,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>-42.750068655566324,173.39306543011833</t>
+          <t>-42.75006881778468,173.39306612944404</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -40839,7 +40839,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>-42.75009131202182,173.3931631026444</t>
+          <t>-42.75009109573147,173.39316217020945</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -40901,7 +40901,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>-42.750107371558926,173.39323233595744</t>
+          <t>-42.75010775006604,173.39323396771945</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -40963,7 +40963,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>-42.75007971344109,173.39311310082928</t>
+          <t>-42.750079389004945,173.39311170217738</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -41079,7 +41079,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>-42.750097800728746,173.3931910756959</t>
+          <t>-42.750097827765,173.3931911922503</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -41141,7 +41141,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>-42.75007357618787,173.39308664299986</t>
+          <t>-42.75007387358795,173.3930879250972</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -41203,7 +41203,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>-42.75009896328801,173.3931960875349</t>
+          <t>-42.75009863885288,173.39319468888215</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -41265,7 +41265,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>-42.75008452590848,173.3931338475009</t>
+          <t>-42.750084769235386,173.39313489649004</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -41319,7 +41319,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>-42.750084336654226,173.39313303162052</t>
+          <t>-42.75008436369055,173.39313314817485</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -41357,7 +41357,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>-42.75007614464261,173.3930977156591</t>
+          <t>-42.75007565798811,173.3930956176815</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -41411,7 +41411,7 @@
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr">
         <is>
-          <t>-42.75005275814663,173.39299689621615</t>
+          <t>-42.750052866292485,173.39299736243305</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -41469,7 +41469,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>-42.75009128498553,173.39316298609006</t>
+          <t>-42.75009112276776,173.39316228676384</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -41531,7 +41531,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>-42.75009242050975,173.39316788137364</t>
+          <t>-42.750092555691175,173.3931684641455</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -41593,7 +41593,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>-42.75009631373402,173.39318466520444</t>
+          <t>-42.75009639484283,173.39318501486758</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -41697,7 +41697,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>-42.75009628669775,173.39318454865005</t>
+          <t>-42.75009582708112,173.3931825672255</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -41759,7 +41759,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>-42.750061626100106,173.39303512600765</t>
+          <t>-42.75006154499084,173.39303477634488</t>
         </is>
       </c>
       <c r="E357" t="inlineStr"/>
@@ -41809,7 +41809,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>-42.75009761147489,173.39319025981516</t>
+          <t>-42.75009734111223,173.39318909427126</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -41913,7 +41913,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>-42.750104911262206,173.39322172950483</t>
+          <t>-42.75010526273323,173.39322324471232</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -41975,7 +41975,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>-42.7500977466562,173.39319084258713</t>
+          <t>-42.75009739518477,173.39318932738004</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -42037,7 +42037,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>-42.75009555671837,173.39318140168163</t>
+          <t>-42.75009582708112,173.3931825672255</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -42099,7 +42099,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>-42.75008533699812,173.39313734413128</t>
+          <t>-42.75008536403444,173.39313746068564</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -42161,7 +42161,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>-42.75009260976376,173.39316869725425</t>
+          <t>-42.75009244754603,173.39316799792803</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -42223,7 +42223,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>-42.750070412931606,173.39307300614706</t>
+          <t>-42.75007038589522,173.3930728895928</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -42285,7 +42285,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>-42.75006800669286,173.39306263281551</t>
+          <t>-42.75006816891123,173.3930633321412</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -42347,7 +42347,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>-42.750092096074276,173.39316648272117</t>
+          <t>-42.75009171756621,173.39316485095998</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -42405,7 +42405,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>-42.750086851031824,173.39314387117486</t>
+          <t>-42.75008652659607,173.39314247252264</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -42467,7 +42467,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>-42.75007325175141,173.3930852443482</t>
+          <t>-42.750072927314925,173.39308384569662</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -42521,7 +42521,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>-42.75006381605005,173.39304456690294</t>
+          <t>-42.7500640864142,173.39304573244561</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -42583,7 +42583,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>-42.75006692523692,173.3930579706443</t>
+          <t>-42.7500666008001,173.39305657199296</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -42645,7 +42645,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>-42.7500752254063,173.39309375281252</t>
+          <t>-42.75007571206084,173.39309585079013</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -42707,7 +42707,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>-42.75008266040191,173.39312580525143</t>
+          <t>-42.75008306594687,173.39312755356647</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -42769,7 +42769,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>-42.750077388315056,173.3931030771576</t>
+          <t>-42.75007700980607,173.39310144539718</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -42823,7 +42823,7 @@
       <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr">
         <is>
-          <t>-42.750068898893865,173.3930664791069</t>
+          <t>-42.75006900703943,173.39306694532405</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -42885,7 +42885,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>-42.75006641154529,173.39305575611303</t>
+          <t>-42.750066330436084,173.3930554064502</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -42947,7 +42947,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>-42.75006122055374,173.39303337769377</t>
+          <t>-42.75006130166301,173.39303372735654</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -43009,7 +43009,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>-42.75009058204187,173.39315995567648</t>
+          <t>-42.75009033871519,173.39315890668718</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -43071,7 +43071,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>-42.75007584724265,173.39309643356168</t>
+          <t>-42.75007576613357,173.39309608389874</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -43133,7 +43133,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>-42.750077388315056,173.3931030771576</t>
+          <t>-42.75007703684243,173.39310156195148</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -43257,7 +43257,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>-42.75007836162374,173.39310727311312</t>
+          <t>-42.75007838866008,173.39310738966745</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -43319,7 +43319,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>-42.7500631942125,173.3930418861548</t>
+          <t>-42.75006338346742,173.39304270203468</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -43381,7 +43381,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>-42.750055867339086,173.39301029995278</t>
+          <t>-42.75005551586525,173.3930087847477</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -43443,7 +43443,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>-42.750070494040756,173.39307335580995</t>
+          <t>-42.750070926622925,173.3930752206786</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -43505,7 +43505,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>-42.75008252522026,173.39312522247974</t>
+          <t>-42.7500821467116,173.39312359071903</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -43567,7 +43567,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>-42.750062626447715,173.3930394385153</t>
+          <t>-42.75006270755698,173.39303978817807</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -43629,7 +43629,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>-42.750082606329244,173.39312557214274</t>
+          <t>-42.75008287669256,173.39312673768612</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -43691,7 +43691,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>-42.75006622229047,173.3930549402331</t>
+          <t>-42.7500658437808,173.39305330847324</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -43753,7 +43753,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>-42.75007722609692,173.3931023778317</t>
+          <t>-42.75007679351522,173.39310051296266</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -43815,7 +43815,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>-42.75009409675939,173.39317510774498</t>
+          <t>-42.75009374528772,173.39317359253806</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -43877,7 +43877,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>-42.750063545685904,173.39304340136027</t>
+          <t>-42.75006392419572,173.39304503312002</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -43939,7 +43939,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>-42.75006441085115,173.39304713109684</t>
+          <t>-42.75006403234138,173.39304549933706</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
